--- a/云基产品功能分析.xlsx
+++ b/云基产品功能分析.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17655"/>
+    <workbookView windowWidth="27945" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="功能分析" sheetId="3" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1255" uniqueCount="479">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1254" uniqueCount="479">
   <si>
     <t>业务模块</t>
   </si>
@@ -1555,11 +1555,10 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="等线"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -2347,7 +2346,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="118">
+  <cellXfs count="145">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2459,13 +2458,16 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
@@ -2477,12 +2479,18 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -2510,21 +2518,39 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -2534,21 +2560,36 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -2564,6 +2605,9 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -2594,27 +2638,45 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -2645,6 +2707,15 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -2660,8 +2731,11 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -2678,8 +2752,11 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -2687,17 +2764,20 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -3021,10 +3101,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AB284"/>
+  <dimension ref="A1:AC284"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A96" workbookViewId="0">
-      <selection activeCell="I165" sqref="I165:I167"/>
+    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" topLeftCell="A206" workbookViewId="0">
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8" defaultRowHeight="12.75"/>
@@ -3033,83 +3113,89 @@
     <col min="2" max="2" width="15.4" style="37" customWidth="1"/>
     <col min="3" max="3" width="21.8" style="37" customWidth="1"/>
     <col min="4" max="4" width="10.8" style="38"/>
-    <col min="5" max="5" width="12" style="39" customWidth="1"/>
-    <col min="6" max="7" width="20.6" style="37" customWidth="1"/>
-    <col min="8" max="8" width="106.8" style="37" customWidth="1"/>
-    <col min="9" max="9" width="21.8" style="37" customWidth="1"/>
-    <col min="10" max="10" width="21.6" style="37" hidden="1" customWidth="1"/>
-    <col min="11" max="16384" width="10.8" style="37"/>
+    <col min="5" max="5" width="13.0952380952381" style="39" customWidth="1"/>
+    <col min="6" max="6" width="20.6" style="37" customWidth="1"/>
+    <col min="7" max="7" width="13.4285714285714" style="37" customWidth="1"/>
+    <col min="8" max="8" width="13.0952380952381" style="40" customWidth="1"/>
+    <col min="9" max="9" width="106.8" style="37" customWidth="1"/>
+    <col min="10" max="10" width="21.8" style="37" customWidth="1"/>
+    <col min="11" max="11" width="21.6" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="16384" width="10.8" style="37"/>
   </cols>
   <sheetData>
-    <row r="1" s="35" customFormat="1" ht="27" spans="1:10">
-      <c r="A1" s="40" t="s">
+    <row r="1" s="35" customFormat="1" ht="27" spans="1:11">
+      <c r="A1" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="40" t="s">
+      <c r="B1" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="40" t="s">
+      <c r="C1" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="41" t="s">
+      <c r="D1" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="42" t="s">
+      <c r="E1" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="40" t="s">
+      <c r="F1" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="40" t="s">
+      <c r="G1" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="40" t="s">
+      <c r="H1" s="44" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="41" t="s">
+      <c r="J1" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="70" t="s">
+      <c r="K1" s="84" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" s="36" customFormat="1" ht="25.5" customHeight="1" spans="1:28">
-      <c r="A2" s="43" t="s">
+    <row r="2" s="36" customFormat="1" ht="25.5" customHeight="1" spans="1:29">
+      <c r="A2" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="44"/>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="44"/>
-      <c r="H2" s="44"/>
-      <c r="I2" s="71"/>
-      <c r="J2" s="71"/>
-      <c r="K2" s="71"/>
-      <c r="L2" s="71"/>
-      <c r="M2" s="71"/>
-      <c r="N2" s="71"/>
-      <c r="O2" s="71"/>
-      <c r="P2" s="71"/>
-      <c r="Q2" s="71"/>
-      <c r="R2" s="71"/>
-      <c r="S2" s="71"/>
-      <c r="T2" s="71"/>
-      <c r="U2" s="71"/>
-      <c r="V2" s="71"/>
-      <c r="W2" s="71"/>
-      <c r="X2" s="71"/>
-      <c r="Y2" s="71"/>
-      <c r="Z2" s="71"/>
-      <c r="AA2" s="71"/>
-      <c r="AB2" s="71"/>
-    </row>
-    <row r="3" ht="60" customHeight="1" spans="1:10">
+      <c r="B2" s="46"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="47"/>
+      <c r="I2" s="46"/>
+      <c r="J2" s="85"/>
+      <c r="K2" s="85"/>
+      <c r="L2" s="85"/>
+      <c r="M2" s="85"/>
+      <c r="N2" s="85"/>
+      <c r="O2" s="85"/>
+      <c r="P2" s="85"/>
+      <c r="Q2" s="85"/>
+      <c r="R2" s="85"/>
+      <c r="S2" s="85"/>
+      <c r="T2" s="85"/>
+      <c r="U2" s="85"/>
+      <c r="V2" s="85"/>
+      <c r="W2" s="85"/>
+      <c r="X2" s="85"/>
+      <c r="Y2" s="85"/>
+      <c r="Z2" s="85"/>
+      <c r="AA2" s="85"/>
+      <c r="AB2" s="85"/>
+      <c r="AC2" s="85"/>
+    </row>
+    <row r="3" ht="60" customHeight="1" spans="1:11">
       <c r="A3" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="45" t="s">
+      <c r="B3" s="48" t="s">
         <v>12</v>
       </c>
       <c r="C3" s="27" t="s">
@@ -3121,84 +3207,84 @@
       <c r="F3" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="46"/>
-      <c r="H3" s="13" t="s">
+      <c r="G3" s="49"/>
+      <c r="I3" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="I3" s="17" t="s">
+      <c r="J3" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="J3" s="7" t="s">
+      <c r="K3" s="7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" ht="94.5" spans="1:10">
-      <c r="A4" s="47"/>
-      <c r="B4" s="48"/>
-      <c r="C4" s="49"/>
-      <c r="D4" s="47"/>
-      <c r="E4" s="39"/>
-      <c r="F4" s="49"/>
-      <c r="G4" s="50"/>
-      <c r="H4" s="13" t="s">
+    <row r="4" ht="94.5" spans="1:11">
+      <c r="A4" s="50"/>
+      <c r="B4" s="51"/>
+      <c r="C4" s="52"/>
+      <c r="D4" s="50"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="53"/>
+      <c r="H4" s="40"/>
+      <c r="I4" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="I4" s="47"/>
-      <c r="J4" s="7" t="s">
+      <c r="J4" s="50"/>
+      <c r="K4" s="7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="5" ht="13.5" spans="1:10">
-      <c r="A5" s="47"/>
-      <c r="B5" s="48"/>
-      <c r="C5" s="49"/>
-      <c r="D5" s="47"/>
-      <c r="E5" s="39"/>
-      <c r="F5" s="49"/>
-      <c r="G5" s="50"/>
-      <c r="H5" s="13" t="s">
+    <row r="5" ht="13.5" spans="1:11">
+      <c r="A5" s="50"/>
+      <c r="B5" s="51"/>
+      <c r="C5" s="52"/>
+      <c r="D5" s="50"/>
+      <c r="F5" s="52"/>
+      <c r="G5" s="53"/>
+      <c r="H5" s="40"/>
+      <c r="I5" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="I5" s="47"/>
-      <c r="J5" s="7" t="s">
+      <c r="J5" s="50"/>
+      <c r="K5" s="7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6" ht="13.5" spans="1:10">
-      <c r="A6" s="47"/>
-      <c r="B6" s="48"/>
-      <c r="C6" s="49"/>
-      <c r="D6" s="47"/>
-      <c r="E6" s="39"/>
-      <c r="F6" s="49"/>
-      <c r="G6" s="50"/>
-      <c r="H6" s="13" t="s">
+    <row r="6" ht="13.5" spans="1:11">
+      <c r="A6" s="50"/>
+      <c r="B6" s="51"/>
+      <c r="C6" s="52"/>
+      <c r="D6" s="50"/>
+      <c r="F6" s="52"/>
+      <c r="G6" s="53"/>
+      <c r="H6" s="40"/>
+      <c r="I6" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="I6" s="47"/>
-      <c r="J6" s="7" t="s">
+      <c r="J6" s="50"/>
+      <c r="K6" s="7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="7" ht="13.5" spans="1:10">
-      <c r="A7" s="47"/>
-      <c r="B7" s="48"/>
-      <c r="C7" s="51"/>
+    <row r="7" ht="13.5" spans="1:11">
+      <c r="A7" s="50"/>
+      <c r="B7" s="51"/>
+      <c r="C7" s="54"/>
       <c r="D7" s="20"/>
-      <c r="E7" s="39"/>
-      <c r="F7" s="51"/>
-      <c r="G7" s="52"/>
-      <c r="H7" s="13" t="s">
+      <c r="F7" s="54"/>
+      <c r="G7" s="55"/>
+      <c r="H7" s="40"/>
+      <c r="I7" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="I7" s="20"/>
-      <c r="J7" s="7" t="s">
+      <c r="J7" s="20"/>
+      <c r="K7" s="7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" ht="13.5" spans="1:10">
-      <c r="A8" s="47"/>
-      <c r="B8" s="48"/>
+    <row r="8" ht="13.5" spans="1:11">
+      <c r="A8" s="50"/>
+      <c r="B8" s="51"/>
       <c r="C8" s="27" t="s">
         <v>22</v>
       </c>
@@ -3208,246 +3294,255 @@
       <c r="F8" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="G8" s="46"/>
-      <c r="H8" s="13" t="s">
+      <c r="G8" s="49"/>
+      <c r="I8" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="I8" s="17"/>
-      <c r="J8" s="7" t="s">
+      <c r="J8" s="17"/>
+      <c r="K8" s="7" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="9" ht="27" spans="1:10">
-      <c r="A9" s="47"/>
-      <c r="B9" s="48"/>
-      <c r="C9" s="49"/>
-      <c r="D9" s="47"/>
-      <c r="E9" s="39"/>
-      <c r="F9" s="49"/>
-      <c r="G9" s="50"/>
-      <c r="H9" s="13" t="s">
+    <row r="9" ht="27" spans="1:11">
+      <c r="A9" s="50"/>
+      <c r="B9" s="51"/>
+      <c r="C9" s="52"/>
+      <c r="D9" s="50"/>
+      <c r="F9" s="52"/>
+      <c r="G9" s="53"/>
+      <c r="H9" s="40"/>
+      <c r="I9" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="I9" s="47"/>
-      <c r="J9" s="7" t="s">
+      <c r="J9" s="50"/>
+      <c r="K9" s="7" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="10" ht="13.5" spans="1:10">
-      <c r="A10" s="47"/>
-      <c r="B10" s="48"/>
-      <c r="C10" s="49"/>
-      <c r="D10" s="47"/>
-      <c r="E10" s="39"/>
-      <c r="F10" s="49"/>
-      <c r="G10" s="50"/>
-      <c r="H10" s="13" t="s">
+    <row r="10" ht="13.5" spans="1:11">
+      <c r="A10" s="50"/>
+      <c r="B10" s="51"/>
+      <c r="C10" s="52"/>
+      <c r="D10" s="50"/>
+      <c r="F10" s="52"/>
+      <c r="G10" s="53"/>
+      <c r="H10" s="40"/>
+      <c r="I10" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="I10" s="47"/>
-      <c r="J10" s="7" t="s">
+      <c r="J10" s="50"/>
+      <c r="K10" s="7" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="11" ht="13.5" spans="1:10">
-      <c r="A11" s="47"/>
-      <c r="B11" s="48"/>
-      <c r="C11" s="49"/>
-      <c r="D11" s="47"/>
-      <c r="E11" s="39"/>
-      <c r="F11" s="49"/>
-      <c r="G11" s="50"/>
-      <c r="H11" s="13" t="s">
+    <row r="11" ht="13.5" spans="1:11">
+      <c r="A11" s="50"/>
+      <c r="B11" s="51"/>
+      <c r="C11" s="52"/>
+      <c r="D11" s="50"/>
+      <c r="F11" s="52"/>
+      <c r="G11" s="53"/>
+      <c r="H11" s="40"/>
+      <c r="I11" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="I11" s="47"/>
-      <c r="J11" s="7" t="s">
+      <c r="J11" s="50"/>
+      <c r="K11" s="7" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="12" ht="13.5" spans="1:10">
-      <c r="A12" s="47"/>
-      <c r="B12" s="48"/>
-      <c r="C12" s="51"/>
+    <row r="12" ht="13.5" spans="1:11">
+      <c r="A12" s="50"/>
+      <c r="B12" s="51"/>
+      <c r="C12" s="54"/>
       <c r="D12" s="20"/>
-      <c r="E12" s="39"/>
-      <c r="F12" s="51"/>
-      <c r="G12" s="52"/>
-      <c r="H12" s="13" t="s">
+      <c r="F12" s="54"/>
+      <c r="G12" s="55"/>
+      <c r="H12" s="40"/>
+      <c r="I12" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="I12" s="20"/>
-      <c r="J12" s="7" t="s">
+      <c r="J12" s="20"/>
+      <c r="K12" s="7" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="13" ht="13.5" spans="1:10">
-      <c r="A13" s="47"/>
-      <c r="B13" s="48"/>
+    <row r="13" ht="13.5" spans="1:11">
+      <c r="A13" s="50"/>
+      <c r="B13" s="51"/>
       <c r="C13" s="27" t="s">
         <v>28</v>
       </c>
       <c r="D13" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="E13" s="53"/>
+      <c r="E13" s="56"/>
       <c r="F13" s="27" t="s">
         <v>29</v>
       </c>
       <c r="G13" s="27"/>
-      <c r="H13" s="13" t="s">
+      <c r="H13" s="57"/>
+      <c r="I13" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="I13" s="17"/>
-      <c r="J13" s="7" t="s">
+      <c r="J13" s="17"/>
+      <c r="K13" s="7" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="14" ht="13.5" spans="1:10">
-      <c r="A14" s="47"/>
-      <c r="B14" s="48"/>
-      <c r="C14" s="49"/>
-      <c r="D14" s="47"/>
-      <c r="E14" s="54"/>
-      <c r="F14" s="49"/>
-      <c r="G14" s="49"/>
-      <c r="H14" s="13" t="s">
+    <row r="14" ht="13.5" spans="1:11">
+      <c r="A14" s="50"/>
+      <c r="B14" s="51"/>
+      <c r="C14" s="52"/>
+      <c r="D14" s="50"/>
+      <c r="E14" s="58"/>
+      <c r="F14" s="52"/>
+      <c r="G14" s="52"/>
+      <c r="H14" s="59"/>
+      <c r="I14" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="I14" s="47"/>
-      <c r="J14" s="7" t="s">
+      <c r="J14" s="50"/>
+      <c r="K14" s="7" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="15" ht="13.5" spans="1:10">
-      <c r="A15" s="47"/>
-      <c r="B15" s="48"/>
-      <c r="C15" s="49"/>
-      <c r="D15" s="47"/>
-      <c r="E15" s="54"/>
-      <c r="F15" s="49"/>
-      <c r="G15" s="49"/>
-      <c r="H15" s="13" t="s">
+    <row r="15" ht="13.5" spans="1:11">
+      <c r="A15" s="50"/>
+      <c r="B15" s="51"/>
+      <c r="C15" s="52"/>
+      <c r="D15" s="50"/>
+      <c r="E15" s="58"/>
+      <c r="F15" s="52"/>
+      <c r="G15" s="52"/>
+      <c r="H15" s="59"/>
+      <c r="I15" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="I15" s="47"/>
-      <c r="J15" s="7" t="s">
+      <c r="J15" s="50"/>
+      <c r="K15" s="7" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="16" ht="13.5" spans="1:10">
-      <c r="A16" s="47"/>
-      <c r="B16" s="48"/>
-      <c r="C16" s="49"/>
-      <c r="D16" s="47"/>
-      <c r="E16" s="54"/>
-      <c r="F16" s="49"/>
-      <c r="G16" s="49"/>
-      <c r="H16" s="13" t="s">
+    <row r="16" ht="13.5" spans="1:11">
+      <c r="A16" s="50"/>
+      <c r="B16" s="51"/>
+      <c r="C16" s="52"/>
+      <c r="D16" s="50"/>
+      <c r="E16" s="58"/>
+      <c r="F16" s="52"/>
+      <c r="G16" s="52"/>
+      <c r="H16" s="59"/>
+      <c r="I16" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="I16" s="47"/>
-      <c r="J16" s="7" t="s">
+      <c r="J16" s="50"/>
+      <c r="K16" s="7" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="17" ht="13.5" spans="1:10">
-      <c r="A17" s="47"/>
-      <c r="B17" s="48"/>
-      <c r="C17" s="49"/>
-      <c r="D17" s="47"/>
-      <c r="E17" s="54"/>
-      <c r="F17" s="49"/>
-      <c r="G17" s="49"/>
-      <c r="H17" s="13" t="s">
+    <row r="17" ht="13.5" spans="1:11">
+      <c r="A17" s="50"/>
+      <c r="B17" s="51"/>
+      <c r="C17" s="52"/>
+      <c r="D17" s="50"/>
+      <c r="E17" s="58"/>
+      <c r="F17" s="52"/>
+      <c r="G17" s="52"/>
+      <c r="H17" s="59"/>
+      <c r="I17" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="I17" s="47"/>
-      <c r="J17" s="7" t="s">
+      <c r="J17" s="50"/>
+      <c r="K17" s="7" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="18" ht="13.5" spans="1:10">
-      <c r="A18" s="47"/>
-      <c r="B18" s="48"/>
-      <c r="C18" s="49"/>
-      <c r="D18" s="47"/>
-      <c r="E18" s="54"/>
-      <c r="F18" s="49"/>
-      <c r="G18" s="49"/>
-      <c r="H18" s="13" t="s">
+    <row r="18" ht="13.5" spans="1:11">
+      <c r="A18" s="50"/>
+      <c r="B18" s="51"/>
+      <c r="C18" s="52"/>
+      <c r="D18" s="50"/>
+      <c r="E18" s="58"/>
+      <c r="F18" s="52"/>
+      <c r="G18" s="52"/>
+      <c r="H18" s="59"/>
+      <c r="I18" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="I18" s="47"/>
-      <c r="J18" s="7" t="s">
+      <c r="J18" s="50"/>
+      <c r="K18" s="7" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="19" ht="13.5" spans="1:10">
-      <c r="A19" s="47"/>
-      <c r="B19" s="55"/>
-      <c r="C19" s="51"/>
+    <row r="19" ht="13.5" spans="1:11">
+      <c r="A19" s="50"/>
+      <c r="B19" s="60"/>
+      <c r="C19" s="54"/>
       <c r="D19" s="20"/>
-      <c r="E19" s="56"/>
-      <c r="F19" s="51"/>
-      <c r="G19" s="51"/>
-      <c r="H19" s="13" t="s">
+      <c r="E19" s="61"/>
+      <c r="F19" s="54"/>
+      <c r="G19" s="54"/>
+      <c r="H19" s="62"/>
+      <c r="I19" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="I19" s="20"/>
-      <c r="J19" s="7" t="s">
+      <c r="J19" s="20"/>
+      <c r="K19" s="7" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="20" ht="13.5" spans="1:10">
-      <c r="A20" s="47"/>
-      <c r="B20" s="45" t="s">
+    <row r="20" ht="13.5" spans="1:11">
+      <c r="A20" s="50"/>
+      <c r="B20" s="48" t="s">
         <v>36</v>
       </c>
-      <c r="C20" s="57" t="s">
+      <c r="C20" s="63" t="s">
         <v>37</v>
       </c>
       <c r="D20" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="E20" s="58"/>
+      <c r="E20" s="64"/>
       <c r="F20" s="12" t="s">
         <v>29</v>
       </c>
       <c r="G20" s="12"/>
-      <c r="H20" s="13" t="s">
+      <c r="H20" s="65"/>
+      <c r="I20" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="I20" s="13"/>
-      <c r="J20" s="7" t="s">
+      <c r="J20" s="13"/>
+      <c r="K20" s="7" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="21" ht="27" spans="1:10">
-      <c r="A21" s="47"/>
-      <c r="B21" s="55"/>
-      <c r="C21" s="57" t="s">
+    <row r="21" ht="27" spans="1:11">
+      <c r="A21" s="50"/>
+      <c r="B21" s="60"/>
+      <c r="C21" s="63" t="s">
         <v>40</v>
       </c>
       <c r="D21" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="E21" s="58"/>
+      <c r="E21" s="64"/>
       <c r="F21" s="12" t="s">
         <v>29</v>
       </c>
       <c r="G21" s="12"/>
-      <c r="H21" s="13" t="s">
+      <c r="H21" s="65"/>
+      <c r="I21" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="I21" s="13"/>
-      <c r="J21" s="7" t="s">
+      <c r="J21" s="13"/>
+      <c r="K21" s="7" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="22" ht="15" customHeight="1" spans="1:10">
-      <c r="A22" s="47"/>
-      <c r="B22" s="45" t="s">
+    <row r="22" ht="15" customHeight="1" spans="1:11">
+      <c r="A22" s="50"/>
+      <c r="B22" s="48" t="s">
         <v>43</v>
       </c>
       <c r="C22" s="27" t="s">
@@ -3456,40 +3551,42 @@
       <c r="D22" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="E22" s="46"/>
+      <c r="E22" s="66"/>
       <c r="F22" s="27" t="s">
         <v>44</v>
       </c>
       <c r="G22" s="27"/>
-      <c r="H22" s="13" t="s">
+      <c r="H22" s="49"/>
+      <c r="I22" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="I22" s="17" t="s">
+      <c r="J22" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="J22" s="7" t="s">
+      <c r="K22" s="7" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="23" ht="25" customHeight="1" spans="1:10">
-      <c r="A23" s="47"/>
-      <c r="B23" s="55"/>
-      <c r="C23" s="51"/>
+    <row r="23" ht="25" customHeight="1" spans="1:11">
+      <c r="A23" s="50"/>
+      <c r="B23" s="60"/>
+      <c r="C23" s="54"/>
       <c r="D23" s="20"/>
-      <c r="E23" s="52"/>
-      <c r="F23" s="51"/>
-      <c r="G23" s="51"/>
-      <c r="H23" s="13" t="s">
+      <c r="E23" s="67"/>
+      <c r="F23" s="54"/>
+      <c r="G23" s="54"/>
+      <c r="H23" s="55"/>
+      <c r="I23" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="I23" s="20"/>
-      <c r="J23" s="7" t="s">
+      <c r="J23" s="20"/>
+      <c r="K23" s="7" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="24" ht="30" customHeight="1" spans="1:10">
-      <c r="A24" s="47"/>
-      <c r="B24" s="59" t="s">
+    <row r="24" ht="30" customHeight="1" spans="1:11">
+      <c r="A24" s="50"/>
+      <c r="B24" s="68" t="s">
         <v>48</v>
       </c>
       <c r="C24" s="12" t="s">
@@ -3498,697 +3595,734 @@
       <c r="D24" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="E24" s="58" t="s">
+      <c r="E24" s="65" t="s">
         <v>51</v>
       </c>
       <c r="F24" s="27" t="s">
         <v>29</v>
       </c>
       <c r="G24" s="27"/>
-      <c r="H24" s="13" t="s">
+      <c r="H24" s="64"/>
+      <c r="I24" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="I24" s="17" t="s">
+      <c r="J24" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="J24" s="7" t="s">
+      <c r="K24" s="7" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="25" ht="13.5" spans="1:10">
-      <c r="A25" s="47"/>
-      <c r="B25" s="60"/>
+    <row r="25" ht="13.5" spans="1:11">
+      <c r="A25" s="50"/>
+      <c r="B25" s="69"/>
       <c r="C25" s="27" t="s">
         <v>54</v>
       </c>
       <c r="D25" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="E25" s="61"/>
-      <c r="F25" s="49"/>
-      <c r="G25" s="49"/>
-      <c r="H25" s="13" t="s">
+      <c r="E25" s="70"/>
+      <c r="F25" s="52"/>
+      <c r="G25" s="52"/>
+      <c r="H25" s="71"/>
+      <c r="I25" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="I25" s="47"/>
-      <c r="J25" s="7" t="s">
+      <c r="J25" s="50"/>
+      <c r="K25" s="7" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="26" ht="13.5" spans="1:10">
-      <c r="A26" s="47"/>
-      <c r="B26" s="60"/>
-      <c r="C26" s="51"/>
+    <row r="26" ht="13.5" spans="1:11">
+      <c r="A26" s="50"/>
+      <c r="B26" s="69"/>
+      <c r="C26" s="54"/>
       <c r="D26" s="20"/>
-      <c r="E26" s="62"/>
-      <c r="F26" s="49"/>
-      <c r="G26" s="49"/>
-      <c r="H26" s="13" t="s">
+      <c r="E26" s="72"/>
+      <c r="F26" s="52"/>
+      <c r="G26" s="52"/>
+      <c r="H26" s="73"/>
+      <c r="I26" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="I26" s="47"/>
-      <c r="J26" s="7" t="s">
+      <c r="J26" s="50"/>
+      <c r="K26" s="7" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="27" ht="30" customHeight="1" spans="1:10">
-      <c r="A27" s="47"/>
-      <c r="B27" s="63"/>
+    <row r="27" ht="30" customHeight="1" spans="1:11">
+      <c r="A27" s="50"/>
+      <c r="B27" s="74"/>
       <c r="C27" s="12" t="s">
         <v>57</v>
       </c>
       <c r="D27" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="E27" s="64"/>
-      <c r="F27" s="51"/>
-      <c r="G27" s="51"/>
-      <c r="H27" s="13" t="s">
+      <c r="E27" s="75"/>
+      <c r="F27" s="54"/>
+      <c r="G27" s="54"/>
+      <c r="H27" s="76"/>
+      <c r="I27" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="I27" s="20"/>
-      <c r="J27" s="7" t="s">
+      <c r="J27" s="20"/>
+      <c r="K27" s="7" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="28" ht="13.5" spans="1:10">
-      <c r="A28" s="47"/>
-      <c r="B28" s="45" t="s">
+    <row r="28" ht="13.5" spans="1:11">
+      <c r="A28" s="50"/>
+      <c r="B28" s="48" t="s">
         <v>59</v>
       </c>
-      <c r="C28" s="57" t="s">
+      <c r="C28" s="63" t="s">
         <v>60</v>
       </c>
       <c r="D28" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="E28" s="64"/>
+      <c r="E28" s="75"/>
       <c r="F28" s="12" t="s">
         <v>29</v>
       </c>
       <c r="G28" s="12"/>
-      <c r="H28" s="13" t="s">
+      <c r="H28" s="76"/>
+      <c r="I28" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="I28" s="13"/>
-      <c r="J28" s="7" t="s">
+      <c r="J28" s="13"/>
+      <c r="K28" s="7" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="29" ht="13.5" spans="1:10">
-      <c r="A29" s="47"/>
-      <c r="B29" s="48"/>
-      <c r="C29" s="45" t="s">
+    <row r="29" ht="13.5" spans="1:11">
+      <c r="A29" s="50"/>
+      <c r="B29" s="51"/>
+      <c r="C29" s="48" t="s">
         <v>62</v>
       </c>
       <c r="D29" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="E29" s="61"/>
+      <c r="E29" s="70"/>
       <c r="F29" s="27" t="s">
         <v>29</v>
       </c>
       <c r="G29" s="27"/>
-      <c r="H29" s="13" t="s">
+      <c r="H29" s="71"/>
+      <c r="I29" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="I29" s="17"/>
-      <c r="J29" s="7" t="s">
+      <c r="J29" s="17"/>
+      <c r="K29" s="7" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="30" ht="13.5" spans="1:10">
-      <c r="A30" s="47"/>
-      <c r="B30" s="48"/>
-      <c r="C30" s="48"/>
-      <c r="D30" s="47"/>
-      <c r="E30" s="65"/>
-      <c r="F30" s="49"/>
-      <c r="G30" s="49"/>
-      <c r="H30" s="13" t="s">
+    <row r="30" ht="13.5" spans="1:11">
+      <c r="A30" s="50"/>
+      <c r="B30" s="51"/>
+      <c r="C30" s="51"/>
+      <c r="D30" s="50"/>
+      <c r="E30" s="77"/>
+      <c r="F30" s="52"/>
+      <c r="G30" s="52"/>
+      <c r="H30" s="78"/>
+      <c r="I30" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="I30" s="47"/>
-      <c r="J30" s="7" t="s">
+      <c r="J30" s="50"/>
+      <c r="K30" s="7" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="31" ht="13.5" spans="1:10">
-      <c r="A31" s="47"/>
-      <c r="B31" s="48"/>
-      <c r="C31" s="48"/>
-      <c r="D31" s="47"/>
-      <c r="E31" s="65"/>
-      <c r="F31" s="49"/>
-      <c r="G31" s="49"/>
-      <c r="H31" s="13" t="s">
+    <row r="31" ht="13.5" spans="1:11">
+      <c r="A31" s="50"/>
+      <c r="B31" s="51"/>
+      <c r="C31" s="51"/>
+      <c r="D31" s="50"/>
+      <c r="E31" s="77"/>
+      <c r="F31" s="52"/>
+      <c r="G31" s="52"/>
+      <c r="H31" s="78"/>
+      <c r="I31" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="I31" s="47"/>
-      <c r="J31" s="7" t="s">
+      <c r="J31" s="50"/>
+      <c r="K31" s="7" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="32" ht="13.5" spans="1:10">
-      <c r="A32" s="47"/>
-      <c r="B32" s="48"/>
-      <c r="C32" s="55"/>
+    <row r="32" ht="13.5" spans="1:11">
+      <c r="A32" s="50"/>
+      <c r="B32" s="51"/>
+      <c r="C32" s="60"/>
       <c r="D32" s="20"/>
-      <c r="E32" s="62"/>
-      <c r="F32" s="51"/>
-      <c r="G32" s="51"/>
-      <c r="H32" s="13" t="s">
+      <c r="E32" s="72"/>
+      <c r="F32" s="54"/>
+      <c r="G32" s="54"/>
+      <c r="H32" s="73"/>
+      <c r="I32" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="I32" s="20"/>
-      <c r="J32" s="7" t="s">
+      <c r="J32" s="20"/>
+      <c r="K32" s="7" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="33" ht="13.5" spans="1:10">
-      <c r="A33" s="47"/>
-      <c r="B33" s="48"/>
-      <c r="C33" s="57" t="s">
+    <row r="33" ht="13.5" spans="1:11">
+      <c r="A33" s="50"/>
+      <c r="B33" s="51"/>
+      <c r="C33" s="63" t="s">
         <v>67</v>
       </c>
       <c r="D33" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="E33" s="64"/>
+      <c r="E33" s="75"/>
       <c r="F33" s="12" t="s">
         <v>29</v>
       </c>
       <c r="G33" s="12"/>
-      <c r="H33" s="13" t="s">
+      <c r="H33" s="76"/>
+      <c r="I33" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="I33" s="13"/>
-      <c r="J33" s="7" t="s">
+      <c r="J33" s="13"/>
+      <c r="K33" s="7" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="34" ht="27" spans="1:10">
-      <c r="A34" s="47"/>
-      <c r="B34" s="48"/>
-      <c r="C34" s="57" t="s">
+    <row r="34" ht="27" spans="1:11">
+      <c r="A34" s="50"/>
+      <c r="B34" s="51"/>
+      <c r="C34" s="63" t="s">
         <v>69</v>
       </c>
       <c r="D34" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="E34" s="64"/>
+      <c r="E34" s="75"/>
       <c r="F34" s="12" t="s">
         <v>29</v>
       </c>
       <c r="G34" s="12"/>
-      <c r="H34" s="13" t="s">
+      <c r="H34" s="76"/>
+      <c r="I34" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="I34" s="13"/>
-      <c r="J34" s="7" t="s">
+      <c r="J34" s="13"/>
+      <c r="K34" s="7" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="35" ht="13.5" spans="1:10">
-      <c r="A35" s="47"/>
-      <c r="B35" s="48"/>
+    <row r="35" ht="13.5" spans="1:11">
+      <c r="A35" s="50"/>
+      <c r="B35" s="51"/>
       <c r="C35" s="12" t="s">
         <v>71</v>
       </c>
       <c r="D35" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="E35" s="64"/>
+      <c r="E35" s="75"/>
       <c r="F35" s="12" t="s">
         <v>44</v>
       </c>
       <c r="G35" s="12"/>
-      <c r="H35" s="13" t="s">
+      <c r="H35" s="76"/>
+      <c r="I35" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="I35" s="13" t="s">
+      <c r="J35" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="J35" s="7" t="s">
+      <c r="K35" s="7" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="36" ht="13.5" spans="1:10">
-      <c r="A36" s="47"/>
-      <c r="B36" s="48"/>
+    <row r="36" ht="13.5" spans="1:11">
+      <c r="A36" s="50"/>
+      <c r="B36" s="51"/>
       <c r="C36" s="12" t="s">
         <v>74</v>
       </c>
       <c r="D36" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="E36" s="64"/>
+      <c r="E36" s="75"/>
       <c r="F36" s="12" t="s">
         <v>44</v>
       </c>
       <c r="G36" s="12"/>
-      <c r="H36" s="13" t="s">
+      <c r="H36" s="76"/>
+      <c r="I36" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="I36" s="13" t="s">
+      <c r="J36" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="J36" s="7" t="s">
+      <c r="K36" s="7" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="37" ht="13.5" spans="1:10">
-      <c r="A37" s="47"/>
-      <c r="B37" s="55"/>
+    <row r="37" ht="13.5" spans="1:11">
+      <c r="A37" s="50"/>
+      <c r="B37" s="60"/>
       <c r="C37" s="12" t="s">
         <v>76</v>
       </c>
       <c r="D37" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="E37" s="64"/>
+      <c r="E37" s="75"/>
       <c r="F37" s="12" t="s">
         <v>44</v>
       </c>
       <c r="G37" s="12"/>
-      <c r="H37" s="12" t="s">
+      <c r="H37" s="76"/>
+      <c r="I37" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="I37" s="13" t="s">
+      <c r="J37" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="J37" s="7" t="s">
+      <c r="K37" s="7" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="38" ht="27" spans="1:10">
-      <c r="A38" s="47"/>
-      <c r="B38" s="57" t="s">
+    <row r="38" ht="27" spans="1:11">
+      <c r="A38" s="50"/>
+      <c r="B38" s="63" t="s">
         <v>78</v>
       </c>
-      <c r="C38" s="57" t="s">
+      <c r="C38" s="63" t="s">
         <v>79</v>
       </c>
       <c r="D38" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="E38" s="64"/>
+      <c r="E38" s="75"/>
       <c r="F38" s="12" t="s">
         <v>29</v>
       </c>
       <c r="G38" s="12"/>
-      <c r="H38" s="13" t="s">
+      <c r="H38" s="76"/>
+      <c r="I38" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="I38" s="13"/>
-      <c r="J38" s="7" t="s">
+      <c r="J38" s="13"/>
+      <c r="K38" s="7" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="39" ht="13.5" spans="1:10">
-      <c r="A39" s="47"/>
-      <c r="B39" s="45" t="s">
+    <row r="39" ht="13.5" spans="1:11">
+      <c r="A39" s="50"/>
+      <c r="B39" s="48" t="s">
         <v>81</v>
       </c>
-      <c r="C39" s="45" t="s">
+      <c r="C39" s="48" t="s">
         <v>82</v>
       </c>
       <c r="D39" s="17" t="s">
         <v>83</v>
       </c>
-      <c r="E39" s="53"/>
+      <c r="E39" s="56"/>
       <c r="F39" s="27" t="s">
         <v>29</v>
       </c>
       <c r="G39" s="27"/>
-      <c r="H39" s="13" t="s">
+      <c r="H39" s="57"/>
+      <c r="I39" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="I39" s="17"/>
-      <c r="J39" s="7" t="s">
+      <c r="J39" s="17"/>
+      <c r="K39" s="7" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="40" ht="13.5" spans="1:10">
-      <c r="A40" s="47"/>
-      <c r="B40" s="48"/>
-      <c r="C40" s="48"/>
-      <c r="D40" s="47"/>
-      <c r="E40" s="54"/>
-      <c r="F40" s="49"/>
-      <c r="G40" s="49"/>
-      <c r="H40" s="13" t="s">
+    <row r="40" ht="13.5" spans="1:11">
+      <c r="A40" s="50"/>
+      <c r="B40" s="51"/>
+      <c r="C40" s="51"/>
+      <c r="D40" s="50"/>
+      <c r="E40" s="58"/>
+      <c r="F40" s="52"/>
+      <c r="G40" s="52"/>
+      <c r="H40" s="59"/>
+      <c r="I40" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="I40" s="47"/>
-      <c r="J40" s="7" t="s">
+      <c r="J40" s="50"/>
+      <c r="K40" s="7" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="41" ht="67.5" spans="1:10">
-      <c r="A41" s="47"/>
-      <c r="B41" s="48"/>
-      <c r="C41" s="48"/>
-      <c r="D41" s="47"/>
-      <c r="E41" s="54"/>
-      <c r="F41" s="49"/>
-      <c r="G41" s="49"/>
-      <c r="H41" s="13" t="s">
+    <row r="41" ht="67.5" spans="1:11">
+      <c r="A41" s="50"/>
+      <c r="B41" s="51"/>
+      <c r="C41" s="51"/>
+      <c r="D41" s="50"/>
+      <c r="E41" s="58"/>
+      <c r="F41" s="52"/>
+      <c r="G41" s="52"/>
+      <c r="H41" s="59"/>
+      <c r="I41" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="I41" s="47"/>
-      <c r="J41" s="7" t="s">
+      <c r="J41" s="50"/>
+      <c r="K41" s="7" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="42" ht="13.5" spans="1:10">
-      <c r="A42" s="47"/>
-      <c r="B42" s="48"/>
-      <c r="C42" s="48"/>
-      <c r="D42" s="47"/>
-      <c r="E42" s="54"/>
-      <c r="F42" s="49"/>
-      <c r="G42" s="49"/>
-      <c r="H42" s="13" t="s">
+    <row r="42" ht="13.5" spans="1:11">
+      <c r="A42" s="50"/>
+      <c r="B42" s="51"/>
+      <c r="C42" s="51"/>
+      <c r="D42" s="50"/>
+      <c r="E42" s="58"/>
+      <c r="F42" s="52"/>
+      <c r="G42" s="52"/>
+      <c r="H42" s="59"/>
+      <c r="I42" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="I42" s="47"/>
-      <c r="J42" s="7" t="s">
+      <c r="J42" s="50"/>
+      <c r="K42" s="7" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="43" ht="13.5" spans="1:10">
-      <c r="A43" s="47"/>
-      <c r="B43" s="48"/>
-      <c r="C43" s="48"/>
-      <c r="D43" s="47"/>
-      <c r="E43" s="54"/>
-      <c r="F43" s="49"/>
-      <c r="G43" s="49"/>
-      <c r="H43" s="13" t="s">
+    <row r="43" ht="13.5" spans="1:11">
+      <c r="A43" s="50"/>
+      <c r="B43" s="51"/>
+      <c r="C43" s="51"/>
+      <c r="D43" s="50"/>
+      <c r="E43" s="58"/>
+      <c r="F43" s="52"/>
+      <c r="G43" s="52"/>
+      <c r="H43" s="59"/>
+      <c r="I43" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="I43" s="47"/>
-      <c r="J43" s="7" t="s">
+      <c r="J43" s="50"/>
+      <c r="K43" s="7" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="44" ht="13.5" spans="1:10">
-      <c r="A44" s="47"/>
-      <c r="B44" s="48"/>
-      <c r="C44" s="48"/>
-      <c r="D44" s="47"/>
-      <c r="E44" s="54"/>
-      <c r="F44" s="49"/>
-      <c r="G44" s="49"/>
-      <c r="H44" s="13" t="s">
+    <row r="44" ht="13.5" spans="1:11">
+      <c r="A44" s="50"/>
+      <c r="B44" s="51"/>
+      <c r="C44" s="51"/>
+      <c r="D44" s="50"/>
+      <c r="E44" s="58"/>
+      <c r="F44" s="52"/>
+      <c r="G44" s="52"/>
+      <c r="H44" s="59"/>
+      <c r="I44" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="I44" s="47"/>
-      <c r="J44" s="7" t="s">
+      <c r="J44" s="50"/>
+      <c r="K44" s="7" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="45" ht="13.5" spans="1:10">
-      <c r="A45" s="47"/>
-      <c r="B45" s="48"/>
-      <c r="C45" s="48"/>
-      <c r="D45" s="47"/>
-      <c r="E45" s="54"/>
-      <c r="F45" s="49"/>
-      <c r="G45" s="49"/>
-      <c r="H45" s="13" t="s">
+    <row r="45" ht="13.5" spans="1:11">
+      <c r="A45" s="50"/>
+      <c r="B45" s="51"/>
+      <c r="C45" s="51"/>
+      <c r="D45" s="50"/>
+      <c r="E45" s="58"/>
+      <c r="F45" s="52"/>
+      <c r="G45" s="52"/>
+      <c r="H45" s="59"/>
+      <c r="I45" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="I45" s="47"/>
-      <c r="J45" s="7" t="s">
+      <c r="J45" s="50"/>
+      <c r="K45" s="7" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="46" ht="13.5" spans="1:10">
-      <c r="A46" s="47"/>
-      <c r="B46" s="48"/>
-      <c r="C46" s="48"/>
-      <c r="D46" s="47"/>
-      <c r="E46" s="54"/>
-      <c r="F46" s="49"/>
-      <c r="G46" s="49"/>
-      <c r="H46" s="12" t="s">
+    <row r="46" ht="13.5" spans="1:11">
+      <c r="A46" s="50"/>
+      <c r="B46" s="51"/>
+      <c r="C46" s="51"/>
+      <c r="D46" s="50"/>
+      <c r="E46" s="58"/>
+      <c r="F46" s="52"/>
+      <c r="G46" s="52"/>
+      <c r="H46" s="59"/>
+      <c r="I46" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="I46" s="47"/>
-      <c r="J46" s="7" t="s">
+      <c r="J46" s="50"/>
+      <c r="K46" s="7" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="47" ht="13.5" spans="1:10">
-      <c r="A47" s="47"/>
-      <c r="B47" s="48"/>
-      <c r="C47" s="48"/>
-      <c r="D47" s="47"/>
-      <c r="E47" s="54"/>
-      <c r="F47" s="49"/>
-      <c r="G47" s="49"/>
-      <c r="H47" s="12" t="s">
+    <row r="47" ht="13.5" spans="1:11">
+      <c r="A47" s="50"/>
+      <c r="B47" s="51"/>
+      <c r="C47" s="51"/>
+      <c r="D47" s="50"/>
+      <c r="E47" s="58"/>
+      <c r="F47" s="52"/>
+      <c r="G47" s="52"/>
+      <c r="H47" s="59"/>
+      <c r="I47" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="I47" s="47"/>
-      <c r="J47" s="7" t="s">
+      <c r="J47" s="50"/>
+      <c r="K47" s="7" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="48" ht="13.5" spans="1:10">
-      <c r="A48" s="47"/>
-      <c r="B48" s="48"/>
-      <c r="C48" s="48"/>
-      <c r="D48" s="47"/>
-      <c r="E48" s="54"/>
-      <c r="F48" s="49"/>
-      <c r="G48" s="49"/>
-      <c r="H48" s="12" t="s">
+    <row r="48" ht="13.5" spans="1:11">
+      <c r="A48" s="50"/>
+      <c r="B48" s="51"/>
+      <c r="C48" s="51"/>
+      <c r="D48" s="50"/>
+      <c r="E48" s="58"/>
+      <c r="F48" s="52"/>
+      <c r="G48" s="52"/>
+      <c r="H48" s="59"/>
+      <c r="I48" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="I48" s="47"/>
-      <c r="J48" s="7" t="s">
+      <c r="J48" s="50"/>
+      <c r="K48" s="7" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="49" ht="13.5" spans="1:10">
-      <c r="A49" s="47"/>
-      <c r="B49" s="48"/>
-      <c r="C49" s="48"/>
-      <c r="D49" s="47"/>
-      <c r="E49" s="54"/>
-      <c r="F49" s="49"/>
-      <c r="G49" s="49"/>
-      <c r="H49" s="12" t="s">
+    <row r="49" ht="13.5" spans="1:11">
+      <c r="A49" s="50"/>
+      <c r="B49" s="51"/>
+      <c r="C49" s="51"/>
+      <c r="D49" s="50"/>
+      <c r="E49" s="58"/>
+      <c r="F49" s="52"/>
+      <c r="G49" s="52"/>
+      <c r="H49" s="59"/>
+      <c r="I49" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="I49" s="47"/>
-      <c r="J49" s="7" t="s">
+      <c r="J49" s="50"/>
+      <c r="K49" s="7" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="50" ht="13.5" spans="1:10">
-      <c r="A50" s="47"/>
-      <c r="B50" s="48"/>
-      <c r="C50" s="48"/>
-      <c r="D50" s="47"/>
-      <c r="E50" s="54"/>
-      <c r="F50" s="49"/>
-      <c r="G50" s="49"/>
-      <c r="H50" s="12" t="s">
+    <row r="50" ht="13.5" spans="1:11">
+      <c r="A50" s="50"/>
+      <c r="B50" s="51"/>
+      <c r="C50" s="51"/>
+      <c r="D50" s="50"/>
+      <c r="E50" s="58"/>
+      <c r="F50" s="52"/>
+      <c r="G50" s="52"/>
+      <c r="H50" s="59"/>
+      <c r="I50" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="I50" s="47"/>
-      <c r="J50" s="7" t="s">
+      <c r="J50" s="50"/>
+      <c r="K50" s="7" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="51" ht="13.5" spans="1:10">
-      <c r="A51" s="47"/>
-      <c r="B51" s="48"/>
-      <c r="C51" s="55"/>
+    <row r="51" ht="13.5" spans="1:11">
+      <c r="A51" s="50"/>
+      <c r="B51" s="51"/>
+      <c r="C51" s="60"/>
       <c r="D51" s="20"/>
-      <c r="E51" s="56"/>
-      <c r="F51" s="51"/>
-      <c r="G51" s="51"/>
-      <c r="H51" s="12" t="s">
+      <c r="E51" s="61"/>
+      <c r="F51" s="54"/>
+      <c r="G51" s="54"/>
+      <c r="H51" s="62"/>
+      <c r="I51" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="I51" s="20"/>
-      <c r="J51" s="7" t="s">
+      <c r="J51" s="20"/>
+      <c r="K51" s="7" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="52" ht="14" customHeight="1" spans="1:10">
-      <c r="A52" s="47"/>
-      <c r="B52" s="48"/>
-      <c r="C52" s="45" t="s">
+    <row r="52" ht="14" customHeight="1" spans="1:11">
+      <c r="A52" s="50"/>
+      <c r="B52" s="51"/>
+      <c r="C52" s="48" t="s">
         <v>97</v>
       </c>
       <c r="D52" s="17" t="s">
         <v>83</v>
       </c>
-      <c r="E52" s="53"/>
+      <c r="E52" s="56"/>
       <c r="F52" s="27" t="s">
         <v>29</v>
       </c>
       <c r="G52" s="27"/>
-      <c r="H52" s="12" t="s">
+      <c r="H52" s="57"/>
+      <c r="I52" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="I52" s="17"/>
-      <c r="J52" s="7" t="s">
+      <c r="J52" s="17"/>
+      <c r="K52" s="7" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="53" ht="13.5" spans="1:10">
-      <c r="A53" s="47"/>
-      <c r="B53" s="48"/>
-      <c r="C53" s="48"/>
-      <c r="D53" s="47"/>
-      <c r="E53" s="54"/>
-      <c r="F53" s="49"/>
-      <c r="G53" s="49"/>
-      <c r="H53" s="13" t="s">
+    <row r="53" ht="13.5" spans="1:11">
+      <c r="A53" s="50"/>
+      <c r="B53" s="51"/>
+      <c r="C53" s="51"/>
+      <c r="D53" s="50"/>
+      <c r="E53" s="58"/>
+      <c r="F53" s="52"/>
+      <c r="G53" s="52"/>
+      <c r="H53" s="59"/>
+      <c r="I53" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="I53" s="47"/>
-      <c r="J53" s="7" t="s">
+      <c r="J53" s="50"/>
+      <c r="K53" s="7" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="54" ht="13.5" spans="1:10">
-      <c r="A54" s="47"/>
-      <c r="B54" s="48"/>
-      <c r="C54" s="48"/>
-      <c r="D54" s="47"/>
-      <c r="E54" s="54"/>
-      <c r="F54" s="49"/>
-      <c r="G54" s="49"/>
-      <c r="H54" s="12" t="s">
+    <row r="54" ht="13.5" spans="1:11">
+      <c r="A54" s="50"/>
+      <c r="B54" s="51"/>
+      <c r="C54" s="51"/>
+      <c r="D54" s="50"/>
+      <c r="E54" s="58"/>
+      <c r="F54" s="52"/>
+      <c r="G54" s="52"/>
+      <c r="H54" s="59"/>
+      <c r="I54" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="I54" s="47"/>
-      <c r="J54" s="7" t="s">
+      <c r="J54" s="50"/>
+      <c r="K54" s="7" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="55" ht="13.5" spans="1:10">
-      <c r="A55" s="47"/>
-      <c r="B55" s="48"/>
-      <c r="C55" s="48"/>
-      <c r="D55" s="47"/>
-      <c r="E55" s="54"/>
-      <c r="F55" s="49"/>
-      <c r="G55" s="49"/>
-      <c r="H55" s="12" t="s">
+    <row r="55" ht="13.5" spans="1:11">
+      <c r="A55" s="50"/>
+      <c r="B55" s="51"/>
+      <c r="C55" s="51"/>
+      <c r="D55" s="50"/>
+      <c r="E55" s="58"/>
+      <c r="F55" s="52"/>
+      <c r="G55" s="52"/>
+      <c r="H55" s="59"/>
+      <c r="I55" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="I55" s="47"/>
-      <c r="J55" s="7" t="s">
+      <c r="J55" s="50"/>
+      <c r="K55" s="7" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="56" ht="13.5" spans="1:10">
-      <c r="A56" s="47"/>
-      <c r="B56" s="48"/>
-      <c r="C56" s="48"/>
-      <c r="D56" s="47"/>
-      <c r="E56" s="54"/>
-      <c r="F56" s="49"/>
-      <c r="G56" s="49"/>
-      <c r="H56" s="12" t="s">
+    <row r="56" ht="13.5" spans="1:11">
+      <c r="A56" s="50"/>
+      <c r="B56" s="51"/>
+      <c r="C56" s="51"/>
+      <c r="D56" s="50"/>
+      <c r="E56" s="58"/>
+      <c r="F56" s="52"/>
+      <c r="G56" s="52"/>
+      <c r="H56" s="59"/>
+      <c r="I56" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="I56" s="47"/>
-      <c r="J56" s="7" t="s">
+      <c r="J56" s="50"/>
+      <c r="K56" s="7" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="57" ht="13.5" spans="1:10">
-      <c r="A57" s="47"/>
-      <c r="B57" s="48"/>
-      <c r="C57" s="48"/>
-      <c r="D57" s="47"/>
-      <c r="E57" s="54"/>
-      <c r="F57" s="49"/>
-      <c r="G57" s="49"/>
-      <c r="H57" s="12" t="s">
+    <row r="57" ht="13.5" spans="1:11">
+      <c r="A57" s="50"/>
+      <c r="B57" s="51"/>
+      <c r="C57" s="51"/>
+      <c r="D57" s="50"/>
+      <c r="E57" s="58"/>
+      <c r="F57" s="52"/>
+      <c r="G57" s="52"/>
+      <c r="H57" s="59"/>
+      <c r="I57" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="I57" s="47"/>
-      <c r="J57" s="7" t="s">
+      <c r="J57" s="50"/>
+      <c r="K57" s="7" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="58" ht="13.5" spans="1:10">
-      <c r="A58" s="47"/>
-      <c r="B58" s="55"/>
-      <c r="C58" s="55"/>
+    <row r="58" ht="13.5" spans="1:11">
+      <c r="A58" s="50"/>
+      <c r="B58" s="60"/>
+      <c r="C58" s="60"/>
       <c r="D58" s="20"/>
-      <c r="E58" s="56"/>
-      <c r="F58" s="51"/>
-      <c r="G58" s="51"/>
-      <c r="H58" s="13" t="s">
+      <c r="E58" s="61"/>
+      <c r="F58" s="54"/>
+      <c r="G58" s="54"/>
+      <c r="H58" s="62"/>
+      <c r="I58" s="13" t="s">
         <v>104</v>
       </c>
-      <c r="I58" s="20"/>
-      <c r="J58" s="7" t="s">
+      <c r="J58" s="20"/>
+      <c r="K58" s="7" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="59" ht="13.5" spans="1:10">
-      <c r="A59" s="47"/>
-      <c r="B59" s="55" t="s">
+    <row r="59" ht="13.5" spans="1:11">
+      <c r="A59" s="50"/>
+      <c r="B59" s="60" t="s">
         <v>105</v>
       </c>
-      <c r="C59" s="55" t="s">
+      <c r="C59" s="60" t="s">
         <v>105</v>
       </c>
       <c r="D59" s="20" t="s">
         <v>83</v>
       </c>
-      <c r="E59" s="56"/>
-      <c r="F59" s="51" t="s">
+      <c r="E59" s="61"/>
+      <c r="F59" s="54" t="s">
         <v>29</v>
       </c>
-      <c r="G59" s="51"/>
-      <c r="H59" s="13" t="s">
+      <c r="G59" s="54"/>
+      <c r="H59" s="62"/>
+      <c r="I59" s="13" t="s">
         <v>106</v>
       </c>
-      <c r="I59" s="20"/>
-      <c r="J59" s="7" t="s">
+      <c r="J59" s="20"/>
+      <c r="K59" s="7" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="60" ht="13.5" spans="1:10">
-      <c r="A60" s="47"/>
-      <c r="B60" s="57" t="s">
+    <row r="60" ht="13.5" spans="1:11">
+      <c r="A60" s="50"/>
+      <c r="B60" s="63" t="s">
         <v>107</v>
       </c>
-      <c r="C60" s="57" t="s">
+      <c r="C60" s="63" t="s">
         <v>107</v>
       </c>
       <c r="D60" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="E60" s="66"/>
+      <c r="E60" s="79"/>
       <c r="F60" s="12" t="s">
         <v>15</v>
       </c>
       <c r="G60" s="12"/>
-      <c r="H60" s="13" t="s">
+      <c r="H60" s="80"/>
+      <c r="I60" s="13" t="s">
         <v>108</v>
       </c>
-      <c r="I60" s="13"/>
-      <c r="J60" s="7" t="s">
+      <c r="J60" s="13"/>
+      <c r="K60" s="7" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="61" ht="54" spans="1:10">
-      <c r="A61" s="47"/>
+    <row r="61" ht="54" spans="1:11">
+      <c r="A61" s="50"/>
       <c r="B61" s="27" t="s">
         <v>109</v>
       </c>
@@ -4198,1578 +4332,1659 @@
       <c r="D61" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="E61" s="66"/>
+      <c r="E61" s="79"/>
       <c r="F61" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="G61" s="67"/>
-      <c r="H61" s="13" t="s">
+      <c r="G61" s="81"/>
+      <c r="H61" s="80"/>
+      <c r="I61" s="13" t="s">
         <v>111</v>
       </c>
-      <c r="I61" s="13"/>
-      <c r="J61" s="7" t="s">
+      <c r="J61" s="13"/>
+      <c r="K61" s="7" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="62" ht="13.5" spans="1:10">
+    <row r="62" ht="13.5" spans="1:11">
       <c r="A62" s="20"/>
-      <c r="B62" s="51"/>
+      <c r="B62" s="54"/>
       <c r="C62" s="12" t="s">
         <v>109</v>
       </c>
       <c r="D62" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="E62" s="66"/>
+      <c r="E62" s="79"/>
       <c r="F62" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="G62" s="67"/>
-      <c r="H62" s="13" t="s">
+      <c r="G62" s="81"/>
+      <c r="H62" s="80"/>
+      <c r="I62" s="13" t="s">
         <v>112</v>
       </c>
-      <c r="I62" s="13"/>
-      <c r="J62" s="7" t="s">
+      <c r="J62" s="13"/>
+      <c r="K62" s="7" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="63" ht="13.5" spans="1:10">
-      <c r="A63" s="68" t="s">
+    <row r="63" ht="13.5" spans="1:11">
+      <c r="A63" s="82" t="s">
         <v>113</v>
       </c>
-      <c r="B63" s="59" t="s">
+      <c r="B63" s="68" t="s">
         <v>114</v>
       </c>
-      <c r="C63" s="45" t="s">
+      <c r="C63" s="48" t="s">
         <v>115</v>
       </c>
       <c r="D63" s="17" t="s">
         <v>83</v>
       </c>
-      <c r="E63" s="53"/>
+      <c r="E63" s="56"/>
       <c r="F63" s="27" t="s">
         <v>29</v>
       </c>
       <c r="G63" s="27"/>
-      <c r="H63" s="13" t="s">
+      <c r="H63" s="57"/>
+      <c r="I63" s="13" t="s">
         <v>116</v>
       </c>
-      <c r="I63" s="17"/>
-      <c r="J63" s="7" t="s">
+      <c r="J63" s="17"/>
+      <c r="K63" s="7" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="64" ht="27" spans="1:10">
-      <c r="A64" s="69"/>
-      <c r="B64" s="60"/>
-      <c r="C64" s="48"/>
-      <c r="D64" s="47"/>
-      <c r="E64" s="54"/>
-      <c r="F64" s="49"/>
-      <c r="G64" s="49"/>
-      <c r="H64" s="13" t="s">
+    <row r="64" ht="27" spans="1:11">
+      <c r="A64" s="83"/>
+      <c r="B64" s="69"/>
+      <c r="C64" s="51"/>
+      <c r="D64" s="50"/>
+      <c r="E64" s="58"/>
+      <c r="F64" s="52"/>
+      <c r="G64" s="52"/>
+      <c r="H64" s="59"/>
+      <c r="I64" s="13" t="s">
         <v>117</v>
       </c>
-      <c r="I64" s="47"/>
-      <c r="J64" s="7" t="s">
+      <c r="J64" s="50"/>
+      <c r="K64" s="7" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="65" ht="27" spans="1:10">
-      <c r="A65" s="69"/>
-      <c r="B65" s="60"/>
-      <c r="C65" s="48"/>
-      <c r="D65" s="47"/>
-      <c r="E65" s="54"/>
-      <c r="F65" s="49"/>
-      <c r="G65" s="49"/>
-      <c r="H65" s="13" t="s">
+    <row r="65" ht="27" spans="1:11">
+      <c r="A65" s="83"/>
+      <c r="B65" s="69"/>
+      <c r="C65" s="51"/>
+      <c r="D65" s="50"/>
+      <c r="E65" s="58"/>
+      <c r="F65" s="52"/>
+      <c r="G65" s="52"/>
+      <c r="H65" s="59"/>
+      <c r="I65" s="13" t="s">
         <v>118</v>
       </c>
-      <c r="I65" s="47"/>
-      <c r="J65" s="7" t="s">
+      <c r="J65" s="50"/>
+      <c r="K65" s="7" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="66" ht="27" spans="1:10">
-      <c r="A66" s="69"/>
-      <c r="B66" s="60"/>
-      <c r="C66" s="55"/>
+    <row r="66" ht="27" spans="1:11">
+      <c r="A66" s="83"/>
+      <c r="B66" s="69"/>
+      <c r="C66" s="60"/>
       <c r="D66" s="20"/>
-      <c r="E66" s="56"/>
-      <c r="F66" s="51"/>
-      <c r="G66" s="51"/>
-      <c r="H66" s="13" t="s">
+      <c r="E66" s="61"/>
+      <c r="F66" s="54"/>
+      <c r="G66" s="54"/>
+      <c r="H66" s="62"/>
+      <c r="I66" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="I66" s="20"/>
-      <c r="J66" s="7" t="s">
+      <c r="J66" s="20"/>
+      <c r="K66" s="7" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="67" ht="27" spans="1:10">
-      <c r="A67" s="69"/>
-      <c r="B67" s="60"/>
-      <c r="C67" s="57" t="s">
+    <row r="67" ht="27" spans="1:11">
+      <c r="A67" s="83"/>
+      <c r="B67" s="69"/>
+      <c r="C67" s="63" t="s">
         <v>120</v>
       </c>
       <c r="D67" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="E67" s="66"/>
+      <c r="E67" s="79"/>
       <c r="F67" s="12" t="s">
         <v>44</v>
       </c>
       <c r="G67" s="12"/>
-      <c r="H67" s="13" t="s">
+      <c r="H67" s="80"/>
+      <c r="I67" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="I67" s="13"/>
-      <c r="J67" s="7" t="s">
+      <c r="J67" s="13"/>
+      <c r="K67" s="7" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="68" ht="27" spans="1:10">
-      <c r="A68" s="69"/>
-      <c r="B68" s="60"/>
-      <c r="C68" s="45" t="s">
+    <row r="68" ht="27" spans="1:11">
+      <c r="A68" s="83"/>
+      <c r="B68" s="69"/>
+      <c r="C68" s="48" t="s">
         <v>122</v>
       </c>
       <c r="D68" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="E68" s="61"/>
+      <c r="E68" s="70"/>
       <c r="F68" s="27" t="s">
         <v>29</v>
       </c>
       <c r="G68" s="27"/>
-      <c r="H68" s="13" t="s">
+      <c r="H68" s="71"/>
+      <c r="I68" s="13" t="s">
         <v>123</v>
       </c>
-      <c r="I68" s="17"/>
-      <c r="J68" s="7" t="s">
+      <c r="J68" s="17"/>
+      <c r="K68" s="7" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="69" ht="13.5" spans="1:10">
-      <c r="A69" s="69"/>
-      <c r="B69" s="60"/>
-      <c r="C69" s="48"/>
-      <c r="D69" s="47"/>
-      <c r="E69" s="65"/>
-      <c r="F69" s="49"/>
-      <c r="G69" s="49"/>
-      <c r="H69" s="13" t="s">
+    <row r="69" ht="13.5" spans="1:11">
+      <c r="A69" s="83"/>
+      <c r="B69" s="69"/>
+      <c r="C69" s="51"/>
+      <c r="D69" s="50"/>
+      <c r="E69" s="77"/>
+      <c r="F69" s="52"/>
+      <c r="G69" s="52"/>
+      <c r="H69" s="78"/>
+      <c r="I69" s="13" t="s">
         <v>124</v>
       </c>
-      <c r="I69" s="47"/>
-      <c r="J69" s="7" t="s">
+      <c r="J69" s="50"/>
+      <c r="K69" s="7" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="70" ht="13.5" spans="1:10">
-      <c r="A70" s="69"/>
-      <c r="B70" s="63"/>
-      <c r="C70" s="55"/>
+    <row r="70" ht="13.5" spans="1:11">
+      <c r="A70" s="83"/>
+      <c r="B70" s="74"/>
+      <c r="C70" s="60"/>
       <c r="D70" s="20"/>
-      <c r="E70" s="62"/>
-      <c r="F70" s="51"/>
-      <c r="G70" s="51"/>
-      <c r="H70" s="13" t="s">
+      <c r="E70" s="72"/>
+      <c r="F70" s="54"/>
+      <c r="G70" s="54"/>
+      <c r="H70" s="73"/>
+      <c r="I70" s="13" t="s">
         <v>125</v>
       </c>
-      <c r="I70" s="20"/>
-      <c r="J70" s="7" t="s">
+      <c r="J70" s="20"/>
+      <c r="K70" s="7" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="71" ht="13.5" spans="1:10">
-      <c r="A71" s="69"/>
-      <c r="B71" s="59" t="s">
+    <row r="71" ht="13.5" spans="1:11">
+      <c r="A71" s="83"/>
+      <c r="B71" s="68" t="s">
         <v>126</v>
       </c>
-      <c r="C71" s="45" t="s">
+      <c r="C71" s="48" t="s">
         <v>127</v>
       </c>
       <c r="D71" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="E71" s="46" t="s">
+      <c r="E71" s="49" t="s">
         <v>51</v>
       </c>
       <c r="F71" s="27" t="s">
         <v>29</v>
       </c>
       <c r="G71" s="27"/>
-      <c r="H71" s="13" t="s">
+      <c r="H71" s="66"/>
+      <c r="I71" s="13" t="s">
         <v>128</v>
       </c>
-      <c r="I71" s="17"/>
-      <c r="J71" s="7" t="s">
+      <c r="J71" s="17"/>
+      <c r="K71" s="7" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="72" ht="27" spans="1:10">
-      <c r="A72" s="69"/>
-      <c r="B72" s="60"/>
-      <c r="C72" s="48"/>
-      <c r="D72" s="47"/>
-      <c r="E72" s="50"/>
-      <c r="F72" s="49"/>
-      <c r="G72" s="49"/>
-      <c r="H72" s="13" t="s">
+    <row r="72" ht="27" spans="1:11">
+      <c r="A72" s="83"/>
+      <c r="B72" s="69"/>
+      <c r="C72" s="51"/>
+      <c r="D72" s="50"/>
+      <c r="E72" s="53"/>
+      <c r="F72" s="52"/>
+      <c r="G72" s="52"/>
+      <c r="H72" s="86"/>
+      <c r="I72" s="13" t="s">
         <v>129</v>
       </c>
-      <c r="I72" s="47"/>
-      <c r="J72" s="7" t="s">
+      <c r="J72" s="50"/>
+      <c r="K72" s="7" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="73" ht="13.5" spans="1:10">
-      <c r="A73" s="69"/>
-      <c r="B73" s="60"/>
-      <c r="C73" s="48"/>
-      <c r="D73" s="47"/>
-      <c r="E73" s="50"/>
-      <c r="F73" s="49"/>
-      <c r="G73" s="49"/>
-      <c r="H73" s="13" t="s">
+    <row r="73" ht="13.5" spans="1:11">
+      <c r="A73" s="83"/>
+      <c r="B73" s="69"/>
+      <c r="C73" s="51"/>
+      <c r="D73" s="50"/>
+      <c r="E73" s="53"/>
+      <c r="F73" s="52"/>
+      <c r="G73" s="52"/>
+      <c r="H73" s="86"/>
+      <c r="I73" s="13" t="s">
         <v>130</v>
       </c>
-      <c r="I73" s="47"/>
-      <c r="J73" s="7" t="s">
+      <c r="J73" s="50"/>
+      <c r="K73" s="7" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="74" ht="27" spans="1:10">
-      <c r="A74" s="69"/>
-      <c r="B74" s="60"/>
-      <c r="C74" s="48"/>
-      <c r="D74" s="47"/>
-      <c r="E74" s="50"/>
-      <c r="F74" s="49"/>
-      <c r="G74" s="49"/>
-      <c r="H74" s="13" t="s">
+    <row r="74" ht="27" spans="1:11">
+      <c r="A74" s="83"/>
+      <c r="B74" s="69"/>
+      <c r="C74" s="51"/>
+      <c r="D74" s="50"/>
+      <c r="E74" s="53"/>
+      <c r="F74" s="52"/>
+      <c r="G74" s="52"/>
+      <c r="H74" s="86"/>
+      <c r="I74" s="13" t="s">
         <v>131</v>
       </c>
-      <c r="I74" s="47"/>
-      <c r="J74" s="7" t="s">
+      <c r="J74" s="50"/>
+      <c r="K74" s="7" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="75" ht="27" spans="1:10">
-      <c r="A75" s="69"/>
-      <c r="B75" s="60"/>
-      <c r="C75" s="48"/>
-      <c r="D75" s="47"/>
-      <c r="E75" s="50"/>
-      <c r="F75" s="49"/>
-      <c r="G75" s="49"/>
-      <c r="H75" s="13" t="s">
+    <row r="75" ht="27" spans="1:11">
+      <c r="A75" s="83"/>
+      <c r="B75" s="69"/>
+      <c r="C75" s="51"/>
+      <c r="D75" s="50"/>
+      <c r="E75" s="53"/>
+      <c r="F75" s="52"/>
+      <c r="G75" s="52"/>
+      <c r="H75" s="86"/>
+      <c r="I75" s="13" t="s">
         <v>132</v>
       </c>
-      <c r="I75" s="47"/>
-      <c r="J75" s="7" t="s">
+      <c r="J75" s="50"/>
+      <c r="K75" s="7" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="76" ht="13.5" spans="1:10">
-      <c r="A76" s="69"/>
-      <c r="B76" s="60"/>
-      <c r="C76" s="48"/>
-      <c r="D76" s="47"/>
-      <c r="E76" s="50"/>
-      <c r="F76" s="49"/>
-      <c r="G76" s="49"/>
-      <c r="H76" s="13" t="s">
+    <row r="76" ht="13.5" spans="1:11">
+      <c r="A76" s="83"/>
+      <c r="B76" s="69"/>
+      <c r="C76" s="51"/>
+      <c r="D76" s="50"/>
+      <c r="E76" s="53"/>
+      <c r="F76" s="52"/>
+      <c r="G76" s="52"/>
+      <c r="H76" s="86"/>
+      <c r="I76" s="13" t="s">
         <v>133</v>
       </c>
-      <c r="I76" s="47"/>
-      <c r="J76" s="7" t="s">
+      <c r="J76" s="50"/>
+      <c r="K76" s="7" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="77" ht="13.5" spans="1:10">
-      <c r="A77" s="69"/>
-      <c r="B77" s="60"/>
-      <c r="C77" s="48"/>
-      <c r="D77" s="47"/>
-      <c r="E77" s="50"/>
-      <c r="F77" s="49"/>
-      <c r="G77" s="49"/>
-      <c r="H77" s="13" t="s">
+    <row r="77" ht="13.5" spans="1:11">
+      <c r="A77" s="83"/>
+      <c r="B77" s="69"/>
+      <c r="C77" s="51"/>
+      <c r="D77" s="50"/>
+      <c r="E77" s="53"/>
+      <c r="F77" s="52"/>
+      <c r="G77" s="52"/>
+      <c r="H77" s="86"/>
+      <c r="I77" s="13" t="s">
         <v>134</v>
       </c>
-      <c r="I77" s="47"/>
-      <c r="J77" s="7" t="s">
+      <c r="J77" s="50"/>
+      <c r="K77" s="7" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="78" ht="13.5" spans="1:10">
-      <c r="A78" s="69"/>
-      <c r="B78" s="60"/>
-      <c r="C78" s="48"/>
-      <c r="D78" s="47"/>
-      <c r="E78" s="50"/>
-      <c r="F78" s="49"/>
-      <c r="G78" s="49"/>
-      <c r="H78" s="13" t="s">
+    <row r="78" ht="13.5" spans="1:11">
+      <c r="A78" s="83"/>
+      <c r="B78" s="69"/>
+      <c r="C78" s="51"/>
+      <c r="D78" s="50"/>
+      <c r="E78" s="53"/>
+      <c r="F78" s="52"/>
+      <c r="G78" s="52"/>
+      <c r="H78" s="86"/>
+      <c r="I78" s="13" t="s">
         <v>135</v>
       </c>
-      <c r="I78" s="47"/>
-      <c r="J78" s="7" t="s">
+      <c r="J78" s="50"/>
+      <c r="K78" s="7" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="79" ht="13.5" spans="1:10">
-      <c r="A79" s="69"/>
-      <c r="B79" s="60"/>
-      <c r="C79" s="48"/>
-      <c r="D79" s="47"/>
-      <c r="E79" s="50"/>
-      <c r="F79" s="49"/>
-      <c r="G79" s="49"/>
-      <c r="H79" s="13" t="s">
+    <row r="79" ht="13.5" spans="1:11">
+      <c r="A79" s="83"/>
+      <c r="B79" s="69"/>
+      <c r="C79" s="51"/>
+      <c r="D79" s="50"/>
+      <c r="E79" s="53"/>
+      <c r="F79" s="52"/>
+      <c r="G79" s="52"/>
+      <c r="H79" s="86"/>
+      <c r="I79" s="13" t="s">
         <v>136</v>
       </c>
-      <c r="I79" s="47"/>
-      <c r="J79" s="7" t="s">
+      <c r="J79" s="50"/>
+      <c r="K79" s="7" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="80" ht="13.5" spans="1:10">
-      <c r="A80" s="69"/>
-      <c r="B80" s="60"/>
-      <c r="C80" s="55"/>
+    <row r="80" ht="13.5" spans="1:11">
+      <c r="A80" s="83"/>
+      <c r="B80" s="69"/>
+      <c r="C80" s="60"/>
       <c r="D80" s="20"/>
-      <c r="E80" s="52"/>
-      <c r="F80" s="51"/>
-      <c r="G80" s="51"/>
-      <c r="H80" s="13" t="s">
+      <c r="E80" s="55"/>
+      <c r="F80" s="54"/>
+      <c r="G80" s="54"/>
+      <c r="H80" s="67"/>
+      <c r="I80" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="I80" s="20"/>
-      <c r="J80" s="7" t="s">
+      <c r="J80" s="20"/>
+      <c r="K80" s="7" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="81" ht="27" spans="1:10">
-      <c r="A81" s="69"/>
-      <c r="B81" s="60"/>
-      <c r="C81" s="57" t="s">
+    <row r="81" ht="27" spans="1:11">
+      <c r="A81" s="83"/>
+      <c r="B81" s="69"/>
+      <c r="C81" s="63" t="s">
         <v>138</v>
       </c>
       <c r="D81" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="E81" s="66"/>
+      <c r="E81" s="79"/>
       <c r="F81" s="12" t="s">
         <v>15</v>
       </c>
       <c r="G81" s="12"/>
-      <c r="H81" s="13" t="s">
+      <c r="H81" s="80"/>
+      <c r="I81" s="13" t="s">
         <v>139</v>
       </c>
-      <c r="I81" s="13"/>
-      <c r="J81" s="7" t="s">
+      <c r="J81" s="13"/>
+      <c r="K81" s="7" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="82" ht="27" spans="1:10">
-      <c r="A82" s="69"/>
-      <c r="B82" s="60"/>
-      <c r="C82" s="72" t="s">
+    <row r="82" ht="27" spans="1:11">
+      <c r="A82" s="83"/>
+      <c r="B82" s="69"/>
+      <c r="C82" s="87" t="s">
         <v>140</v>
       </c>
       <c r="D82" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="E82" s="53"/>
-      <c r="F82" s="73" t="s">
+      <c r="E82" s="56"/>
+      <c r="F82" s="88" t="s">
         <v>29</v>
       </c>
-      <c r="G82" s="74"/>
-      <c r="H82" s="13" t="s">
+      <c r="G82" s="89"/>
+      <c r="H82" s="57"/>
+      <c r="I82" s="13" t="s">
         <v>141</v>
       </c>
-      <c r="I82" s="73"/>
-      <c r="J82" s="7" t="s">
+      <c r="J82" s="88"/>
+      <c r="K82" s="7" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="83" ht="27" spans="1:10">
-      <c r="A83" s="69"/>
-      <c r="B83" s="60"/>
-      <c r="C83" s="75"/>
-      <c r="D83" s="47"/>
-      <c r="E83" s="54"/>
-      <c r="F83" s="76"/>
-      <c r="G83" s="77"/>
-      <c r="H83" s="13" t="s">
+    <row r="83" ht="27" spans="1:11">
+      <c r="A83" s="83"/>
+      <c r="B83" s="69"/>
+      <c r="C83" s="90"/>
+      <c r="D83" s="50"/>
+      <c r="E83" s="58"/>
+      <c r="F83" s="91"/>
+      <c r="G83" s="92"/>
+      <c r="H83" s="59"/>
+      <c r="I83" s="13" t="s">
         <v>142</v>
       </c>
-      <c r="I83" s="76"/>
-      <c r="J83" s="7" t="s">
+      <c r="J83" s="91"/>
+      <c r="K83" s="7" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="84" ht="40.5" spans="1:10">
-      <c r="A84" s="69"/>
-      <c r="B84" s="60"/>
-      <c r="C84" s="75"/>
-      <c r="D84" s="47"/>
-      <c r="E84" s="54"/>
-      <c r="F84" s="76"/>
-      <c r="G84" s="77"/>
-      <c r="H84" s="13" t="s">
+    <row r="84" ht="40.5" spans="1:11">
+      <c r="A84" s="83"/>
+      <c r="B84" s="69"/>
+      <c r="C84" s="90"/>
+      <c r="D84" s="50"/>
+      <c r="E84" s="58"/>
+      <c r="F84" s="91"/>
+      <c r="G84" s="92"/>
+      <c r="H84" s="59"/>
+      <c r="I84" s="13" t="s">
         <v>143</v>
       </c>
-      <c r="I84" s="76"/>
-      <c r="J84" s="7" t="s">
+      <c r="J84" s="91"/>
+      <c r="K84" s="7" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="85" ht="13.5" spans="1:10">
-      <c r="A85" s="69"/>
-      <c r="B85" s="60"/>
-      <c r="C85" s="75"/>
-      <c r="D85" s="47"/>
-      <c r="E85" s="54"/>
-      <c r="F85" s="76"/>
-      <c r="G85" s="77"/>
-      <c r="H85" s="13" t="s">
+    <row r="85" ht="13.5" spans="1:11">
+      <c r="A85" s="83"/>
+      <c r="B85" s="69"/>
+      <c r="C85" s="90"/>
+      <c r="D85" s="50"/>
+      <c r="E85" s="58"/>
+      <c r="F85" s="91"/>
+      <c r="G85" s="92"/>
+      <c r="H85" s="59"/>
+      <c r="I85" s="13" t="s">
         <v>144</v>
       </c>
-      <c r="I85" s="76"/>
-      <c r="J85" s="7" t="s">
+      <c r="J85" s="91"/>
+      <c r="K85" s="7" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="86" ht="13.5" spans="1:10">
-      <c r="A86" s="69"/>
-      <c r="B86" s="60"/>
-      <c r="C86" s="75"/>
-      <c r="D86" s="47"/>
-      <c r="E86" s="54"/>
-      <c r="F86" s="76"/>
-      <c r="G86" s="77"/>
-      <c r="H86" s="13" t="s">
+    <row r="86" ht="13.5" spans="1:11">
+      <c r="A86" s="83"/>
+      <c r="B86" s="69"/>
+      <c r="C86" s="90"/>
+      <c r="D86" s="50"/>
+      <c r="E86" s="58"/>
+      <c r="F86" s="91"/>
+      <c r="G86" s="92"/>
+      <c r="H86" s="59"/>
+      <c r="I86" s="13" t="s">
         <v>145</v>
       </c>
-      <c r="I86" s="76"/>
-      <c r="J86" s="7" t="s">
+      <c r="J86" s="91"/>
+      <c r="K86" s="7" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="87" ht="13.5" spans="1:10">
-      <c r="A87" s="69"/>
-      <c r="B87" s="60"/>
-      <c r="C87" s="75"/>
-      <c r="D87" s="47"/>
-      <c r="E87" s="54"/>
-      <c r="F87" s="76"/>
-      <c r="G87" s="77"/>
-      <c r="H87" s="13" t="s">
+    <row r="87" ht="13.5" spans="1:11">
+      <c r="A87" s="83"/>
+      <c r="B87" s="69"/>
+      <c r="C87" s="90"/>
+      <c r="D87" s="50"/>
+      <c r="E87" s="58"/>
+      <c r="F87" s="91"/>
+      <c r="G87" s="92"/>
+      <c r="H87" s="59"/>
+      <c r="I87" s="13" t="s">
         <v>146</v>
       </c>
-      <c r="I87" s="76"/>
-      <c r="J87" s="7" t="s">
+      <c r="J87" s="91"/>
+      <c r="K87" s="7" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="88" ht="13.5" spans="1:10">
-      <c r="A88" s="69"/>
-      <c r="B88" s="60"/>
-      <c r="C88" s="75"/>
-      <c r="D88" s="47"/>
-      <c r="E88" s="54"/>
-      <c r="F88" s="76"/>
-      <c r="G88" s="77"/>
-      <c r="H88" s="13" t="s">
+    <row r="88" ht="13.5" spans="1:11">
+      <c r="A88" s="83"/>
+      <c r="B88" s="69"/>
+      <c r="C88" s="90"/>
+      <c r="D88" s="50"/>
+      <c r="E88" s="58"/>
+      <c r="F88" s="91"/>
+      <c r="G88" s="92"/>
+      <c r="H88" s="59"/>
+      <c r="I88" s="13" t="s">
         <v>147</v>
       </c>
-      <c r="I88" s="76"/>
-      <c r="J88" s="7" t="s">
+      <c r="J88" s="91"/>
+      <c r="K88" s="7" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="89" ht="13.5" spans="1:10">
-      <c r="A89" s="69"/>
-      <c r="B89" s="60"/>
-      <c r="C89" s="75"/>
-      <c r="D89" s="47"/>
-      <c r="E89" s="54"/>
-      <c r="F89" s="76"/>
-      <c r="G89" s="77"/>
-      <c r="H89" s="13" t="s">
+    <row r="89" ht="13.5" spans="1:11">
+      <c r="A89" s="83"/>
+      <c r="B89" s="69"/>
+      <c r="C89" s="90"/>
+      <c r="D89" s="50"/>
+      <c r="E89" s="58"/>
+      <c r="F89" s="91"/>
+      <c r="G89" s="92"/>
+      <c r="H89" s="59"/>
+      <c r="I89" s="13" t="s">
         <v>148</v>
       </c>
-      <c r="I89" s="76"/>
-      <c r="J89" s="7" t="s">
+      <c r="J89" s="91"/>
+      <c r="K89" s="7" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="90" ht="13.5" spans="1:10">
-      <c r="A90" s="69"/>
-      <c r="B90" s="60"/>
-      <c r="C90" s="78"/>
+    <row r="90" ht="13.5" spans="1:11">
+      <c r="A90" s="83"/>
+      <c r="B90" s="69"/>
+      <c r="C90" s="93"/>
       <c r="D90" s="20"/>
-      <c r="E90" s="56"/>
+      <c r="E90" s="61"/>
       <c r="F90" s="25"/>
-      <c r="G90" s="79"/>
-      <c r="H90" s="13" t="s">
+      <c r="G90" s="94"/>
+      <c r="H90" s="62"/>
+      <c r="I90" s="13" t="s">
         <v>149</v>
       </c>
-      <c r="I90" s="25"/>
-      <c r="J90" s="7" t="s">
+      <c r="J90" s="25"/>
+      <c r="K90" s="7" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="91" ht="27" spans="1:10">
-      <c r="A91" s="69"/>
-      <c r="B91" s="63"/>
-      <c r="C91" s="57" t="s">
+    <row r="91" ht="27" spans="1:11">
+      <c r="A91" s="83"/>
+      <c r="B91" s="74"/>
+      <c r="C91" s="63" t="s">
         <v>150</v>
       </c>
       <c r="D91" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="E91" s="66"/>
+      <c r="E91" s="79"/>
       <c r="F91" s="12" t="s">
         <v>29</v>
       </c>
       <c r="G91" s="12"/>
-      <c r="H91" s="13" t="s">
+      <c r="H91" s="65"/>
+      <c r="I91" s="13" t="s">
         <v>151</v>
       </c>
-      <c r="I91" s="13"/>
-      <c r="J91" s="7" t="s">
+      <c r="J91" s="13"/>
+      <c r="K91" s="7" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="92" ht="13.5" spans="1:10">
-      <c r="A92" s="69"/>
-      <c r="B92" s="45" t="s">
+    <row r="92" ht="13.5" spans="1:11">
+      <c r="A92" s="83"/>
+      <c r="B92" s="48" t="s">
         <v>152</v>
       </c>
-      <c r="C92" s="57" t="s">
+      <c r="C92" s="63" t="s">
         <v>153</v>
       </c>
       <c r="D92" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="E92" s="66"/>
+      <c r="E92" s="79"/>
       <c r="F92" s="12" t="s">
         <v>29</v>
       </c>
       <c r="G92" s="12"/>
-      <c r="H92" s="13" t="s">
+      <c r="H92" s="80"/>
+      <c r="I92" s="13" t="s">
         <v>154</v>
       </c>
-      <c r="I92" s="13"/>
-      <c r="J92" s="7" t="s">
+      <c r="J92" s="13"/>
+      <c r="K92" s="7" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="93" ht="13.5" spans="1:10">
-      <c r="A93" s="69"/>
-      <c r="B93" s="48"/>
-      <c r="C93" s="80" t="s">
+    <row r="93" ht="13.5" spans="1:11">
+      <c r="A93" s="83"/>
+      <c r="B93" s="51"/>
+      <c r="C93" s="95" t="s">
         <v>155</v>
       </c>
       <c r="D93" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="E93" s="66"/>
+      <c r="E93" s="79"/>
       <c r="F93" s="13" t="s">
         <v>29</v>
       </c>
       <c r="G93" s="13"/>
-      <c r="H93" s="13" t="s">
+      <c r="H93" s="80"/>
+      <c r="I93" s="13" t="s">
         <v>156</v>
       </c>
-      <c r="I93" s="13"/>
-      <c r="J93" s="7" t="s">
+      <c r="J93" s="13"/>
+      <c r="K93" s="7" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="94" ht="27" spans="1:10">
-      <c r="A94" s="69"/>
-      <c r="B94" s="55"/>
-      <c r="C94" s="80" t="s">
+    <row r="94" ht="27" spans="1:11">
+      <c r="A94" s="83"/>
+      <c r="B94" s="60"/>
+      <c r="C94" s="95" t="s">
         <v>157</v>
       </c>
       <c r="D94" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="E94" s="66"/>
+      <c r="E94" s="79"/>
       <c r="F94" s="13" t="s">
         <v>29</v>
       </c>
       <c r="G94" s="13"/>
-      <c r="H94" s="13" t="s">
+      <c r="H94" s="80"/>
+      <c r="I94" s="13" t="s">
         <v>158</v>
       </c>
-      <c r="I94" s="13"/>
-      <c r="J94" s="7" t="s">
+      <c r="J94" s="13"/>
+      <c r="K94" s="7" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="95" ht="27" spans="1:10">
-      <c r="A95" s="69"/>
-      <c r="B95" s="45" t="s">
+    <row r="95" ht="27" spans="1:11">
+      <c r="A95" s="83"/>
+      <c r="B95" s="48" t="s">
         <v>159</v>
       </c>
-      <c r="C95" s="59" t="s">
+      <c r="C95" s="68" t="s">
         <v>160</v>
       </c>
       <c r="D95" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="E95" s="46" t="s">
-        <v>51</v>
-      </c>
+      <c r="E95" s="66"/>
       <c r="F95" s="17" t="s">
         <v>29</v>
       </c>
       <c r="G95" s="17"/>
-      <c r="H95" s="13" t="s">
+      <c r="H95" s="49"/>
+      <c r="I95" s="13" t="s">
         <v>161</v>
       </c>
-      <c r="I95" s="17"/>
-      <c r="J95" s="7" t="s">
+      <c r="J95" s="17"/>
+      <c r="K95" s="7" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="96" ht="13.5" spans="1:10">
-      <c r="A96" s="69"/>
-      <c r="B96" s="48"/>
-      <c r="C96" s="63"/>
+    <row r="96" ht="13.5" spans="1:11">
+      <c r="A96" s="83"/>
+      <c r="B96" s="51"/>
+      <c r="C96" s="74"/>
       <c r="D96" s="20"/>
-      <c r="E96" s="52"/>
+      <c r="E96" s="67"/>
       <c r="F96" s="20"/>
       <c r="G96" s="20"/>
-      <c r="H96" s="13" t="s">
+      <c r="H96" s="55"/>
+      <c r="I96" s="13" t="s">
         <v>162</v>
       </c>
-      <c r="I96" s="20"/>
-      <c r="J96" s="7" t="s">
+      <c r="J96" s="20"/>
+      <c r="K96" s="7" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="97" ht="13.5" spans="1:10">
-      <c r="A97" s="69"/>
-      <c r="B97" s="48"/>
-      <c r="C97" s="72" t="s">
+    <row r="97" ht="13.5" spans="1:11">
+      <c r="A97" s="83"/>
+      <c r="B97" s="51"/>
+      <c r="C97" s="87" t="s">
         <v>163</v>
       </c>
-      <c r="D97" s="73" t="s">
+      <c r="D97" s="88" t="s">
         <v>50</v>
       </c>
-      <c r="E97" s="81" t="s">
+      <c r="E97" s="96" t="s">
         <v>51</v>
       </c>
-      <c r="F97" s="73" t="s">
+      <c r="F97" s="88" t="s">
         <v>15</v>
       </c>
-      <c r="G97" s="73"/>
-      <c r="H97" s="13" t="s">
+      <c r="G97" s="88"/>
+      <c r="H97" s="97"/>
+      <c r="I97" s="13" t="s">
         <v>164</v>
       </c>
-      <c r="I97" s="73"/>
-      <c r="J97" s="7" t="s">
+      <c r="J97" s="88"/>
+      <c r="K97" s="7" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="98" ht="13.5" spans="1:10">
-      <c r="A98" s="82"/>
-      <c r="B98" s="55"/>
-      <c r="C98" s="78"/>
+    <row r="98" ht="13.5" spans="1:11">
+      <c r="A98" s="98"/>
+      <c r="B98" s="60"/>
+      <c r="C98" s="93"/>
       <c r="D98" s="25"/>
-      <c r="E98" s="83"/>
+      <c r="E98" s="99"/>
       <c r="F98" s="25"/>
       <c r="G98" s="25"/>
-      <c r="H98" s="13" t="s">
+      <c r="H98" s="100"/>
+      <c r="I98" s="13" t="s">
         <v>165</v>
       </c>
-      <c r="I98" s="25"/>
-      <c r="J98" s="7" t="s">
+      <c r="J98" s="25"/>
+      <c r="K98" s="7" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="99" ht="45" customHeight="1" spans="1:10">
+    <row r="99" ht="45" customHeight="1" spans="1:11">
       <c r="A99" s="27" t="s">
         <v>166</v>
       </c>
-      <c r="B99" s="45" t="s">
+      <c r="B99" s="48" t="s">
         <v>167</v>
       </c>
-      <c r="C99" s="59" t="s">
+      <c r="C99" s="68" t="s">
         <v>168</v>
       </c>
-      <c r="D99" s="53" t="s">
+      <c r="D99" s="56" t="s">
         <v>50</v>
       </c>
-      <c r="E99" s="46" t="s">
+      <c r="E99" s="49" t="s">
         <v>51</v>
       </c>
       <c r="F99" s="17" t="s">
         <v>29</v>
       </c>
       <c r="G99" s="17"/>
-      <c r="H99" s="13" t="s">
+      <c r="H99" s="66"/>
+      <c r="I99" s="13" t="s">
         <v>169</v>
       </c>
-      <c r="I99" s="17"/>
-      <c r="J99" s="7" t="s">
+      <c r="J99" s="17"/>
+      <c r="K99" s="7" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="100" ht="13.5" spans="1:10">
-      <c r="A100" s="49"/>
-      <c r="B100" s="48"/>
-      <c r="C100" s="60"/>
-      <c r="D100" s="54"/>
-      <c r="E100" s="50"/>
-      <c r="F100" s="47"/>
-      <c r="G100" s="47"/>
-      <c r="H100" s="13" t="s">
+    <row r="100" ht="13.5" spans="1:11">
+      <c r="A100" s="52"/>
+      <c r="B100" s="51"/>
+      <c r="C100" s="69"/>
+      <c r="D100" s="58"/>
+      <c r="E100" s="53"/>
+      <c r="F100" s="50"/>
+      <c r="G100" s="50"/>
+      <c r="H100" s="86"/>
+      <c r="I100" s="13" t="s">
         <v>170</v>
       </c>
-      <c r="I100" s="47"/>
-      <c r="J100" s="7" t="s">
+      <c r="J100" s="50"/>
+      <c r="K100" s="7" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="101" ht="13.5" spans="1:10">
-      <c r="A101" s="49"/>
-      <c r="B101" s="48"/>
-      <c r="C101" s="60"/>
-      <c r="D101" s="54"/>
-      <c r="E101" s="50"/>
-      <c r="F101" s="47"/>
-      <c r="G101" s="47"/>
-      <c r="H101" s="13" t="s">
+    <row r="101" ht="13.5" spans="1:11">
+      <c r="A101" s="52"/>
+      <c r="B101" s="51"/>
+      <c r="C101" s="69"/>
+      <c r="D101" s="58"/>
+      <c r="E101" s="53"/>
+      <c r="F101" s="50"/>
+      <c r="G101" s="50"/>
+      <c r="H101" s="86"/>
+      <c r="I101" s="13" t="s">
         <v>171</v>
       </c>
-      <c r="I101" s="47"/>
-      <c r="J101" s="7" t="s">
+      <c r="J101" s="50"/>
+      <c r="K101" s="7" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="102" ht="13.5" spans="1:10">
-      <c r="A102" s="49"/>
-      <c r="B102" s="48"/>
-      <c r="C102" s="60"/>
-      <c r="D102" s="54"/>
-      <c r="E102" s="50"/>
-      <c r="F102" s="47"/>
-      <c r="G102" s="47"/>
-      <c r="H102" s="7" t="s">
+    <row r="102" ht="13.5" spans="1:11">
+      <c r="A102" s="52"/>
+      <c r="B102" s="51"/>
+      <c r="C102" s="69"/>
+      <c r="D102" s="58"/>
+      <c r="E102" s="53"/>
+      <c r="F102" s="50"/>
+      <c r="G102" s="50"/>
+      <c r="H102" s="86"/>
+      <c r="I102" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="I102" s="47"/>
-      <c r="J102" s="7" t="s">
+      <c r="J102" s="50"/>
+      <c r="K102" s="7" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="103" ht="13.5" spans="1:10">
-      <c r="A103" s="49"/>
-      <c r="B103" s="48"/>
-      <c r="C103" s="63"/>
-      <c r="D103" s="54"/>
-      <c r="E103" s="50"/>
+    <row r="103" ht="13.5" spans="1:11">
+      <c r="A103" s="52"/>
+      <c r="B103" s="51"/>
+      <c r="C103" s="74"/>
+      <c r="D103" s="58"/>
+      <c r="E103" s="53"/>
       <c r="F103" s="20"/>
       <c r="G103" s="20"/>
-      <c r="H103" s="13" t="s">
+      <c r="H103" s="86"/>
+      <c r="I103" s="13" t="s">
         <v>172</v>
       </c>
-      <c r="I103" s="20"/>
-      <c r="J103" s="7" t="s">
+      <c r="J103" s="20"/>
+      <c r="K103" s="7" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="104" ht="13.5" spans="1:10">
-      <c r="A104" s="49"/>
-      <c r="B104" s="55"/>
-      <c r="C104" s="57" t="s">
+    <row r="104" ht="13.5" spans="1:11">
+      <c r="A104" s="52"/>
+      <c r="B104" s="60"/>
+      <c r="C104" s="63" t="s">
         <v>173</v>
       </c>
-      <c r="D104" s="56"/>
-      <c r="E104" s="52"/>
+      <c r="D104" s="61"/>
+      <c r="E104" s="55"/>
       <c r="F104" s="12" t="s">
         <v>29</v>
       </c>
       <c r="G104" s="12"/>
-      <c r="H104" s="13" t="s">
+      <c r="H104" s="67"/>
+      <c r="I104" s="13" t="s">
         <v>174</v>
       </c>
-      <c r="I104" s="13"/>
-      <c r="J104" s="7" t="s">
+      <c r="J104" s="13"/>
+      <c r="K104" s="7" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="105" ht="13.5" spans="1:10">
-      <c r="A105" s="49"/>
-      <c r="B105" s="45" t="s">
+    <row r="105" ht="13.5" spans="1:11">
+      <c r="A105" s="52"/>
+      <c r="B105" s="48" t="s">
         <v>175</v>
       </c>
-      <c r="C105" s="59" t="s">
+      <c r="C105" s="68" t="s">
         <v>175</v>
       </c>
       <c r="D105" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="E105" s="46"/>
+      <c r="E105" s="66"/>
       <c r="F105" s="17" t="s">
         <v>29</v>
       </c>
       <c r="G105" s="17"/>
-      <c r="H105" s="13" t="s">
+      <c r="H105" s="71"/>
+      <c r="I105" s="13" t="s">
         <v>176</v>
       </c>
-      <c r="I105" s="17"/>
-      <c r="J105" s="7" t="s">
+      <c r="J105" s="17"/>
+      <c r="K105" s="7" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="106" ht="27" spans="1:10">
-      <c r="A106" s="51"/>
-      <c r="B106" s="55"/>
-      <c r="C106" s="63"/>
+    <row r="106" ht="27" spans="1:11">
+      <c r="A106" s="54"/>
+      <c r="B106" s="60"/>
+      <c r="C106" s="74"/>
       <c r="D106" s="20"/>
-      <c r="E106" s="52"/>
+      <c r="E106" s="67"/>
       <c r="F106" s="20"/>
       <c r="G106" s="20"/>
-      <c r="H106" s="13" t="s">
+      <c r="H106" s="73"/>
+      <c r="I106" s="13" t="s">
         <v>177</v>
       </c>
-      <c r="I106" s="20"/>
-      <c r="J106" s="7" t="s">
+      <c r="J106" s="20"/>
+      <c r="K106" s="7" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="107" ht="27" spans="1:10">
+    <row r="107" ht="27" spans="1:11">
       <c r="A107" s="27" t="s">
         <v>178</v>
       </c>
-      <c r="B107" s="45" t="s">
+      <c r="B107" s="48" t="s">
         <v>179</v>
       </c>
-      <c r="C107" s="45" t="s">
+      <c r="C107" s="48" t="s">
         <v>180</v>
       </c>
       <c r="D107" s="17" t="s">
         <v>83</v>
       </c>
-      <c r="E107" s="53"/>
+      <c r="E107" s="56"/>
       <c r="F107" s="27" t="s">
         <v>44</v>
       </c>
       <c r="G107" s="27"/>
-      <c r="H107" s="13" t="s">
+      <c r="H107" s="57"/>
+      <c r="I107" s="13" t="s">
         <v>181</v>
       </c>
-      <c r="I107" s="17"/>
-      <c r="J107" s="7" t="s">
+      <c r="J107" s="17"/>
+      <c r="K107" s="7" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="108" ht="27" spans="1:10">
-      <c r="A108" s="49"/>
-      <c r="B108" s="48"/>
-      <c r="C108" s="55"/>
+    <row r="108" ht="27" spans="1:11">
+      <c r="A108" s="52"/>
+      <c r="B108" s="51"/>
+      <c r="C108" s="60"/>
       <c r="D108" s="20"/>
-      <c r="E108" s="56"/>
-      <c r="F108" s="51"/>
-      <c r="G108" s="51"/>
-      <c r="H108" s="13" t="s">
+      <c r="E108" s="61"/>
+      <c r="F108" s="54"/>
+      <c r="G108" s="54"/>
+      <c r="H108" s="62"/>
+      <c r="I108" s="13" t="s">
         <v>182</v>
       </c>
-      <c r="I108" s="20"/>
-      <c r="J108" s="7" t="s">
+      <c r="J108" s="20"/>
+      <c r="K108" s="7" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="109" ht="27" spans="1:10">
-      <c r="A109" s="49"/>
-      <c r="B109" s="48"/>
-      <c r="C109" s="45" t="s">
+    <row r="109" ht="27" spans="1:11">
+      <c r="A109" s="52"/>
+      <c r="B109" s="51"/>
+      <c r="C109" s="48" t="s">
         <v>183</v>
       </c>
       <c r="D109" s="17" t="s">
         <v>83</v>
       </c>
-      <c r="E109" s="53"/>
+      <c r="E109" s="56"/>
       <c r="F109" s="27" t="s">
         <v>29</v>
       </c>
       <c r="G109" s="27"/>
-      <c r="H109" s="13" t="s">
+      <c r="H109" s="57"/>
+      <c r="I109" s="13" t="s">
         <v>184</v>
       </c>
-      <c r="I109" s="17"/>
-      <c r="J109" s="7" t="s">
+      <c r="J109" s="17"/>
+      <c r="K109" s="7" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="110" ht="27" spans="1:10">
-      <c r="A110" s="49"/>
-      <c r="B110" s="48"/>
-      <c r="C110" s="55"/>
+    <row r="110" ht="27" spans="1:11">
+      <c r="A110" s="52"/>
+      <c r="B110" s="51"/>
+      <c r="C110" s="60"/>
       <c r="D110" s="20"/>
-      <c r="E110" s="56"/>
-      <c r="F110" s="51"/>
-      <c r="G110" s="51"/>
-      <c r="H110" s="13" t="s">
+      <c r="E110" s="61"/>
+      <c r="F110" s="54"/>
+      <c r="G110" s="54"/>
+      <c r="H110" s="62"/>
+      <c r="I110" s="13" t="s">
         <v>185</v>
       </c>
-      <c r="I110" s="20"/>
-      <c r="J110" s="7" t="s">
+      <c r="J110" s="20"/>
+      <c r="K110" s="7" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="111" ht="27" spans="1:10">
-      <c r="A111" s="49"/>
-      <c r="B111" s="48"/>
-      <c r="C111" s="72" t="s">
+    <row r="111" ht="27" spans="1:11">
+      <c r="A111" s="52"/>
+      <c r="B111" s="51"/>
+      <c r="C111" s="87" t="s">
         <v>186</v>
       </c>
-      <c r="D111" s="73" t="s">
+      <c r="D111" s="88" t="s">
         <v>83</v>
       </c>
-      <c r="E111" s="84"/>
-      <c r="F111" s="73" t="s">
+      <c r="E111" s="101"/>
+      <c r="F111" s="88" t="s">
         <v>44</v>
       </c>
-      <c r="G111" s="73"/>
-      <c r="H111" s="13" t="s">
+      <c r="G111" s="88"/>
+      <c r="H111" s="102"/>
+      <c r="I111" s="13" t="s">
         <v>187</v>
       </c>
-      <c r="I111" s="73"/>
-      <c r="J111" s="7" t="s">
+      <c r="J111" s="88"/>
+      <c r="K111" s="7" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="112" ht="27" spans="1:10">
-      <c r="A112" s="49"/>
-      <c r="B112" s="48"/>
-      <c r="C112" s="75"/>
-      <c r="D112" s="76"/>
-      <c r="E112" s="85"/>
-      <c r="F112" s="76"/>
-      <c r="G112" s="76"/>
-      <c r="H112" s="13" t="s">
+    <row r="112" ht="27" spans="1:11">
+      <c r="A112" s="52"/>
+      <c r="B112" s="51"/>
+      <c r="C112" s="90"/>
+      <c r="D112" s="91"/>
+      <c r="E112" s="103"/>
+      <c r="F112" s="91"/>
+      <c r="G112" s="91"/>
+      <c r="H112" s="104"/>
+      <c r="I112" s="13" t="s">
         <v>188</v>
       </c>
-      <c r="I112" s="76"/>
-      <c r="J112" s="7" t="s">
+      <c r="J112" s="91"/>
+      <c r="K112" s="7" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="113" ht="13.5" spans="1:10">
-      <c r="A113" s="49"/>
-      <c r="B113" s="48"/>
-      <c r="C113" s="75"/>
-      <c r="D113" s="76"/>
-      <c r="E113" s="85"/>
-      <c r="F113" s="76"/>
-      <c r="G113" s="76"/>
-      <c r="H113" s="13" t="s">
+    <row r="113" ht="13.5" spans="1:11">
+      <c r="A113" s="52"/>
+      <c r="B113" s="51"/>
+      <c r="C113" s="90"/>
+      <c r="D113" s="91"/>
+      <c r="E113" s="103"/>
+      <c r="F113" s="91"/>
+      <c r="G113" s="91"/>
+      <c r="H113" s="104"/>
+      <c r="I113" s="13" t="s">
         <v>189</v>
       </c>
-      <c r="I113" s="76"/>
-      <c r="J113" s="7" t="s">
+      <c r="J113" s="91"/>
+      <c r="K113" s="7" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="114" ht="13.5" spans="1:10">
-      <c r="A114" s="49"/>
-      <c r="B114" s="48"/>
-      <c r="C114" s="78"/>
+    <row r="114" ht="13.5" spans="1:11">
+      <c r="A114" s="52"/>
+      <c r="B114" s="51"/>
+      <c r="C114" s="93"/>
       <c r="D114" s="25"/>
-      <c r="E114" s="86"/>
+      <c r="E114" s="105"/>
       <c r="F114" s="25"/>
       <c r="G114" s="25"/>
-      <c r="H114" s="13" t="s">
+      <c r="H114" s="106"/>
+      <c r="I114" s="13" t="s">
         <v>190</v>
       </c>
-      <c r="I114" s="25"/>
-      <c r="J114" s="7" t="s">
+      <c r="J114" s="25"/>
+      <c r="K114" s="7" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="115" ht="13.5" spans="1:10">
-      <c r="A115" s="49"/>
-      <c r="B115" s="48"/>
-      <c r="C115" s="72" t="s">
+    <row r="115" ht="13.5" spans="1:11">
+      <c r="A115" s="52"/>
+      <c r="B115" s="51"/>
+      <c r="C115" s="87" t="s">
         <v>191</v>
       </c>
-      <c r="D115" s="73" t="s">
+      <c r="D115" s="88" t="s">
         <v>14</v>
       </c>
-      <c r="E115" s="84"/>
-      <c r="F115" s="73" t="s">
+      <c r="E115" s="101"/>
+      <c r="F115" s="88" t="s">
         <v>44</v>
       </c>
-      <c r="G115" s="73"/>
-      <c r="H115" s="13" t="s">
+      <c r="G115" s="88"/>
+      <c r="H115" s="102"/>
+      <c r="I115" s="13" t="s">
         <v>192</v>
       </c>
-      <c r="I115" s="73"/>
-      <c r="J115" s="7" t="s">
+      <c r="J115" s="88"/>
+      <c r="K115" s="7" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="116" ht="13.5" spans="1:10">
-      <c r="A116" s="49"/>
-      <c r="B116" s="48"/>
-      <c r="C116" s="78"/>
+    <row r="116" ht="13.5" spans="1:11">
+      <c r="A116" s="52"/>
+      <c r="B116" s="51"/>
+      <c r="C116" s="93"/>
       <c r="D116" s="25"/>
-      <c r="E116" s="86"/>
+      <c r="E116" s="105"/>
       <c r="F116" s="25"/>
       <c r="G116" s="25"/>
-      <c r="H116" s="13" t="s">
+      <c r="H116" s="106"/>
+      <c r="I116" s="13" t="s">
         <v>193</v>
       </c>
-      <c r="I116" s="25"/>
-      <c r="J116" s="7" t="s">
+      <c r="J116" s="25"/>
+      <c r="K116" s="7" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="117" ht="13.5" spans="1:10">
-      <c r="A117" s="49"/>
-      <c r="B117" s="48"/>
-      <c r="C117" s="87" t="s">
+    <row r="117" ht="13.5" spans="1:11">
+      <c r="A117" s="52"/>
+      <c r="B117" s="51"/>
+      <c r="C117" s="107" t="s">
         <v>194</v>
       </c>
       <c r="D117" s="23" t="s">
         <v>83</v>
       </c>
-      <c r="E117" s="88"/>
+      <c r="E117" s="108"/>
       <c r="F117" s="23" t="s">
         <v>44</v>
       </c>
       <c r="G117" s="23"/>
-      <c r="H117" s="13" t="s">
+      <c r="H117" s="109"/>
+      <c r="I117" s="13" t="s">
         <v>195</v>
       </c>
-      <c r="I117" s="23"/>
-      <c r="J117" s="7" t="s">
+      <c r="J117" s="23"/>
+      <c r="K117" s="7" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="118" ht="27" spans="1:10">
-      <c r="A118" s="49"/>
-      <c r="B118" s="48"/>
-      <c r="C118" s="59" t="s">
+    <row r="118" ht="27" spans="1:11">
+      <c r="A118" s="52"/>
+      <c r="B118" s="51"/>
+      <c r="C118" s="68" t="s">
         <v>197</v>
       </c>
       <c r="D118" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="E118" s="53"/>
+      <c r="E118" s="56"/>
       <c r="F118" s="17" t="s">
         <v>44</v>
       </c>
       <c r="G118" s="17"/>
-      <c r="H118" s="13" t="s">
+      <c r="H118" s="57"/>
+      <c r="I118" s="13" t="s">
         <v>198</v>
       </c>
-      <c r="I118" s="17"/>
-      <c r="J118" s="7" t="s">
+      <c r="J118" s="17"/>
+      <c r="K118" s="7" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="119" ht="13.5" spans="1:10">
-      <c r="A119" s="49"/>
-      <c r="B119" s="48"/>
-      <c r="C119" s="60"/>
-      <c r="D119" s="47"/>
-      <c r="E119" s="54"/>
-      <c r="F119" s="47"/>
-      <c r="G119" s="47"/>
-      <c r="H119" s="13" t="s">
+    <row r="119" ht="13.5" spans="1:11">
+      <c r="A119" s="52"/>
+      <c r="B119" s="51"/>
+      <c r="C119" s="69"/>
+      <c r="D119" s="50"/>
+      <c r="E119" s="58"/>
+      <c r="F119" s="50"/>
+      <c r="G119" s="50"/>
+      <c r="H119" s="59"/>
+      <c r="I119" s="13" t="s">
         <v>199</v>
       </c>
-      <c r="I119" s="47"/>
-      <c r="J119" s="7" t="s">
+      <c r="J119" s="50"/>
+      <c r="K119" s="7" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="120" ht="13.5" spans="1:10">
-      <c r="A120" s="49"/>
-      <c r="B120" s="48"/>
-      <c r="C120" s="60"/>
-      <c r="D120" s="47"/>
-      <c r="E120" s="54"/>
-      <c r="F120" s="47"/>
-      <c r="G120" s="47"/>
-      <c r="H120" s="13" t="s">
+    <row r="120" ht="13.5" spans="1:11">
+      <c r="A120" s="52"/>
+      <c r="B120" s="51"/>
+      <c r="C120" s="69"/>
+      <c r="D120" s="50"/>
+      <c r="E120" s="58"/>
+      <c r="F120" s="50"/>
+      <c r="G120" s="50"/>
+      <c r="H120" s="59"/>
+      <c r="I120" s="13" t="s">
         <v>200</v>
       </c>
-      <c r="I120" s="47"/>
-      <c r="J120" s="7" t="s">
+      <c r="J120" s="50"/>
+      <c r="K120" s="7" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="121" ht="13.5" spans="1:10">
-      <c r="A121" s="49"/>
-      <c r="B121" s="48"/>
-      <c r="C121" s="60"/>
-      <c r="D121" s="47"/>
-      <c r="E121" s="54"/>
-      <c r="F121" s="47"/>
-      <c r="G121" s="47"/>
-      <c r="H121" s="13" t="s">
+    <row r="121" ht="13.5" spans="1:11">
+      <c r="A121" s="52"/>
+      <c r="B121" s="51"/>
+      <c r="C121" s="69"/>
+      <c r="D121" s="50"/>
+      <c r="E121" s="58"/>
+      <c r="F121" s="50"/>
+      <c r="G121" s="50"/>
+      <c r="H121" s="59"/>
+      <c r="I121" s="13" t="s">
         <v>201</v>
       </c>
-      <c r="I121" s="47"/>
-      <c r="J121" s="7" t="s">
+      <c r="J121" s="50"/>
+      <c r="K121" s="7" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="122" ht="13.5" spans="1:10">
-      <c r="A122" s="49"/>
-      <c r="B122" s="48"/>
-      <c r="C122" s="63"/>
+    <row r="122" ht="13.5" spans="1:11">
+      <c r="A122" s="52"/>
+      <c r="B122" s="51"/>
+      <c r="C122" s="74"/>
       <c r="D122" s="20"/>
-      <c r="E122" s="56"/>
+      <c r="E122" s="61"/>
       <c r="F122" s="20"/>
       <c r="G122" s="20"/>
-      <c r="H122" s="12" t="s">
+      <c r="H122" s="62"/>
+      <c r="I122" s="12" t="s">
         <v>202</v>
       </c>
-      <c r="I122" s="20"/>
-      <c r="J122" s="7" t="s">
+      <c r="J122" s="20"/>
+      <c r="K122" s="7" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="123" ht="27" spans="1:10">
-      <c r="A123" s="49"/>
-      <c r="B123" s="48"/>
-      <c r="C123" s="80" t="s">
+    <row r="123" ht="27" spans="1:11">
+      <c r="A123" s="52"/>
+      <c r="B123" s="51"/>
+      <c r="C123" s="95" t="s">
         <v>203</v>
       </c>
       <c r="D123" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="E123" s="66"/>
+      <c r="E123" s="79"/>
       <c r="F123" s="13" t="s">
         <v>29</v>
       </c>
       <c r="G123" s="13"/>
-      <c r="H123" s="13" t="s">
+      <c r="H123" s="80"/>
+      <c r="I123" s="13" t="s">
         <v>204</v>
       </c>
-      <c r="I123" s="13"/>
-      <c r="J123" s="7" t="s">
+      <c r="J123" s="13"/>
+      <c r="K123" s="7" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="124" ht="40.5" spans="1:10">
-      <c r="A124" s="49"/>
-      <c r="B124" s="55"/>
-      <c r="C124" s="57" t="s">
+    <row r="124" ht="40.5" spans="1:11">
+      <c r="A124" s="52"/>
+      <c r="B124" s="60"/>
+      <c r="C124" s="63" t="s">
         <v>205</v>
       </c>
       <c r="D124" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="E124" s="66"/>
+      <c r="E124" s="79"/>
       <c r="F124" s="12" t="s">
         <v>29</v>
       </c>
       <c r="G124" s="12"/>
-      <c r="H124" s="13" t="s">
+      <c r="H124" s="80"/>
+      <c r="I124" s="13" t="s">
         <v>206</v>
       </c>
-      <c r="I124" s="13"/>
-      <c r="J124" s="7" t="s">
+      <c r="J124" s="13"/>
+      <c r="K124" s="7" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="125" ht="40.5" spans="1:10">
-      <c r="A125" s="49"/>
+    <row r="125" ht="40.5" spans="1:11">
+      <c r="A125" s="52"/>
       <c r="B125" s="27" t="s">
         <v>207</v>
       </c>
-      <c r="C125" s="45" t="s">
+      <c r="C125" s="48" t="s">
         <v>208</v>
       </c>
       <c r="D125" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="E125" s="53"/>
+      <c r="E125" s="56"/>
       <c r="F125" s="27" t="s">
         <v>15</v>
       </c>
       <c r="G125" s="27"/>
-      <c r="H125" s="13" t="s">
+      <c r="H125" s="57"/>
+      <c r="I125" s="13" t="s">
         <v>209</v>
       </c>
-      <c r="I125" s="17"/>
-      <c r="J125" s="7" t="s">
+      <c r="J125" s="17"/>
+      <c r="K125" s="7" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="126" ht="13.5" spans="1:10">
-      <c r="A126" s="49"/>
-      <c r="B126" s="49"/>
-      <c r="C126" s="48"/>
-      <c r="D126" s="47"/>
-      <c r="E126" s="54"/>
-      <c r="F126" s="49"/>
-      <c r="G126" s="49"/>
-      <c r="H126" s="13" t="s">
+    <row r="126" ht="13.5" spans="1:11">
+      <c r="A126" s="52"/>
+      <c r="B126" s="52"/>
+      <c r="C126" s="51"/>
+      <c r="D126" s="50"/>
+      <c r="E126" s="58"/>
+      <c r="F126" s="52"/>
+      <c r="G126" s="52"/>
+      <c r="H126" s="59"/>
+      <c r="I126" s="13" t="s">
         <v>210</v>
       </c>
-      <c r="I126" s="47"/>
-      <c r="J126" s="7" t="s">
+      <c r="J126" s="50"/>
+      <c r="K126" s="7" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="127" ht="67.5" spans="1:10">
-      <c r="A127" s="49"/>
-      <c r="B127" s="49"/>
-      <c r="C127" s="48"/>
-      <c r="D127" s="47"/>
-      <c r="E127" s="54"/>
-      <c r="F127" s="49"/>
-      <c r="G127" s="49"/>
-      <c r="H127" s="13" t="s">
+    <row r="127" ht="67.5" spans="1:11">
+      <c r="A127" s="52"/>
+      <c r="B127" s="52"/>
+      <c r="C127" s="51"/>
+      <c r="D127" s="50"/>
+      <c r="E127" s="58"/>
+      <c r="F127" s="52"/>
+      <c r="G127" s="52"/>
+      <c r="H127" s="59"/>
+      <c r="I127" s="13" t="s">
         <v>211</v>
       </c>
-      <c r="I127" s="47"/>
-      <c r="J127" s="7" t="s">
+      <c r="J127" s="50"/>
+      <c r="K127" s="7" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="128" ht="13.5" spans="1:10">
-      <c r="A128" s="49"/>
-      <c r="B128" s="49"/>
-      <c r="C128" s="48"/>
-      <c r="D128" s="47"/>
-      <c r="E128" s="54"/>
-      <c r="F128" s="49"/>
-      <c r="G128" s="49"/>
-      <c r="H128" s="13" t="s">
+    <row r="128" ht="13.5" spans="1:11">
+      <c r="A128" s="52"/>
+      <c r="B128" s="52"/>
+      <c r="C128" s="51"/>
+      <c r="D128" s="50"/>
+      <c r="E128" s="58"/>
+      <c r="F128" s="52"/>
+      <c r="G128" s="52"/>
+      <c r="H128" s="59"/>
+      <c r="I128" s="13" t="s">
         <v>212</v>
       </c>
-      <c r="I128" s="47"/>
-      <c r="J128" s="7" t="s">
+      <c r="J128" s="50"/>
+      <c r="K128" s="7" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="129" ht="13.5" spans="1:10">
-      <c r="A129" s="49"/>
-      <c r="B129" s="49"/>
-      <c r="C129" s="55"/>
+    <row r="129" ht="13.5" spans="1:11">
+      <c r="A129" s="52"/>
+      <c r="B129" s="52"/>
+      <c r="C129" s="60"/>
       <c r="D129" s="20"/>
-      <c r="E129" s="56"/>
-      <c r="F129" s="51"/>
-      <c r="G129" s="51"/>
-      <c r="H129" s="13" t="s">
+      <c r="E129" s="61"/>
+      <c r="F129" s="54"/>
+      <c r="G129" s="54"/>
+      <c r="H129" s="62"/>
+      <c r="I129" s="13" t="s">
         <v>213</v>
       </c>
-      <c r="I129" s="20"/>
-      <c r="J129" s="7" t="s">
+      <c r="J129" s="20"/>
+      <c r="K129" s="7" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="130" ht="27" spans="1:10">
-      <c r="A130" s="49"/>
-      <c r="B130" s="49"/>
+    <row r="130" ht="27" spans="1:11">
+      <c r="A130" s="52"/>
+      <c r="B130" s="52"/>
       <c r="C130" s="13" t="s">
         <v>214</v>
       </c>
       <c r="D130" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="E130" s="66"/>
+      <c r="E130" s="79"/>
       <c r="F130" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="G130" s="89"/>
-      <c r="H130" s="13" t="s">
+      <c r="G130" s="110"/>
+      <c r="H130" s="80"/>
+      <c r="I130" s="13" t="s">
         <v>215</v>
       </c>
-      <c r="I130" s="13"/>
-      <c r="J130" s="7" t="s">
+      <c r="J130" s="13"/>
+      <c r="K130" s="7" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="131" ht="40.5" spans="1:10">
-      <c r="A131" s="49"/>
-      <c r="B131" s="49"/>
-      <c r="C131" s="59" t="s">
+    <row r="131" ht="40.5" spans="1:11">
+      <c r="A131" s="52"/>
+      <c r="B131" s="52"/>
+      <c r="C131" s="68" t="s">
         <v>216</v>
       </c>
       <c r="D131" s="17" t="s">
         <v>83</v>
       </c>
-      <c r="E131" s="53"/>
+      <c r="E131" s="56"/>
       <c r="F131" s="17" t="s">
         <v>15</v>
       </c>
       <c r="G131" s="17"/>
-      <c r="H131" s="13" t="s">
+      <c r="H131" s="57"/>
+      <c r="I131" s="13" t="s">
         <v>217</v>
       </c>
-      <c r="I131" s="17"/>
-      <c r="J131" s="7" t="s">
+      <c r="J131" s="17"/>
+      <c r="K131" s="7" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="132" ht="13.5" spans="1:10">
-      <c r="A132" s="49"/>
-      <c r="B132" s="49"/>
-      <c r="C132" s="63"/>
+    <row r="132" ht="13.5" spans="1:11">
+      <c r="A132" s="52"/>
+      <c r="B132" s="52"/>
+      <c r="C132" s="74"/>
       <c r="D132" s="20"/>
-      <c r="E132" s="56"/>
+      <c r="E132" s="61"/>
       <c r="F132" s="20"/>
       <c r="G132" s="20"/>
-      <c r="H132" s="13" t="s">
+      <c r="H132" s="62"/>
+      <c r="I132" s="13" t="s">
         <v>218</v>
       </c>
-      <c r="I132" s="20"/>
-      <c r="J132" s="7" t="s">
+      <c r="J132" s="20"/>
+      <c r="K132" s="7" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="133" ht="13.5" spans="1:10">
-      <c r="A133" s="49"/>
-      <c r="B133" s="49"/>
+    <row r="133" ht="13.5" spans="1:11">
+      <c r="A133" s="52"/>
+      <c r="B133" s="52"/>
       <c r="C133" s="13" t="s">
         <v>219</v>
       </c>
       <c r="D133" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="E133" s="66"/>
+      <c r="E133" s="79"/>
       <c r="F133" s="13" t="s">
         <v>15</v>
       </c>
       <c r="G133" s="13"/>
-      <c r="H133" s="13" t="s">
+      <c r="H133" s="80"/>
+      <c r="I133" s="13" t="s">
         <v>220</v>
       </c>
-      <c r="I133" s="13"/>
-      <c r="J133" s="7" t="s">
+      <c r="J133" s="13"/>
+      <c r="K133" s="7" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="134" ht="13.5" spans="1:10">
-      <c r="A134" s="49"/>
-      <c r="B134" s="51"/>
-      <c r="C134" s="57" t="s">
+    <row r="134" ht="13.5" spans="1:11">
+      <c r="A134" s="52"/>
+      <c r="B134" s="54"/>
+      <c r="C134" s="63" t="s">
         <v>221</v>
       </c>
       <c r="D134" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="E134" s="66"/>
+      <c r="E134" s="79"/>
       <c r="F134" s="12" t="s">
         <v>15</v>
       </c>
       <c r="G134" s="12"/>
-      <c r="H134" s="13" t="s">
+      <c r="H134" s="80"/>
+      <c r="I134" s="13" t="s">
         <v>222</v>
       </c>
-      <c r="I134" s="13"/>
-      <c r="J134" s="7" t="s">
+      <c r="J134" s="13"/>
+      <c r="K134" s="7" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="135" ht="27.75" customHeight="1" spans="1:10">
-      <c r="A135" s="49"/>
-      <c r="B135" s="45" t="s">
+    <row r="135" ht="27.75" customHeight="1" spans="1:11">
+      <c r="A135" s="52"/>
+      <c r="B135" s="48" t="s">
         <v>223</v>
       </c>
-      <c r="C135" s="87" t="s">
+      <c r="C135" s="107" t="s">
         <v>224</v>
       </c>
       <c r="D135" s="23" t="s">
         <v>83</v>
       </c>
-      <c r="E135" s="88"/>
-      <c r="F135" s="73" t="s">
+      <c r="E135" s="108"/>
+      <c r="F135" s="88" t="s">
         <v>29</v>
       </c>
-      <c r="G135" s="73"/>
-      <c r="H135" s="23" t="s">
+      <c r="G135" s="88"/>
+      <c r="H135" s="109"/>
+      <c r="I135" s="23" t="s">
         <v>225</v>
       </c>
-      <c r="I135" s="23"/>
-      <c r="J135" s="7" t="s">
+      <c r="J135" s="23"/>
+      <c r="K135" s="7" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="136" ht="13.5" spans="1:10">
-      <c r="A136" s="49"/>
-      <c r="B136" s="48"/>
-      <c r="C136" s="87" t="s">
+    <row r="136" ht="13.5" spans="1:11">
+      <c r="A136" s="52"/>
+      <c r="B136" s="51"/>
+      <c r="C136" s="107" t="s">
         <v>226</v>
       </c>
       <c r="D136" s="23" t="s">
         <v>83</v>
       </c>
-      <c r="E136" s="88"/>
-      <c r="F136" s="76"/>
-      <c r="G136" s="76"/>
-      <c r="H136" s="23" t="s">
+      <c r="E136" s="108"/>
+      <c r="F136" s="91"/>
+      <c r="G136" s="91"/>
+      <c r="H136" s="109"/>
+      <c r="I136" s="23" t="s">
         <v>227</v>
       </c>
-      <c r="I136" s="23"/>
-      <c r="J136" s="7" t="s">
+      <c r="J136" s="23"/>
+      <c r="K136" s="7" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="137" ht="13.5" spans="1:10">
-      <c r="A137" s="49"/>
-      <c r="B137" s="48"/>
-      <c r="C137" s="87" t="s">
+    <row r="137" ht="13.5" spans="1:11">
+      <c r="A137" s="52"/>
+      <c r="B137" s="51"/>
+      <c r="C137" s="107" t="s">
         <v>228</v>
       </c>
       <c r="D137" s="23" t="s">
         <v>83</v>
       </c>
-      <c r="E137" s="88"/>
-      <c r="F137" s="76"/>
-      <c r="G137" s="76"/>
-      <c r="H137" s="23" t="s">
+      <c r="E137" s="108"/>
+      <c r="F137" s="91"/>
+      <c r="G137" s="91"/>
+      <c r="H137" s="109"/>
+      <c r="I137" s="23" t="s">
         <v>229</v>
       </c>
-      <c r="I137" s="23"/>
-      <c r="J137" s="7" t="s">
+      <c r="J137" s="23"/>
+      <c r="K137" s="7" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="138" ht="13.5" spans="1:10">
-      <c r="A138" s="49"/>
-      <c r="B138" s="48"/>
-      <c r="C138" s="87" t="s">
+    <row r="138" ht="13.5" spans="1:11">
+      <c r="A138" s="52"/>
+      <c r="B138" s="51"/>
+      <c r="C138" s="107" t="s">
         <v>230</v>
       </c>
       <c r="D138" s="23" t="s">
         <v>83</v>
       </c>
-      <c r="E138" s="88"/>
-      <c r="F138" s="76"/>
-      <c r="G138" s="76"/>
-      <c r="H138" s="23" t="s">
+      <c r="E138" s="108"/>
+      <c r="F138" s="91"/>
+      <c r="G138" s="91"/>
+      <c r="H138" s="109"/>
+      <c r="I138" s="23" t="s">
         <v>231</v>
       </c>
-      <c r="I138" s="23"/>
-      <c r="J138" s="7" t="s">
+      <c r="J138" s="23"/>
+      <c r="K138" s="7" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="139" ht="13.5" spans="1:10">
-      <c r="A139" s="49"/>
-      <c r="B139" s="48"/>
-      <c r="C139" s="87" t="s">
+    <row r="139" ht="13.5" spans="1:11">
+      <c r="A139" s="52"/>
+      <c r="B139" s="51"/>
+      <c r="C139" s="107" t="s">
         <v>232</v>
       </c>
       <c r="D139" s="23" t="s">
         <v>83</v>
       </c>
-      <c r="E139" s="88"/>
-      <c r="F139" s="76"/>
-      <c r="G139" s="76"/>
-      <c r="H139" s="13" t="s">
+      <c r="E139" s="108"/>
+      <c r="F139" s="91"/>
+      <c r="G139" s="91"/>
+      <c r="H139" s="109"/>
+      <c r="I139" s="13" t="s">
         <v>233</v>
       </c>
-      <c r="I139" s="23"/>
-      <c r="J139" s="7" t="s">
+      <c r="J139" s="23"/>
+      <c r="K139" s="7" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="140" ht="30" customHeight="1" spans="1:10">
-      <c r="A140" s="49"/>
-      <c r="B140" s="48"/>
-      <c r="C140" s="87" t="s">
+    <row r="140" ht="30" customHeight="1" spans="1:11">
+      <c r="A140" s="52"/>
+      <c r="B140" s="51"/>
+      <c r="C140" s="107" t="s">
         <v>234</v>
       </c>
       <c r="D140" s="23" t="s">
         <v>83</v>
       </c>
-      <c r="E140" s="88"/>
-      <c r="F140" s="76"/>
-      <c r="G140" s="76"/>
-      <c r="H140" s="13" t="s">
+      <c r="E140" s="108"/>
+      <c r="F140" s="91"/>
+      <c r="G140" s="91"/>
+      <c r="H140" s="109"/>
+      <c r="I140" s="13" t="s">
         <v>235</v>
       </c>
-      <c r="I140" s="23"/>
-      <c r="J140" s="7" t="s">
+      <c r="J140" s="23"/>
+      <c r="K140" s="7" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="141" ht="13.5" spans="1:10">
-      <c r="A141" s="49"/>
-      <c r="B141" s="48"/>
-      <c r="C141" s="87" t="s">
+    <row r="141" ht="13.5" spans="1:11">
+      <c r="A141" s="52"/>
+      <c r="B141" s="51"/>
+      <c r="C141" s="107" t="s">
         <v>236</v>
       </c>
       <c r="D141" s="23" t="s">
         <v>83</v>
       </c>
-      <c r="E141" s="88"/>
-      <c r="F141" s="76"/>
-      <c r="G141" s="76"/>
-      <c r="H141" s="23" t="s">
+      <c r="E141" s="108"/>
+      <c r="F141" s="91"/>
+      <c r="G141" s="91"/>
+      <c r="H141" s="109"/>
+      <c r="I141" s="23" t="s">
         <v>237</v>
       </c>
-      <c r="I141" s="23"/>
-      <c r="J141" s="7" t="s">
+      <c r="J141" s="23"/>
+      <c r="K141" s="7" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="142" ht="13.5" spans="1:10">
-      <c r="A142" s="49"/>
-      <c r="B142" s="55"/>
-      <c r="C142" s="87" t="s">
+    <row r="142" ht="13.5" spans="1:11">
+      <c r="A142" s="52"/>
+      <c r="B142" s="60"/>
+      <c r="C142" s="107" t="s">
         <v>238</v>
       </c>
       <c r="D142" s="23" t="s">
         <v>83</v>
       </c>
-      <c r="E142" s="88"/>
+      <c r="E142" s="108"/>
       <c r="F142" s="25"/>
       <c r="G142" s="25"/>
-      <c r="H142" s="13" t="s">
+      <c r="H142" s="109"/>
+      <c r="I142" s="13" t="s">
         <v>239</v>
       </c>
-      <c r="I142" s="23"/>
-      <c r="J142" s="7" t="s">
+      <c r="J142" s="23"/>
+      <c r="K142" s="7" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="143" ht="40.5" spans="1:10">
-      <c r="A143" s="51"/>
-      <c r="B143" s="57" t="s">
+    <row r="143" ht="40.5" spans="1:11">
+      <c r="A143" s="54"/>
+      <c r="B143" s="63" t="s">
         <v>240</v>
       </c>
-      <c r="C143" s="87" t="s">
+      <c r="C143" s="107" t="s">
         <v>241</v>
       </c>
       <c r="D143" s="23" t="s">
         <v>83</v>
       </c>
-      <c r="E143" s="88"/>
+      <c r="E143" s="108"/>
       <c r="F143" s="23" t="s">
         <v>44</v>
       </c>
       <c r="G143" s="23"/>
-      <c r="H143" s="13" t="s">
+      <c r="H143" s="109"/>
+      <c r="I143" s="13" t="s">
         <v>242</v>
       </c>
-      <c r="I143" s="23"/>
-      <c r="J143" s="7" t="s">
+      <c r="J143" s="23"/>
+      <c r="K143" s="7" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="144" ht="13.5" spans="1:10">
+    <row r="144" ht="13.5" spans="1:11">
       <c r="A144" s="27" t="s">
         <v>243</v>
       </c>
@@ -5782,43 +5997,45 @@
       <c r="D144" s="23" t="s">
         <v>83</v>
       </c>
-      <c r="E144" s="88"/>
-      <c r="F144" s="73" t="s">
+      <c r="E144" s="108"/>
+      <c r="F144" s="88" t="s">
         <v>15</v>
       </c>
-      <c r="G144" s="74"/>
-      <c r="H144" s="13" t="s">
+      <c r="G144" s="89"/>
+      <c r="H144" s="109"/>
+      <c r="I144" s="13" t="s">
         <v>245</v>
       </c>
-      <c r="I144" s="73" t="s">
+      <c r="J144" s="88" t="s">
         <v>246</v>
       </c>
-      <c r="J144" s="7" t="s">
+      <c r="K144" s="7" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="145" ht="13.5" spans="1:10">
-      <c r="A145" s="49"/>
-      <c r="B145" s="47"/>
+    <row r="145" ht="13.5" spans="1:11">
+      <c r="A145" s="52"/>
+      <c r="B145" s="50"/>
       <c r="C145" s="13" t="s">
         <v>247</v>
       </c>
       <c r="D145" s="23" t="s">
         <v>83</v>
       </c>
-      <c r="E145" s="88"/>
-      <c r="F145" s="76"/>
-      <c r="G145" s="77"/>
-      <c r="H145" s="13" t="s">
+      <c r="E145" s="108"/>
+      <c r="F145" s="91"/>
+      <c r="G145" s="92"/>
+      <c r="H145" s="109"/>
+      <c r="I145" s="13" t="s">
         <v>248</v>
       </c>
-      <c r="I145" s="76"/>
-      <c r="J145" s="7" t="s">
+      <c r="J145" s="91"/>
+      <c r="K145" s="7" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="146" ht="13.5" spans="1:10">
-      <c r="A146" s="49"/>
+    <row r="146" ht="13.5" spans="1:11">
+      <c r="A146" s="52"/>
       <c r="B146" s="20"/>
       <c r="C146" s="13" t="s">
         <v>249</v>
@@ -5826,19 +6043,20 @@
       <c r="D146" s="23" t="s">
         <v>83</v>
       </c>
-      <c r="E146" s="88"/>
-      <c r="F146" s="76"/>
-      <c r="G146" s="77"/>
-      <c r="H146" s="13" t="s">
+      <c r="E146" s="108"/>
+      <c r="F146" s="91"/>
+      <c r="G146" s="92"/>
+      <c r="H146" s="109"/>
+      <c r="I146" s="13" t="s">
         <v>250</v>
       </c>
-      <c r="I146" s="76"/>
-      <c r="J146" s="7" t="s">
+      <c r="J146" s="91"/>
+      <c r="K146" s="7" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="147" ht="13.5" spans="1:10">
-      <c r="A147" s="49"/>
+    <row r="147" ht="13.5" spans="1:11">
+      <c r="A147" s="52"/>
       <c r="B147" s="13" t="s">
         <v>251</v>
       </c>
@@ -5848,19 +6066,20 @@
       <c r="D147" s="23" t="s">
         <v>83</v>
       </c>
-      <c r="E147" s="88"/>
-      <c r="F147" s="76"/>
-      <c r="G147" s="77"/>
-      <c r="H147" s="13" t="s">
+      <c r="E147" s="108"/>
+      <c r="F147" s="91"/>
+      <c r="G147" s="92"/>
+      <c r="H147" s="109"/>
+      <c r="I147" s="13" t="s">
         <v>253</v>
       </c>
-      <c r="I147" s="76"/>
-      <c r="J147" s="7" t="s">
+      <c r="J147" s="91"/>
+      <c r="K147" s="7" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="148" ht="13.5" spans="1:10">
-      <c r="A148" s="49"/>
+    <row r="148" ht="13.5" spans="1:11">
+      <c r="A148" s="52"/>
       <c r="B148" s="17" t="s">
         <v>254</v>
       </c>
@@ -5870,59 +6089,62 @@
       <c r="D148" s="23" t="s">
         <v>83</v>
       </c>
-      <c r="E148" s="88"/>
-      <c r="F148" s="76"/>
-      <c r="G148" s="77"/>
-      <c r="H148" s="13" t="s">
+      <c r="E148" s="108"/>
+      <c r="F148" s="91"/>
+      <c r="G148" s="92"/>
+      <c r="H148" s="109"/>
+      <c r="I148" s="13" t="s">
         <v>256</v>
       </c>
-      <c r="I148" s="76"/>
-      <c r="J148" s="7" t="s">
+      <c r="J148" s="91"/>
+      <c r="K148" s="7" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="149" ht="13.5" spans="1:10">
-      <c r="A149" s="49"/>
-      <c r="B149" s="47"/>
+    <row r="149" ht="13.5" spans="1:11">
+      <c r="A149" s="52"/>
+      <c r="B149" s="50"/>
       <c r="C149" s="13" t="s">
         <v>257</v>
       </c>
       <c r="D149" s="23" t="s">
         <v>83</v>
       </c>
-      <c r="E149" s="88"/>
-      <c r="F149" s="76"/>
-      <c r="G149" s="77"/>
-      <c r="H149" s="13" t="s">
+      <c r="E149" s="108"/>
+      <c r="F149" s="91"/>
+      <c r="G149" s="92"/>
+      <c r="H149" s="109"/>
+      <c r="I149" s="13" t="s">
         <v>258</v>
       </c>
-      <c r="I149" s="76"/>
-      <c r="J149" s="7" t="s">
+      <c r="J149" s="91"/>
+      <c r="K149" s="7" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="150" ht="13.5" spans="1:10">
-      <c r="A150" s="49"/>
-      <c r="B150" s="47"/>
+    <row r="150" ht="13.5" spans="1:11">
+      <c r="A150" s="52"/>
+      <c r="B150" s="50"/>
       <c r="C150" s="13" t="s">
         <v>259</v>
       </c>
       <c r="D150" s="23" t="s">
         <v>83</v>
       </c>
-      <c r="E150" s="88"/>
-      <c r="F150" s="76"/>
-      <c r="G150" s="77"/>
-      <c r="H150" s="13" t="s">
+      <c r="E150" s="108"/>
+      <c r="F150" s="91"/>
+      <c r="G150" s="92"/>
+      <c r="H150" s="109"/>
+      <c r="I150" s="13" t="s">
         <v>260</v>
       </c>
-      <c r="I150" s="76"/>
-      <c r="J150" s="7" t="s">
+      <c r="J150" s="91"/>
+      <c r="K150" s="7" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="151" ht="13.5" spans="1:10">
-      <c r="A151" s="49"/>
+    <row r="151" ht="13.5" spans="1:11">
+      <c r="A151" s="52"/>
       <c r="B151" s="20"/>
       <c r="C151" s="13" t="s">
         <v>261</v>
@@ -5930,19 +6152,20 @@
       <c r="D151" s="23" t="s">
         <v>83</v>
       </c>
-      <c r="E151" s="88"/>
-      <c r="F151" s="76"/>
-      <c r="G151" s="77"/>
-      <c r="H151" s="13" t="s">
+      <c r="E151" s="108"/>
+      <c r="F151" s="91"/>
+      <c r="G151" s="92"/>
+      <c r="H151" s="109"/>
+      <c r="I151" s="13" t="s">
         <v>262</v>
       </c>
-      <c r="I151" s="76"/>
-      <c r="J151" s="7" t="s">
+      <c r="J151" s="91"/>
+      <c r="K151" s="7" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="152" ht="13.5" spans="1:10">
-      <c r="A152" s="49"/>
+    <row r="152" ht="13.5" spans="1:11">
+      <c r="A152" s="52"/>
       <c r="B152" s="17" t="s">
         <v>263</v>
       </c>
@@ -5952,19 +6175,20 @@
       <c r="D152" s="23" t="s">
         <v>83</v>
       </c>
-      <c r="E152" s="88"/>
-      <c r="F152" s="76"/>
-      <c r="G152" s="77"/>
-      <c r="H152" s="13" t="s">
+      <c r="E152" s="108"/>
+      <c r="F152" s="91"/>
+      <c r="G152" s="92"/>
+      <c r="H152" s="109"/>
+      <c r="I152" s="13" t="s">
         <v>264</v>
       </c>
-      <c r="I152" s="76"/>
-      <c r="J152" s="7" t="s">
+      <c r="J152" s="91"/>
+      <c r="K152" s="7" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="153" ht="13.5" spans="1:10">
-      <c r="A153" s="51"/>
+    <row r="153" ht="13.5" spans="1:11">
+      <c r="A153" s="54"/>
       <c r="B153" s="20"/>
       <c r="C153" s="13" t="s">
         <v>265</v>
@@ -5972,1573 +6196,1659 @@
       <c r="D153" s="23" t="s">
         <v>83</v>
       </c>
-      <c r="E153" s="88"/>
+      <c r="E153" s="108"/>
       <c r="F153" s="25"/>
-      <c r="G153" s="79"/>
-      <c r="H153" s="13" t="s">
+      <c r="G153" s="94"/>
+      <c r="H153" s="109"/>
+      <c r="I153" s="13" t="s">
         <v>266</v>
       </c>
-      <c r="I153" s="25"/>
-      <c r="J153" s="7" t="s">
+      <c r="J153" s="25"/>
+      <c r="K153" s="7" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="154" ht="40.5" spans="1:10">
-      <c r="A154" s="68" t="s">
+    <row r="154" ht="40.5" spans="1:11">
+      <c r="A154" s="82" t="s">
         <v>267</v>
       </c>
-      <c r="B154" s="45" t="s">
+      <c r="B154" s="48" t="s">
         <v>268</v>
       </c>
-      <c r="C154" s="80" t="s">
+      <c r="C154" s="95" t="s">
         <v>269</v>
       </c>
       <c r="D154" s="23" t="s">
         <v>83</v>
       </c>
-      <c r="E154" s="88"/>
+      <c r="E154" s="108"/>
       <c r="F154" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="G154" s="89"/>
-      <c r="H154" s="13" t="s">
+      <c r="G154" s="110"/>
+      <c r="H154" s="109"/>
+      <c r="I154" s="13" t="s">
         <v>270</v>
       </c>
-      <c r="I154" s="13"/>
-      <c r="J154" s="7" t="s">
+      <c r="J154" s="13"/>
+      <c r="K154" s="7" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="155" ht="27" spans="1:10">
-      <c r="A155" s="69"/>
-      <c r="B155" s="48"/>
-      <c r="C155" s="80" t="s">
+    <row r="155" ht="27" spans="1:11">
+      <c r="A155" s="83"/>
+      <c r="B155" s="51"/>
+      <c r="C155" s="95" t="s">
         <v>271</v>
       </c>
       <c r="D155" s="23" t="s">
         <v>83</v>
       </c>
-      <c r="E155" s="88"/>
+      <c r="E155" s="108"/>
       <c r="F155" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="G155" s="89"/>
-      <c r="H155" s="13" t="s">
+      <c r="G155" s="110"/>
+      <c r="H155" s="109"/>
+      <c r="I155" s="13" t="s">
         <v>272</v>
       </c>
-      <c r="I155" s="13"/>
-      <c r="J155" s="7" t="s">
+      <c r="J155" s="13"/>
+      <c r="K155" s="7" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="156" ht="30" customHeight="1" spans="1:10">
-      <c r="A156" s="69"/>
-      <c r="B156" s="48"/>
-      <c r="C156" s="59" t="s">
+    <row r="156" ht="30" customHeight="1" spans="1:11">
+      <c r="A156" s="83"/>
+      <c r="B156" s="51"/>
+      <c r="C156" s="68" t="s">
         <v>273</v>
       </c>
-      <c r="D156" s="73" t="s">
+      <c r="D156" s="88" t="s">
         <v>83</v>
       </c>
-      <c r="E156" s="84"/>
+      <c r="E156" s="101"/>
       <c r="F156" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="G156" s="90"/>
-      <c r="H156" s="13" t="s">
+      <c r="G156" s="111"/>
+      <c r="H156" s="102"/>
+      <c r="I156" s="13" t="s">
         <v>274</v>
       </c>
-      <c r="I156" s="17"/>
-      <c r="J156" s="7" t="s">
+      <c r="J156" s="17"/>
+      <c r="K156" s="7" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="157" ht="13.5" spans="1:10">
-      <c r="A157" s="82"/>
-      <c r="B157" s="55"/>
-      <c r="C157" s="63"/>
+    <row r="157" ht="13.5" spans="1:11">
+      <c r="A157" s="98"/>
+      <c r="B157" s="60"/>
+      <c r="C157" s="74"/>
       <c r="D157" s="25"/>
-      <c r="E157" s="86"/>
+      <c r="E157" s="105"/>
       <c r="F157" s="20"/>
-      <c r="G157" s="91"/>
-      <c r="H157" s="13" t="s">
+      <c r="G157" s="112"/>
+      <c r="H157" s="106"/>
+      <c r="I157" s="13" t="s">
         <v>275</v>
       </c>
-      <c r="I157" s="20"/>
-      <c r="J157" s="7" t="s">
+      <c r="J157" s="20"/>
+      <c r="K157" s="7" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="158" ht="30" customHeight="1" spans="1:10">
-      <c r="A158" s="68" t="s">
+    <row r="158" ht="30" customHeight="1" spans="1:11">
+      <c r="A158" s="82" t="s">
         <v>276</v>
       </c>
-      <c r="B158" s="92" t="s">
+      <c r="B158" s="113" t="s">
         <v>276</v>
       </c>
-      <c r="C158" s="59" t="s">
+      <c r="C158" s="68" t="s">
         <v>277</v>
       </c>
       <c r="D158" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="E158" s="46" t="s">
-        <v>51</v>
-      </c>
+      <c r="E158" s="49"/>
       <c r="F158" s="17" t="s">
         <v>29</v>
       </c>
       <c r="G158" s="17"/>
-      <c r="H158" s="13" t="s">
+      <c r="H158" s="66"/>
+      <c r="I158" s="13" t="s">
         <v>278</v>
       </c>
-      <c r="I158" s="17"/>
-      <c r="J158" s="7" t="s">
+      <c r="J158" s="17"/>
+      <c r="K158" s="7" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="159" ht="45" customHeight="1" spans="1:10">
-      <c r="A159" s="69"/>
-      <c r="B159" s="93"/>
-      <c r="C159" s="60"/>
-      <c r="D159" s="47"/>
-      <c r="E159" s="50"/>
-      <c r="F159" s="47"/>
-      <c r="G159" s="47"/>
-      <c r="H159" s="13" t="s">
+    <row r="159" ht="45" customHeight="1" spans="1:11">
+      <c r="A159" s="83"/>
+      <c r="B159" s="114"/>
+      <c r="C159" s="69"/>
+      <c r="D159" s="50"/>
+      <c r="E159" s="53"/>
+      <c r="F159" s="50"/>
+      <c r="G159" s="50"/>
+      <c r="H159" s="86"/>
+      <c r="I159" s="13" t="s">
         <v>279</v>
       </c>
-      <c r="I159" s="47"/>
-      <c r="J159" s="7" t="s">
+      <c r="J159" s="50"/>
+      <c r="K159" s="7" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="160" ht="13.5" spans="1:10">
-      <c r="A160" s="69"/>
-      <c r="B160" s="93"/>
-      <c r="C160" s="63"/>
-      <c r="D160" s="47"/>
-      <c r="E160" s="50"/>
-      <c r="F160" s="47"/>
-      <c r="G160" s="47"/>
-      <c r="H160" s="13" t="s">
+    <row r="160" ht="13.5" spans="1:11">
+      <c r="A160" s="83"/>
+      <c r="B160" s="114"/>
+      <c r="C160" s="74"/>
+      <c r="D160" s="50"/>
+      <c r="E160" s="53"/>
+      <c r="F160" s="50"/>
+      <c r="G160" s="50"/>
+      <c r="H160" s="86"/>
+      <c r="I160" s="13" t="s">
         <v>280</v>
       </c>
-      <c r="I160" s="20"/>
-      <c r="J160" s="7" t="s">
+      <c r="J160" s="20"/>
+      <c r="K160" s="7" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="161" ht="30" customHeight="1" spans="1:10">
-      <c r="A161" s="69"/>
-      <c r="B161" s="93"/>
-      <c r="C161" s="59" t="s">
+    <row r="161" ht="30" customHeight="1" spans="1:11">
+      <c r="A161" s="83"/>
+      <c r="B161" s="114"/>
+      <c r="C161" s="68" t="s">
         <v>281</v>
       </c>
-      <c r="D161" s="47"/>
-      <c r="E161" s="50"/>
-      <c r="F161" s="47"/>
-      <c r="G161" s="47"/>
-      <c r="H161" s="13" t="s">
+      <c r="D161" s="50"/>
+      <c r="E161" s="53"/>
+      <c r="F161" s="50"/>
+      <c r="G161" s="50"/>
+      <c r="H161" s="86"/>
+      <c r="I161" s="13" t="s">
         <v>282</v>
       </c>
-      <c r="I161" s="17"/>
-      <c r="J161" s="7" t="s">
+      <c r="J161" s="17"/>
+      <c r="K161" s="7" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="162" ht="13.5" spans="1:10">
-      <c r="A162" s="69"/>
-      <c r="B162" s="93"/>
-      <c r="C162" s="63"/>
-      <c r="D162" s="47"/>
-      <c r="E162" s="50"/>
-      <c r="F162" s="47"/>
-      <c r="G162" s="47"/>
-      <c r="H162" s="13" t="s">
+    <row r="162" ht="13.5" spans="1:11">
+      <c r="A162" s="83"/>
+      <c r="B162" s="114"/>
+      <c r="C162" s="74"/>
+      <c r="D162" s="50"/>
+      <c r="E162" s="53"/>
+      <c r="F162" s="50"/>
+      <c r="G162" s="50"/>
+      <c r="H162" s="86"/>
+      <c r="I162" s="13" t="s">
         <v>283</v>
       </c>
-      <c r="I162" s="20"/>
-      <c r="J162" s="7" t="s">
+      <c r="J162" s="20"/>
+      <c r="K162" s="7" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="163" ht="13.5" spans="1:10">
-      <c r="A163" s="69"/>
-      <c r="B163" s="93"/>
-      <c r="C163" s="80" t="s">
+    <row r="163" ht="13.5" spans="1:11">
+      <c r="A163" s="83"/>
+      <c r="B163" s="114"/>
+      <c r="C163" s="95" t="s">
         <v>284</v>
       </c>
-      <c r="D163" s="47"/>
-      <c r="E163" s="50"/>
-      <c r="F163" s="47"/>
-      <c r="G163" s="47"/>
-      <c r="H163" s="13" t="s">
+      <c r="D163" s="50"/>
+      <c r="E163" s="53"/>
+      <c r="F163" s="50"/>
+      <c r="G163" s="50"/>
+      <c r="H163" s="86"/>
+      <c r="I163" s="13" t="s">
         <v>285</v>
       </c>
-      <c r="I163" s="13"/>
-      <c r="J163" s="7" t="s">
+      <c r="J163" s="13"/>
+      <c r="K163" s="7" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="164" ht="13.5" spans="1:10">
-      <c r="A164" s="69"/>
-      <c r="B164" s="93"/>
-      <c r="C164" s="80" t="s">
+    <row r="164" ht="13.5" spans="1:11">
+      <c r="A164" s="83"/>
+      <c r="B164" s="114"/>
+      <c r="C164" s="95" t="s">
         <v>286</v>
       </c>
-      <c r="D164" s="47"/>
-      <c r="E164" s="50"/>
-      <c r="F164" s="47"/>
-      <c r="G164" s="47"/>
-      <c r="H164" s="13" t="s">
+      <c r="D164" s="50"/>
+      <c r="E164" s="53"/>
+      <c r="F164" s="50"/>
+      <c r="G164" s="50"/>
+      <c r="H164" s="86"/>
+      <c r="I164" s="13" t="s">
         <v>287</v>
       </c>
-      <c r="I164" s="13"/>
-      <c r="J164" s="7" t="s">
+      <c r="J164" s="13"/>
+      <c r="K164" s="7" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="165" ht="30" customHeight="1" spans="1:10">
-      <c r="A165" s="69"/>
-      <c r="B165" s="93"/>
-      <c r="C165" s="59" t="s">
+    <row r="165" ht="30" customHeight="1" spans="1:11">
+      <c r="A165" s="83"/>
+      <c r="B165" s="114"/>
+      <c r="C165" s="68" t="s">
         <v>288</v>
       </c>
-      <c r="D165" s="47"/>
-      <c r="E165" s="50"/>
-      <c r="F165" s="47"/>
-      <c r="G165" s="47"/>
-      <c r="H165" s="13" t="s">
+      <c r="D165" s="50"/>
+      <c r="E165" s="53"/>
+      <c r="F165" s="50"/>
+      <c r="G165" s="50"/>
+      <c r="H165" s="86"/>
+      <c r="I165" s="13" t="s">
         <v>289</v>
       </c>
-      <c r="I165" s="17"/>
-      <c r="J165" s="7" t="s">
+      <c r="J165" s="17"/>
+      <c r="K165" s="7" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="166" ht="30" customHeight="1" spans="1:10">
-      <c r="A166" s="69"/>
-      <c r="B166" s="93"/>
-      <c r="C166" s="60"/>
-      <c r="D166" s="47"/>
-      <c r="E166" s="50"/>
-      <c r="F166" s="47"/>
-      <c r="G166" s="47"/>
-      <c r="H166" s="13" t="s">
+    <row r="166" ht="30" customHeight="1" spans="1:11">
+      <c r="A166" s="83"/>
+      <c r="B166" s="114"/>
+      <c r="C166" s="69"/>
+      <c r="D166" s="50"/>
+      <c r="E166" s="53"/>
+      <c r="F166" s="50"/>
+      <c r="G166" s="50"/>
+      <c r="H166" s="86"/>
+      <c r="I166" s="13" t="s">
         <v>290</v>
       </c>
-      <c r="I166" s="47"/>
-      <c r="J166" s="7" t="s">
+      <c r="J166" s="50"/>
+      <c r="K166" s="7" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="167" ht="13.5" spans="1:10">
-      <c r="A167" s="69"/>
-      <c r="B167" s="93"/>
-      <c r="C167" s="63"/>
-      <c r="D167" s="47"/>
-      <c r="E167" s="50"/>
-      <c r="F167" s="47"/>
-      <c r="G167" s="47"/>
-      <c r="H167" s="13" t="s">
+    <row r="167" ht="13.5" spans="1:11">
+      <c r="A167" s="83"/>
+      <c r="B167" s="114"/>
+      <c r="C167" s="74"/>
+      <c r="D167" s="50"/>
+      <c r="E167" s="53"/>
+      <c r="F167" s="50"/>
+      <c r="G167" s="50"/>
+      <c r="H167" s="86"/>
+      <c r="I167" s="13" t="s">
         <v>291</v>
       </c>
-      <c r="I167" s="20"/>
-      <c r="J167" s="7" t="s">
+      <c r="J167" s="20"/>
+      <c r="K167" s="7" t="s">
         <v>288</v>
       </c>
     </row>
-    <row r="168" ht="13.5" spans="1:10">
-      <c r="A168" s="69"/>
-      <c r="B168" s="93"/>
-      <c r="C168" s="59" t="s">
+    <row r="168" ht="13.5" spans="1:11">
+      <c r="A168" s="83"/>
+      <c r="B168" s="114"/>
+      <c r="C168" s="68" t="s">
         <v>292</v>
       </c>
-      <c r="D168" s="47"/>
-      <c r="E168" s="50"/>
-      <c r="F168" s="47"/>
-      <c r="G168" s="47"/>
-      <c r="H168" s="13" t="s">
+      <c r="D168" s="50"/>
+      <c r="E168" s="53"/>
+      <c r="F168" s="50"/>
+      <c r="G168" s="50"/>
+      <c r="H168" s="86"/>
+      <c r="I168" s="13" t="s">
         <v>293</v>
       </c>
-      <c r="I168" s="17"/>
-      <c r="J168" s="7" t="s">
+      <c r="J168" s="17"/>
+      <c r="K168" s="7" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="169" ht="13.5" spans="1:10">
-      <c r="A169" s="69"/>
-      <c r="B169" s="93"/>
-      <c r="C169" s="63"/>
-      <c r="D169" s="47"/>
-      <c r="E169" s="50"/>
-      <c r="F169" s="47"/>
-      <c r="G169" s="47"/>
-      <c r="H169" s="13" t="s">
+    <row r="169" ht="13.5" spans="1:11">
+      <c r="A169" s="83"/>
+      <c r="B169" s="114"/>
+      <c r="C169" s="74"/>
+      <c r="D169" s="50"/>
+      <c r="E169" s="53"/>
+      <c r="F169" s="50"/>
+      <c r="G169" s="50"/>
+      <c r="H169" s="86"/>
+      <c r="I169" s="13" t="s">
         <v>294</v>
       </c>
-      <c r="I169" s="20"/>
-      <c r="J169" s="7" t="s">
+      <c r="J169" s="20"/>
+      <c r="K169" s="7" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="170" ht="45" customHeight="1" spans="1:10">
-      <c r="A170" s="69"/>
-      <c r="B170" s="93"/>
-      <c r="C170" s="59" t="s">
+    <row r="170" ht="45" customHeight="1" spans="1:11">
+      <c r="A170" s="83"/>
+      <c r="B170" s="114"/>
+      <c r="C170" s="68" t="s">
         <v>295</v>
       </c>
-      <c r="D170" s="47"/>
-      <c r="E170" s="50"/>
-      <c r="F170" s="47"/>
-      <c r="G170" s="47"/>
-      <c r="H170" s="13" t="s">
+      <c r="D170" s="50"/>
+      <c r="E170" s="53"/>
+      <c r="F170" s="50"/>
+      <c r="G170" s="50"/>
+      <c r="H170" s="86"/>
+      <c r="I170" s="13" t="s">
         <v>296</v>
       </c>
-      <c r="I170" s="17"/>
-      <c r="J170" s="7" t="s">
+      <c r="J170" s="17"/>
+      <c r="K170" s="7" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="171" ht="13.5" spans="1:10">
-      <c r="A171" s="69"/>
-      <c r="B171" s="93"/>
-      <c r="C171" s="60"/>
-      <c r="D171" s="47"/>
-      <c r="E171" s="50"/>
-      <c r="F171" s="47"/>
-      <c r="G171" s="47"/>
-      <c r="H171" s="13" t="s">
+    <row r="171" ht="13.5" spans="1:11">
+      <c r="A171" s="83"/>
+      <c r="B171" s="114"/>
+      <c r="C171" s="69"/>
+      <c r="D171" s="50"/>
+      <c r="E171" s="53"/>
+      <c r="F171" s="50"/>
+      <c r="G171" s="50"/>
+      <c r="H171" s="86"/>
+      <c r="I171" s="13" t="s">
         <v>297</v>
       </c>
-      <c r="I171" s="47"/>
-      <c r="J171" s="7" t="s">
+      <c r="J171" s="50"/>
+      <c r="K171" s="7" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="172" ht="30" customHeight="1" spans="1:10">
-      <c r="A172" s="69"/>
-      <c r="B172" s="93"/>
-      <c r="C172" s="63"/>
-      <c r="D172" s="47"/>
-      <c r="E172" s="50"/>
-      <c r="F172" s="47"/>
-      <c r="G172" s="47"/>
-      <c r="H172" s="13" t="s">
+    <row r="172" ht="30" customHeight="1" spans="1:11">
+      <c r="A172" s="83"/>
+      <c r="B172" s="114"/>
+      <c r="C172" s="74"/>
+      <c r="D172" s="50"/>
+      <c r="E172" s="53"/>
+      <c r="F172" s="50"/>
+      <c r="G172" s="50"/>
+      <c r="H172" s="86"/>
+      <c r="I172" s="13" t="s">
         <v>298</v>
       </c>
-      <c r="I172" s="20"/>
-      <c r="J172" s="7" t="s">
+      <c r="J172" s="20"/>
+      <c r="K172" s="7" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="173" ht="13.5" spans="1:10">
-      <c r="A173" s="69"/>
-      <c r="B173" s="93"/>
-      <c r="C173" s="80" t="s">
+    <row r="173" ht="13.5" spans="1:11">
+      <c r="A173" s="83"/>
+      <c r="B173" s="114"/>
+      <c r="C173" s="95" t="s">
         <v>299</v>
       </c>
-      <c r="D173" s="47"/>
-      <c r="E173" s="50"/>
-      <c r="F173" s="47"/>
-      <c r="G173" s="47"/>
-      <c r="H173" s="13" t="s">
+      <c r="D173" s="50"/>
+      <c r="E173" s="53"/>
+      <c r="F173" s="50"/>
+      <c r="G173" s="50"/>
+      <c r="H173" s="86"/>
+      <c r="I173" s="13" t="s">
         <v>300</v>
       </c>
-      <c r="I173" s="13"/>
-      <c r="J173" s="7" t="s">
+      <c r="J173" s="13"/>
+      <c r="K173" s="7" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="174" ht="13.5" spans="1:10">
-      <c r="A174" s="69"/>
-      <c r="B174" s="93"/>
-      <c r="C174" s="80" t="s">
+    <row r="174" ht="13.5" spans="1:11">
+      <c r="A174" s="83"/>
+      <c r="B174" s="114"/>
+      <c r="C174" s="95" t="s">
         <v>301</v>
       </c>
-      <c r="D174" s="47"/>
-      <c r="E174" s="50"/>
-      <c r="F174" s="47"/>
-      <c r="G174" s="47"/>
-      <c r="H174" s="13" t="s">
+      <c r="D174" s="50"/>
+      <c r="E174" s="53"/>
+      <c r="F174" s="50"/>
+      <c r="G174" s="50"/>
+      <c r="H174" s="86"/>
+      <c r="I174" s="13" t="s">
         <v>302</v>
       </c>
-      <c r="I174" s="13"/>
-      <c r="J174" s="7" t="s">
+      <c r="J174" s="13"/>
+      <c r="K174" s="7" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="175" ht="13.5" spans="1:10">
-      <c r="A175" s="69"/>
-      <c r="B175" s="93"/>
-      <c r="C175" s="80" t="s">
+    <row r="175" ht="13.5" spans="1:11">
+      <c r="A175" s="83"/>
+      <c r="B175" s="114"/>
+      <c r="C175" s="95" t="s">
         <v>303</v>
       </c>
-      <c r="D175" s="47"/>
-      <c r="E175" s="50"/>
-      <c r="F175" s="47"/>
-      <c r="G175" s="47"/>
-      <c r="H175" s="13" t="s">
+      <c r="D175" s="50"/>
+      <c r="E175" s="53"/>
+      <c r="F175" s="50"/>
+      <c r="G175" s="50"/>
+      <c r="H175" s="86"/>
+      <c r="I175" s="13" t="s">
         <v>304</v>
       </c>
-      <c r="I175" s="13"/>
-      <c r="J175" s="7" t="s">
+      <c r="J175" s="13"/>
+      <c r="K175" s="7" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="176" ht="13.5" spans="1:10">
-      <c r="A176" s="69"/>
-      <c r="B176" s="93"/>
-      <c r="C176" s="59" t="s">
+    <row r="176" ht="13.5" spans="1:11">
+      <c r="A176" s="83"/>
+      <c r="B176" s="114"/>
+      <c r="C176" s="68" t="s">
         <v>305</v>
       </c>
-      <c r="D176" s="47"/>
-      <c r="E176" s="50"/>
-      <c r="F176" s="47"/>
-      <c r="G176" s="47"/>
-      <c r="H176" s="13" t="s">
+      <c r="D176" s="50"/>
+      <c r="E176" s="53"/>
+      <c r="F176" s="50"/>
+      <c r="G176" s="50"/>
+      <c r="H176" s="86"/>
+      <c r="I176" s="13" t="s">
         <v>306</v>
       </c>
-      <c r="I176" s="17"/>
-      <c r="J176" s="7" t="s">
+      <c r="J176" s="17"/>
+      <c r="K176" s="7" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="177" ht="13.5" spans="1:10">
-      <c r="A177" s="82"/>
-      <c r="B177" s="94"/>
-      <c r="C177" s="63"/>
+    <row r="177" ht="13.5" spans="1:11">
+      <c r="A177" s="98"/>
+      <c r="B177" s="115"/>
+      <c r="C177" s="74"/>
       <c r="D177" s="20"/>
-      <c r="E177" s="52"/>
+      <c r="E177" s="55"/>
       <c r="F177" s="20"/>
       <c r="G177" s="20"/>
-      <c r="H177" s="13" t="s">
+      <c r="H177" s="67"/>
+      <c r="I177" s="13" t="s">
         <v>307</v>
       </c>
-      <c r="I177" s="20"/>
-      <c r="J177" s="7" t="s">
+      <c r="J177" s="20"/>
+      <c r="K177" s="7" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="178" ht="30" customHeight="1" spans="1:10">
+    <row r="178" ht="30" customHeight="1" spans="1:11">
       <c r="A178" s="27" t="s">
         <v>308</v>
       </c>
-      <c r="B178" s="59" t="s">
+      <c r="B178" s="68" t="s">
         <v>309</v>
       </c>
-      <c r="C178" s="80" t="s">
+      <c r="C178" s="95" t="s">
         <v>310</v>
       </c>
       <c r="D178" s="17" t="s">
         <v>83</v>
       </c>
-      <c r="E178" s="53"/>
+      <c r="E178" s="56"/>
       <c r="F178" s="13" t="s">
         <v>29</v>
       </c>
       <c r="G178" s="13"/>
-      <c r="H178" s="13" t="s">
+      <c r="H178" s="57"/>
+      <c r="I178" s="13" t="s">
         <v>311</v>
       </c>
-      <c r="I178" s="13"/>
-      <c r="J178" s="7" t="s">
+      <c r="J178" s="13"/>
+      <c r="K178" s="7" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="179" ht="13.5" spans="1:10">
-      <c r="A179" s="49"/>
-      <c r="B179" s="60"/>
-      <c r="C179" s="59" t="s">
+    <row r="179" ht="13.5" spans="1:11">
+      <c r="A179" s="52"/>
+      <c r="B179" s="69"/>
+      <c r="C179" s="68" t="s">
         <v>312</v>
       </c>
-      <c r="D179" s="47"/>
-      <c r="E179" s="54"/>
+      <c r="D179" s="50"/>
+      <c r="E179" s="58"/>
       <c r="F179" s="17" t="s">
         <v>29</v>
       </c>
       <c r="G179" s="17"/>
-      <c r="H179" s="13" t="s">
+      <c r="H179" s="59"/>
+      <c r="I179" s="13" t="s">
         <v>313</v>
       </c>
-      <c r="I179" s="17"/>
-      <c r="J179" s="7" t="s">
+      <c r="J179" s="17"/>
+      <c r="K179" s="7" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="180" ht="30" customHeight="1" spans="1:10">
-      <c r="A180" s="49"/>
-      <c r="B180" s="60"/>
-      <c r="C180" s="63"/>
-      <c r="D180" s="47"/>
-      <c r="E180" s="54"/>
+    <row r="180" ht="30" customHeight="1" spans="1:11">
+      <c r="A180" s="52"/>
+      <c r="B180" s="69"/>
+      <c r="C180" s="74"/>
+      <c r="D180" s="50"/>
+      <c r="E180" s="58"/>
       <c r="F180" s="20"/>
       <c r="G180" s="20"/>
-      <c r="H180" s="13" t="s">
+      <c r="H180" s="59"/>
+      <c r="I180" s="13" t="s">
         <v>314</v>
       </c>
-      <c r="I180" s="20"/>
-      <c r="J180" s="7" t="s">
+      <c r="J180" s="20"/>
+      <c r="K180" s="7" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="181" ht="30" customHeight="1" spans="1:10">
-      <c r="A181" s="49"/>
-      <c r="B181" s="60"/>
-      <c r="C181" s="59" t="s">
+    <row r="181" ht="30" customHeight="1" spans="1:11">
+      <c r="A181" s="52"/>
+      <c r="B181" s="69"/>
+      <c r="C181" s="68" t="s">
         <v>315</v>
       </c>
-      <c r="D181" s="47"/>
-      <c r="E181" s="54"/>
+      <c r="D181" s="50"/>
+      <c r="E181" s="58"/>
       <c r="F181" s="17" t="s">
         <v>29</v>
       </c>
       <c r="G181" s="17"/>
-      <c r="H181" s="13" t="s">
+      <c r="H181" s="59"/>
+      <c r="I181" s="13" t="s">
         <v>316</v>
       </c>
-      <c r="I181" s="17"/>
-      <c r="J181" s="7" t="s">
+      <c r="J181" s="17"/>
+      <c r="K181" s="7" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="182" ht="45" customHeight="1" spans="1:10">
-      <c r="A182" s="49"/>
-      <c r="B182" s="60"/>
-      <c r="C182" s="63"/>
-      <c r="D182" s="47"/>
-      <c r="E182" s="54"/>
+    <row r="182" ht="45" customHeight="1" spans="1:11">
+      <c r="A182" s="52"/>
+      <c r="B182" s="69"/>
+      <c r="C182" s="74"/>
+      <c r="D182" s="50"/>
+      <c r="E182" s="58"/>
       <c r="F182" s="20"/>
       <c r="G182" s="20"/>
-      <c r="H182" s="13" t="s">
+      <c r="H182" s="59"/>
+      <c r="I182" s="13" t="s">
         <v>317</v>
       </c>
-      <c r="I182" s="20"/>
-      <c r="J182" s="7" t="s">
+      <c r="J182" s="20"/>
+      <c r="K182" s="7" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="183" ht="45" customHeight="1" spans="1:10">
-      <c r="A183" s="49"/>
-      <c r="B183" s="60"/>
-      <c r="C183" s="59" t="s">
+    <row r="183" ht="45" customHeight="1" spans="1:11">
+      <c r="A183" s="52"/>
+      <c r="B183" s="69"/>
+      <c r="C183" s="68" t="s">
         <v>318</v>
       </c>
-      <c r="D183" s="47"/>
-      <c r="E183" s="54"/>
+      <c r="D183" s="50"/>
+      <c r="E183" s="58"/>
       <c r="F183" s="17" t="s">
         <v>29</v>
       </c>
       <c r="G183" s="17"/>
-      <c r="H183" s="13" t="s">
+      <c r="H183" s="59"/>
+      <c r="I183" s="13" t="s">
         <v>319</v>
       </c>
-      <c r="I183" s="17"/>
-      <c r="J183" s="7" t="s">
+      <c r="J183" s="17"/>
+      <c r="K183" s="7" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="184" ht="13.5" spans="1:10">
-      <c r="A184" s="49"/>
-      <c r="B184" s="60"/>
-      <c r="C184" s="60"/>
-      <c r="D184" s="47"/>
-      <c r="E184" s="54"/>
-      <c r="F184" s="47"/>
-      <c r="G184" s="47"/>
-      <c r="H184" s="13" t="s">
+    <row r="184" ht="13.5" spans="1:11">
+      <c r="A184" s="52"/>
+      <c r="B184" s="69"/>
+      <c r="C184" s="69"/>
+      <c r="D184" s="50"/>
+      <c r="E184" s="58"/>
+      <c r="F184" s="50"/>
+      <c r="G184" s="50"/>
+      <c r="H184" s="59"/>
+      <c r="I184" s="13" t="s">
         <v>320</v>
       </c>
-      <c r="I184" s="47"/>
-      <c r="J184" s="7" t="s">
+      <c r="J184" s="50"/>
+      <c r="K184" s="7" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="185" ht="13.5" spans="1:10">
-      <c r="A185" s="49"/>
-      <c r="B185" s="60"/>
-      <c r="C185" s="63"/>
-      <c r="D185" s="47"/>
-      <c r="E185" s="54"/>
+    <row r="185" ht="13.5" spans="1:11">
+      <c r="A185" s="52"/>
+      <c r="B185" s="69"/>
+      <c r="C185" s="74"/>
+      <c r="D185" s="50"/>
+      <c r="E185" s="58"/>
       <c r="F185" s="20"/>
       <c r="G185" s="20"/>
-      <c r="H185" s="13" t="s">
+      <c r="H185" s="59"/>
+      <c r="I185" s="13" t="s">
         <v>321</v>
       </c>
-      <c r="I185" s="20"/>
-      <c r="J185" s="7" t="s">
+      <c r="J185" s="20"/>
+      <c r="K185" s="7" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="186" ht="13.5" spans="1:10">
-      <c r="A186" s="49"/>
-      <c r="B186" s="60"/>
-      <c r="C186" s="59" t="s">
+    <row r="186" ht="13.5" spans="1:11">
+      <c r="A186" s="52"/>
+      <c r="B186" s="69"/>
+      <c r="C186" s="68" t="s">
         <v>322</v>
       </c>
-      <c r="D186" s="47"/>
-      <c r="E186" s="54"/>
+      <c r="D186" s="50"/>
+      <c r="E186" s="58"/>
       <c r="F186" s="17" t="s">
         <v>29</v>
       </c>
       <c r="G186" s="17"/>
-      <c r="H186" s="13" t="s">
+      <c r="H186" s="59"/>
+      <c r="I186" s="13" t="s">
         <v>323</v>
       </c>
-      <c r="I186" s="17"/>
-      <c r="J186" s="7" t="s">
+      <c r="J186" s="17"/>
+      <c r="K186" s="7" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="187" ht="13.5" spans="1:10">
-      <c r="A187" s="49"/>
-      <c r="B187" s="60"/>
-      <c r="C187" s="60"/>
-      <c r="D187" s="47"/>
-      <c r="E187" s="54"/>
-      <c r="F187" s="47"/>
-      <c r="G187" s="47"/>
-      <c r="H187" s="13" t="s">
+    <row r="187" ht="13.5" spans="1:11">
+      <c r="A187" s="52"/>
+      <c r="B187" s="69"/>
+      <c r="C187" s="69"/>
+      <c r="D187" s="50"/>
+      <c r="E187" s="58"/>
+      <c r="F187" s="50"/>
+      <c r="G187" s="50"/>
+      <c r="H187" s="59"/>
+      <c r="I187" s="13" t="s">
         <v>324</v>
       </c>
-      <c r="I187" s="47"/>
-      <c r="J187" s="7" t="s">
+      <c r="J187" s="50"/>
+      <c r="K187" s="7" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="188" ht="30" customHeight="1" spans="1:10">
-      <c r="A188" s="49"/>
-      <c r="B188" s="60"/>
-      <c r="C188" s="63"/>
-      <c r="D188" s="47"/>
-      <c r="E188" s="54"/>
+    <row r="188" ht="30" customHeight="1" spans="1:11">
+      <c r="A188" s="52"/>
+      <c r="B188" s="69"/>
+      <c r="C188" s="74"/>
+      <c r="D188" s="50"/>
+      <c r="E188" s="58"/>
       <c r="F188" s="20"/>
       <c r="G188" s="20"/>
-      <c r="H188" s="13" t="s">
+      <c r="H188" s="59"/>
+      <c r="I188" s="13" t="s">
         <v>325</v>
       </c>
-      <c r="I188" s="20"/>
-      <c r="J188" s="7" t="s">
+      <c r="J188" s="20"/>
+      <c r="K188" s="7" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="189" ht="13.5" spans="1:10">
-      <c r="A189" s="49"/>
-      <c r="B189" s="60"/>
-      <c r="C189" s="59" t="s">
+    <row r="189" ht="13.5" spans="1:11">
+      <c r="A189" s="52"/>
+      <c r="B189" s="69"/>
+      <c r="C189" s="68" t="s">
         <v>326</v>
       </c>
-      <c r="D189" s="47"/>
-      <c r="E189" s="54"/>
+      <c r="D189" s="50"/>
+      <c r="E189" s="58"/>
       <c r="F189" s="17" t="s">
         <v>29</v>
       </c>
       <c r="G189" s="17"/>
-      <c r="H189" s="13" t="s">
+      <c r="H189" s="59"/>
+      <c r="I189" s="13" t="s">
         <v>327</v>
       </c>
-      <c r="I189" s="17"/>
-      <c r="J189" s="7" t="s">
+      <c r="J189" s="17"/>
+      <c r="K189" s="7" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="190" ht="13.5" spans="1:10">
-      <c r="A190" s="49"/>
-      <c r="B190" s="60"/>
-      <c r="C190" s="63"/>
-      <c r="D190" s="47"/>
-      <c r="E190" s="54"/>
+    <row r="190" ht="13.5" spans="1:11">
+      <c r="A190" s="52"/>
+      <c r="B190" s="69"/>
+      <c r="C190" s="74"/>
+      <c r="D190" s="50"/>
+      <c r="E190" s="58"/>
       <c r="F190" s="20"/>
       <c r="G190" s="20"/>
-      <c r="H190" s="13" t="s">
+      <c r="H190" s="59"/>
+      <c r="I190" s="13" t="s">
         <v>328</v>
       </c>
-      <c r="I190" s="20"/>
-      <c r="J190" s="7" t="s">
+      <c r="J190" s="20"/>
+      <c r="K190" s="7" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="191" ht="30" customHeight="1" spans="1:10">
-      <c r="A191" s="49"/>
-      <c r="B191" s="60"/>
-      <c r="C191" s="80" t="s">
+    <row r="191" ht="30" customHeight="1" spans="1:11">
+      <c r="A191" s="52"/>
+      <c r="B191" s="69"/>
+      <c r="C191" s="95" t="s">
         <v>329</v>
       </c>
-      <c r="D191" s="47"/>
-      <c r="E191" s="54"/>
+      <c r="D191" s="50"/>
+      <c r="E191" s="58"/>
       <c r="F191" s="13" t="s">
         <v>29</v>
       </c>
       <c r="G191" s="13"/>
-      <c r="H191" s="13" t="s">
+      <c r="H191" s="59"/>
+      <c r="I191" s="13" t="s">
         <v>330</v>
       </c>
-      <c r="I191" s="13"/>
-      <c r="J191" s="7" t="s">
+      <c r="J191" s="13"/>
+      <c r="K191" s="7" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="192" ht="30" customHeight="1" spans="1:10">
-      <c r="A192" s="49"/>
-      <c r="B192" s="60"/>
+    <row r="192" ht="30" customHeight="1" spans="1:11">
+      <c r="A192" s="52"/>
+      <c r="B192" s="69"/>
       <c r="C192" s="13" t="s">
         <v>331</v>
       </c>
-      <c r="D192" s="47"/>
-      <c r="E192" s="54"/>
+      <c r="D192" s="50"/>
+      <c r="E192" s="58"/>
       <c r="F192" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="G192" s="89"/>
-      <c r="H192" s="13" t="s">
+      <c r="G192" s="110"/>
+      <c r="H192" s="59"/>
+      <c r="I192" s="13" t="s">
         <v>332</v>
       </c>
-      <c r="I192" s="13"/>
-      <c r="J192" s="7" t="s">
+      <c r="J192" s="13"/>
+      <c r="K192" s="7" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="193" ht="13.5" spans="1:10">
-      <c r="A193" s="49"/>
-      <c r="B193" s="63"/>
+    <row r="193" ht="13.5" spans="1:11">
+      <c r="A193" s="52"/>
+      <c r="B193" s="74"/>
       <c r="C193" s="13" t="s">
         <v>333</v>
       </c>
       <c r="D193" s="20"/>
-      <c r="E193" s="56"/>
+      <c r="E193" s="61"/>
       <c r="F193" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="G193" s="89"/>
-      <c r="H193" s="13" t="s">
+      <c r="G193" s="110"/>
+      <c r="H193" s="62"/>
+      <c r="I193" s="13" t="s">
         <v>334</v>
       </c>
-      <c r="I193" s="13"/>
-      <c r="J193" s="7" t="s">
+      <c r="J193" s="13"/>
+      <c r="K193" s="7" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="194" ht="13.5" spans="1:10">
-      <c r="A194" s="49"/>
-      <c r="B194" s="95" t="s">
+    <row r="194" ht="13.5" spans="1:11">
+      <c r="A194" s="52"/>
+      <c r="B194" s="116" t="s">
         <v>335</v>
       </c>
-      <c r="C194" s="59" t="s">
+      <c r="C194" s="68" t="s">
         <v>336</v>
       </c>
       <c r="D194" s="17" t="s">
         <v>83</v>
       </c>
-      <c r="E194" s="53"/>
+      <c r="E194" s="56"/>
       <c r="F194" s="17" t="s">
         <v>29</v>
       </c>
       <c r="G194" s="17"/>
-      <c r="H194" s="13" t="s">
+      <c r="H194" s="57"/>
+      <c r="I194" s="13" t="s">
         <v>337</v>
       </c>
-      <c r="I194" s="17"/>
-      <c r="J194" s="7" t="s">
+      <c r="J194" s="17"/>
+      <c r="K194" s="7" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="195" ht="13.5" spans="1:10">
-      <c r="A195" s="49"/>
-      <c r="B195" s="96"/>
-      <c r="C195" s="63"/>
+    <row r="195" ht="13.5" spans="1:11">
+      <c r="A195" s="52"/>
+      <c r="B195" s="117"/>
+      <c r="C195" s="74"/>
       <c r="D195" s="20"/>
-      <c r="E195" s="56"/>
+      <c r="E195" s="61"/>
       <c r="F195" s="20"/>
       <c r="G195" s="20"/>
-      <c r="H195" s="13" t="s">
+      <c r="H195" s="62"/>
+      <c r="I195" s="13" t="s">
         <v>338</v>
       </c>
-      <c r="I195" s="20"/>
-      <c r="J195" s="7" t="s">
+      <c r="J195" s="20"/>
+      <c r="K195" s="7" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="196" ht="27" spans="1:10">
-      <c r="A196" s="49"/>
-      <c r="B196" s="96"/>
-      <c r="C196" s="59" t="s">
+    <row r="196" ht="27" spans="1:11">
+      <c r="A196" s="52"/>
+      <c r="B196" s="117"/>
+      <c r="C196" s="68" t="s">
         <v>339</v>
       </c>
       <c r="D196" s="17" t="s">
         <v>83</v>
       </c>
-      <c r="E196" s="53"/>
+      <c r="E196" s="56"/>
       <c r="F196" s="17" t="s">
         <v>29</v>
       </c>
       <c r="G196" s="17"/>
-      <c r="H196" s="13" t="s">
+      <c r="H196" s="57"/>
+      <c r="I196" s="13" t="s">
         <v>340</v>
       </c>
-      <c r="I196" s="17"/>
-      <c r="J196" s="7" t="s">
+      <c r="J196" s="17"/>
+      <c r="K196" s="7" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="197" ht="13.5" spans="1:10">
-      <c r="A197" s="49"/>
-      <c r="B197" s="96"/>
-      <c r="C197" s="60"/>
-      <c r="D197" s="47"/>
-      <c r="E197" s="54"/>
-      <c r="F197" s="47"/>
-      <c r="G197" s="47"/>
-      <c r="H197" s="13" t="s">
+    <row r="197" ht="13.5" spans="1:11">
+      <c r="A197" s="52"/>
+      <c r="B197" s="117"/>
+      <c r="C197" s="69"/>
+      <c r="D197" s="50"/>
+      <c r="E197" s="58"/>
+      <c r="F197" s="50"/>
+      <c r="G197" s="50"/>
+      <c r="H197" s="59"/>
+      <c r="I197" s="13" t="s">
         <v>341</v>
       </c>
-      <c r="I197" s="47"/>
-      <c r="J197" s="7" t="s">
+      <c r="J197" s="50"/>
+      <c r="K197" s="7" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="198" ht="13.5" spans="1:10">
-      <c r="A198" s="49"/>
-      <c r="B198" s="96"/>
-      <c r="C198" s="60"/>
-      <c r="D198" s="47"/>
-      <c r="E198" s="54"/>
-      <c r="F198" s="47"/>
-      <c r="G198" s="47"/>
-      <c r="H198" s="13" t="s">
+    <row r="198" ht="13.5" spans="1:11">
+      <c r="A198" s="52"/>
+      <c r="B198" s="117"/>
+      <c r="C198" s="69"/>
+      <c r="D198" s="50"/>
+      <c r="E198" s="58"/>
+      <c r="F198" s="50"/>
+      <c r="G198" s="50"/>
+      <c r="H198" s="59"/>
+      <c r="I198" s="13" t="s">
         <v>342</v>
       </c>
-      <c r="I198" s="47"/>
-      <c r="J198" s="7" t="s">
+      <c r="J198" s="50"/>
+      <c r="K198" s="7" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="199" ht="13.5" spans="1:10">
-      <c r="A199" s="49"/>
-      <c r="B199" s="96"/>
-      <c r="C199" s="60"/>
-      <c r="D199" s="47"/>
-      <c r="E199" s="54"/>
-      <c r="F199" s="47"/>
-      <c r="G199" s="47"/>
-      <c r="H199" s="13" t="s">
+    <row r="199" ht="13.5" spans="1:11">
+      <c r="A199" s="52"/>
+      <c r="B199" s="117"/>
+      <c r="C199" s="69"/>
+      <c r="D199" s="50"/>
+      <c r="E199" s="58"/>
+      <c r="F199" s="50"/>
+      <c r="G199" s="50"/>
+      <c r="H199" s="59"/>
+      <c r="I199" s="13" t="s">
         <v>343</v>
       </c>
-      <c r="I199" s="47"/>
-      <c r="J199" s="7" t="s">
+      <c r="J199" s="50"/>
+      <c r="K199" s="7" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="200" ht="27" spans="1:10">
-      <c r="A200" s="49"/>
-      <c r="B200" s="96"/>
-      <c r="C200" s="60"/>
-      <c r="D200" s="47"/>
-      <c r="E200" s="54"/>
-      <c r="F200" s="47"/>
-      <c r="G200" s="47"/>
-      <c r="H200" s="13" t="s">
+    <row r="200" ht="27" spans="1:11">
+      <c r="A200" s="52"/>
+      <c r="B200" s="117"/>
+      <c r="C200" s="69"/>
+      <c r="D200" s="50"/>
+      <c r="E200" s="58"/>
+      <c r="F200" s="50"/>
+      <c r="G200" s="50"/>
+      <c r="H200" s="59"/>
+      <c r="I200" s="13" t="s">
         <v>344</v>
       </c>
-      <c r="I200" s="47"/>
-      <c r="J200" s="7" t="s">
+      <c r="J200" s="50"/>
+      <c r="K200" s="7" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="201" ht="13.5" spans="1:10">
-      <c r="A201" s="49"/>
-      <c r="B201" s="96"/>
-      <c r="C201" s="60"/>
-      <c r="D201" s="47"/>
-      <c r="E201" s="54"/>
-      <c r="F201" s="47"/>
-      <c r="G201" s="47"/>
-      <c r="H201" s="13" t="s">
+    <row r="201" ht="13.5" spans="1:11">
+      <c r="A201" s="52"/>
+      <c r="B201" s="117"/>
+      <c r="C201" s="69"/>
+      <c r="D201" s="50"/>
+      <c r="E201" s="58"/>
+      <c r="F201" s="50"/>
+      <c r="G201" s="50"/>
+      <c r="H201" s="59"/>
+      <c r="I201" s="13" t="s">
         <v>345</v>
       </c>
-      <c r="I201" s="47"/>
-      <c r="J201" s="7" t="s">
+      <c r="J201" s="50"/>
+      <c r="K201" s="7" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="202" ht="13.5" spans="1:10">
-      <c r="A202" s="49"/>
-      <c r="B202" s="96"/>
-      <c r="C202" s="60"/>
-      <c r="D202" s="47"/>
-      <c r="E202" s="54"/>
-      <c r="F202" s="47"/>
-      <c r="G202" s="47"/>
-      <c r="H202" s="13" t="s">
+    <row r="202" ht="13.5" spans="1:11">
+      <c r="A202" s="52"/>
+      <c r="B202" s="117"/>
+      <c r="C202" s="69"/>
+      <c r="D202" s="50"/>
+      <c r="E202" s="58"/>
+      <c r="F202" s="50"/>
+      <c r="G202" s="50"/>
+      <c r="H202" s="59"/>
+      <c r="I202" s="13" t="s">
         <v>346</v>
       </c>
-      <c r="I202" s="47"/>
-      <c r="J202" s="7" t="s">
+      <c r="J202" s="50"/>
+      <c r="K202" s="7" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="203" ht="27" spans="1:10">
-      <c r="A203" s="49"/>
-      <c r="B203" s="96"/>
-      <c r="C203" s="60"/>
-      <c r="D203" s="47"/>
-      <c r="E203" s="54"/>
-      <c r="F203" s="47"/>
-      <c r="G203" s="47"/>
-      <c r="H203" s="13" t="s">
+    <row r="203" ht="27" spans="1:11">
+      <c r="A203" s="52"/>
+      <c r="B203" s="117"/>
+      <c r="C203" s="69"/>
+      <c r="D203" s="50"/>
+      <c r="E203" s="58"/>
+      <c r="F203" s="50"/>
+      <c r="G203" s="50"/>
+      <c r="H203" s="59"/>
+      <c r="I203" s="13" t="s">
         <v>347</v>
       </c>
-      <c r="I203" s="47"/>
-      <c r="J203" s="7" t="s">
+      <c r="J203" s="50"/>
+      <c r="K203" s="7" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="204" ht="13.5" spans="1:10">
-      <c r="A204" s="49"/>
-      <c r="B204" s="96"/>
-      <c r="C204" s="60"/>
-      <c r="D204" s="47"/>
-      <c r="E204" s="54"/>
-      <c r="F204" s="47"/>
-      <c r="G204" s="47"/>
-      <c r="H204" s="13" t="s">
+    <row r="204" ht="13.5" spans="1:11">
+      <c r="A204" s="52"/>
+      <c r="B204" s="117"/>
+      <c r="C204" s="69"/>
+      <c r="D204" s="50"/>
+      <c r="E204" s="58"/>
+      <c r="F204" s="50"/>
+      <c r="G204" s="50"/>
+      <c r="H204" s="59"/>
+      <c r="I204" s="13" t="s">
         <v>348</v>
       </c>
-      <c r="I204" s="47"/>
-      <c r="J204" s="7" t="s">
+      <c r="J204" s="50"/>
+      <c r="K204" s="7" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="205" ht="13.5" spans="1:10">
-      <c r="A205" s="49"/>
-      <c r="B205" s="96"/>
-      <c r="C205" s="60"/>
-      <c r="D205" s="47"/>
-      <c r="E205" s="54"/>
-      <c r="F205" s="47"/>
-      <c r="G205" s="47"/>
-      <c r="H205" s="13" t="s">
+    <row r="205" ht="13.5" spans="1:11">
+      <c r="A205" s="52"/>
+      <c r="B205" s="117"/>
+      <c r="C205" s="69"/>
+      <c r="D205" s="50"/>
+      <c r="E205" s="58"/>
+      <c r="F205" s="50"/>
+      <c r="G205" s="50"/>
+      <c r="H205" s="59"/>
+      <c r="I205" s="13" t="s">
         <v>349</v>
       </c>
-      <c r="I205" s="47"/>
-      <c r="J205" s="7" t="s">
+      <c r="J205" s="50"/>
+      <c r="K205" s="7" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="206" ht="13.5" spans="1:10">
-      <c r="A206" s="49"/>
-      <c r="B206" s="96"/>
-      <c r="C206" s="60"/>
-      <c r="D206" s="47"/>
-      <c r="E206" s="54"/>
-      <c r="F206" s="47"/>
-      <c r="G206" s="47"/>
-      <c r="H206" s="13" t="s">
+    <row r="206" ht="13.5" spans="1:11">
+      <c r="A206" s="52"/>
+      <c r="B206" s="117"/>
+      <c r="C206" s="69"/>
+      <c r="D206" s="50"/>
+      <c r="E206" s="58"/>
+      <c r="F206" s="50"/>
+      <c r="G206" s="50"/>
+      <c r="H206" s="59"/>
+      <c r="I206" s="13" t="s">
         <v>350</v>
       </c>
-      <c r="I206" s="47"/>
-      <c r="J206" s="7" t="s">
+      <c r="J206" s="50"/>
+      <c r="K206" s="7" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="207" ht="13.5" spans="1:10">
-      <c r="A207" s="49"/>
-      <c r="B207" s="96"/>
-      <c r="C207" s="60"/>
-      <c r="D207" s="47"/>
-      <c r="E207" s="54"/>
-      <c r="F207" s="47"/>
-      <c r="G207" s="47"/>
-      <c r="H207" s="13" t="s">
+    <row r="207" ht="13.5" spans="1:11">
+      <c r="A207" s="52"/>
+      <c r="B207" s="117"/>
+      <c r="C207" s="69"/>
+      <c r="D207" s="50"/>
+      <c r="E207" s="58"/>
+      <c r="F207" s="50"/>
+      <c r="G207" s="50"/>
+      <c r="H207" s="59"/>
+      <c r="I207" s="13" t="s">
         <v>351</v>
       </c>
-      <c r="I207" s="47"/>
-      <c r="J207" s="7" t="s">
+      <c r="J207" s="50"/>
+      <c r="K207" s="7" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="208" ht="13.5" spans="1:10">
-      <c r="A208" s="49"/>
-      <c r="B208" s="96"/>
-      <c r="C208" s="60"/>
-      <c r="D208" s="47"/>
-      <c r="E208" s="54"/>
-      <c r="F208" s="47"/>
-      <c r="G208" s="47"/>
-      <c r="H208" s="13" t="s">
+    <row r="208" ht="13.5" spans="1:11">
+      <c r="A208" s="52"/>
+      <c r="B208" s="117"/>
+      <c r="C208" s="69"/>
+      <c r="D208" s="50"/>
+      <c r="E208" s="58"/>
+      <c r="F208" s="50"/>
+      <c r="G208" s="50"/>
+      <c r="H208" s="59"/>
+      <c r="I208" s="13" t="s">
         <v>352</v>
       </c>
-      <c r="I208" s="47"/>
-      <c r="J208" s="7" t="s">
+      <c r="J208" s="50"/>
+      <c r="K208" s="7" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="209" ht="13.5" spans="1:10">
-      <c r="A209" s="49"/>
-      <c r="B209" s="96"/>
-      <c r="C209" s="60"/>
-      <c r="D209" s="47"/>
-      <c r="E209" s="54"/>
-      <c r="F209" s="47"/>
-      <c r="G209" s="47"/>
-      <c r="H209" s="13" t="s">
+    <row r="209" ht="13.5" spans="1:11">
+      <c r="A209" s="52"/>
+      <c r="B209" s="117"/>
+      <c r="C209" s="69"/>
+      <c r="D209" s="50"/>
+      <c r="E209" s="58"/>
+      <c r="F209" s="50"/>
+      <c r="G209" s="50"/>
+      <c r="H209" s="59"/>
+      <c r="I209" s="13" t="s">
         <v>353</v>
       </c>
-      <c r="I209" s="47"/>
-      <c r="J209" s="7" t="s">
+      <c r="J209" s="50"/>
+      <c r="K209" s="7" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="210" ht="13.5" spans="1:10">
-      <c r="A210" s="49"/>
-      <c r="B210" s="96"/>
-      <c r="C210" s="60"/>
-      <c r="D210" s="47"/>
-      <c r="E210" s="54"/>
-      <c r="F210" s="47"/>
-      <c r="G210" s="47"/>
-      <c r="H210" s="13" t="s">
+    <row r="210" ht="13.5" spans="1:11">
+      <c r="A210" s="52"/>
+      <c r="B210" s="117"/>
+      <c r="C210" s="69"/>
+      <c r="D210" s="50"/>
+      <c r="E210" s="58"/>
+      <c r="F210" s="50"/>
+      <c r="G210" s="50"/>
+      <c r="H210" s="59"/>
+      <c r="I210" s="13" t="s">
         <v>354</v>
       </c>
-      <c r="I210" s="47"/>
-      <c r="J210" s="7" t="s">
+      <c r="J210" s="50"/>
+      <c r="K210" s="7" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="211" ht="13.5" spans="1:10">
-      <c r="A211" s="49"/>
-      <c r="B211" s="96"/>
-      <c r="C211" s="60"/>
-      <c r="D211" s="47"/>
-      <c r="E211" s="54"/>
-      <c r="F211" s="47"/>
-      <c r="G211" s="47"/>
-      <c r="H211" s="13" t="s">
+    <row r="211" ht="13.5" spans="1:11">
+      <c r="A211" s="52"/>
+      <c r="B211" s="117"/>
+      <c r="C211" s="69"/>
+      <c r="D211" s="50"/>
+      <c r="E211" s="58"/>
+      <c r="F211" s="50"/>
+      <c r="G211" s="50"/>
+      <c r="H211" s="59"/>
+      <c r="I211" s="13" t="s">
         <v>355</v>
       </c>
-      <c r="I211" s="47"/>
-      <c r="J211" s="7" t="s">
+      <c r="J211" s="50"/>
+      <c r="K211" s="7" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="212" ht="13.5" spans="1:10">
-      <c r="A212" s="49"/>
-      <c r="B212" s="96"/>
-      <c r="C212" s="60"/>
-      <c r="D212" s="47"/>
-      <c r="E212" s="54"/>
-      <c r="F212" s="47"/>
-      <c r="G212" s="47"/>
-      <c r="H212" s="13" t="s">
+    <row r="212" ht="13.5" spans="1:11">
+      <c r="A212" s="52"/>
+      <c r="B212" s="117"/>
+      <c r="C212" s="69"/>
+      <c r="D212" s="50"/>
+      <c r="E212" s="58"/>
+      <c r="F212" s="50"/>
+      <c r="G212" s="50"/>
+      <c r="H212" s="59"/>
+      <c r="I212" s="13" t="s">
         <v>356</v>
       </c>
-      <c r="I212" s="47"/>
-      <c r="J212" s="7" t="s">
+      <c r="J212" s="50"/>
+      <c r="K212" s="7" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="213" ht="13.5" spans="1:10">
-      <c r="A213" s="49"/>
-      <c r="B213" s="96"/>
-      <c r="C213" s="60"/>
-      <c r="D213" s="47"/>
-      <c r="E213" s="54"/>
-      <c r="F213" s="47"/>
-      <c r="G213" s="47"/>
-      <c r="H213" s="13" t="s">
+    <row r="213" ht="13.5" spans="1:11">
+      <c r="A213" s="52"/>
+      <c r="B213" s="117"/>
+      <c r="C213" s="69"/>
+      <c r="D213" s="50"/>
+      <c r="E213" s="58"/>
+      <c r="F213" s="50"/>
+      <c r="G213" s="50"/>
+      <c r="H213" s="59"/>
+      <c r="I213" s="13" t="s">
         <v>357</v>
       </c>
-      <c r="I213" s="47"/>
-      <c r="J213" s="7" t="s">
+      <c r="J213" s="50"/>
+      <c r="K213" s="7" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="214" ht="13.5" spans="1:10">
-      <c r="A214" s="49"/>
-      <c r="B214" s="96"/>
-      <c r="C214" s="60"/>
-      <c r="D214" s="47"/>
-      <c r="E214" s="54"/>
-      <c r="F214" s="47"/>
-      <c r="G214" s="47"/>
-      <c r="H214" s="13" t="s">
+    <row r="214" ht="13.5" spans="1:11">
+      <c r="A214" s="52"/>
+      <c r="B214" s="117"/>
+      <c r="C214" s="69"/>
+      <c r="D214" s="50"/>
+      <c r="E214" s="58"/>
+      <c r="F214" s="50"/>
+      <c r="G214" s="50"/>
+      <c r="H214" s="59"/>
+      <c r="I214" s="13" t="s">
         <v>358</v>
       </c>
-      <c r="I214" s="47"/>
-      <c r="J214" s="7" t="s">
+      <c r="J214" s="50"/>
+      <c r="K214" s="7" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="215" ht="13.5" spans="1:10">
-      <c r="A215" s="49"/>
-      <c r="B215" s="96"/>
-      <c r="C215" s="60"/>
-      <c r="D215" s="47"/>
-      <c r="E215" s="54"/>
-      <c r="F215" s="47"/>
-      <c r="G215" s="47"/>
-      <c r="H215" s="13" t="s">
+    <row r="215" ht="13.5" spans="1:11">
+      <c r="A215" s="52"/>
+      <c r="B215" s="117"/>
+      <c r="C215" s="69"/>
+      <c r="D215" s="50"/>
+      <c r="E215" s="58"/>
+      <c r="F215" s="50"/>
+      <c r="G215" s="50"/>
+      <c r="H215" s="59"/>
+      <c r="I215" s="13" t="s">
         <v>359</v>
       </c>
-      <c r="I215" s="47"/>
-      <c r="J215" s="7" t="s">
+      <c r="J215" s="50"/>
+      <c r="K215" s="7" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="216" ht="13.5" spans="1:10">
-      <c r="A216" s="49"/>
-      <c r="B216" s="96"/>
-      <c r="C216" s="60"/>
-      <c r="D216" s="47"/>
-      <c r="E216" s="54"/>
-      <c r="F216" s="47"/>
-      <c r="G216" s="47"/>
-      <c r="H216" s="13" t="s">
+    <row r="216" ht="13.5" spans="1:11">
+      <c r="A216" s="52"/>
+      <c r="B216" s="117"/>
+      <c r="C216" s="69"/>
+      <c r="D216" s="50"/>
+      <c r="E216" s="58"/>
+      <c r="F216" s="50"/>
+      <c r="G216" s="50"/>
+      <c r="H216" s="59"/>
+      <c r="I216" s="13" t="s">
         <v>360</v>
       </c>
-      <c r="I216" s="47"/>
-      <c r="J216" s="7" t="s">
+      <c r="J216" s="50"/>
+      <c r="K216" s="7" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="217" ht="13.5" spans="1:10">
-      <c r="A217" s="49"/>
-      <c r="B217" s="96"/>
-      <c r="C217" s="63"/>
+    <row r="217" ht="13.5" spans="1:11">
+      <c r="A217" s="52"/>
+      <c r="B217" s="117"/>
+      <c r="C217" s="74"/>
       <c r="D217" s="20"/>
-      <c r="E217" s="56"/>
+      <c r="E217" s="61"/>
       <c r="F217" s="20"/>
       <c r="G217" s="20"/>
-      <c r="H217" s="13" t="s">
+      <c r="H217" s="62"/>
+      <c r="I217" s="13" t="s">
         <v>361</v>
       </c>
-      <c r="I217" s="20"/>
-      <c r="J217" s="7" t="s">
+      <c r="J217" s="20"/>
+      <c r="K217" s="7" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="218" ht="13.5" spans="1:10">
-      <c r="A218" s="49"/>
-      <c r="B218" s="96"/>
-      <c r="C218" s="59" t="s">
+    <row r="218" ht="13.5" spans="1:11">
+      <c r="A218" s="52"/>
+      <c r="B218" s="117"/>
+      <c r="C218" s="68" t="s">
         <v>362</v>
       </c>
       <c r="D218" s="17" t="s">
         <v>83</v>
       </c>
-      <c r="E218" s="53"/>
+      <c r="E218" s="56"/>
       <c r="F218" s="17" t="s">
         <v>44</v>
       </c>
       <c r="G218" s="17"/>
-      <c r="H218" s="13" t="s">
+      <c r="H218" s="57"/>
+      <c r="I218" s="13" t="s">
         <v>363</v>
       </c>
-      <c r="I218" s="17"/>
-      <c r="J218" s="7" t="s">
+      <c r="J218" s="17"/>
+      <c r="K218" s="7" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="219" ht="13.5" spans="1:10">
-      <c r="A219" s="49"/>
-      <c r="B219" s="96"/>
-      <c r="C219" s="60"/>
-      <c r="D219" s="47"/>
-      <c r="E219" s="54"/>
-      <c r="F219" s="47"/>
-      <c r="G219" s="47"/>
-      <c r="H219" s="13" t="s">
+    <row r="219" ht="13.5" spans="1:11">
+      <c r="A219" s="52"/>
+      <c r="B219" s="117"/>
+      <c r="C219" s="69"/>
+      <c r="D219" s="50"/>
+      <c r="E219" s="58"/>
+      <c r="F219" s="50"/>
+      <c r="G219" s="50"/>
+      <c r="H219" s="59"/>
+      <c r="I219" s="13" t="s">
         <v>364</v>
       </c>
-      <c r="I219" s="47"/>
-      <c r="J219" s="7" t="s">
+      <c r="J219" s="50"/>
+      <c r="K219" s="7" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="220" ht="13.5" spans="1:10">
-      <c r="A220" s="49"/>
-      <c r="B220" s="96"/>
-      <c r="C220" s="60"/>
-      <c r="D220" s="47"/>
-      <c r="E220" s="54"/>
-      <c r="F220" s="47"/>
-      <c r="G220" s="47"/>
-      <c r="H220" s="13" t="s">
+    <row r="220" ht="13.5" spans="1:11">
+      <c r="A220" s="52"/>
+      <c r="B220" s="117"/>
+      <c r="C220" s="69"/>
+      <c r="D220" s="50"/>
+      <c r="E220" s="58"/>
+      <c r="F220" s="50"/>
+      <c r="G220" s="50"/>
+      <c r="H220" s="59"/>
+      <c r="I220" s="13" t="s">
         <v>365</v>
       </c>
-      <c r="I220" s="47"/>
-      <c r="J220" s="7" t="s">
+      <c r="J220" s="50"/>
+      <c r="K220" s="7" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="221" ht="13.5" spans="1:10">
-      <c r="A221" s="49"/>
-      <c r="B221" s="96"/>
-      <c r="C221" s="60"/>
-      <c r="D221" s="47"/>
-      <c r="E221" s="54"/>
-      <c r="F221" s="47"/>
-      <c r="G221" s="47"/>
-      <c r="H221" s="13" t="s">
+    <row r="221" ht="13.5" spans="1:11">
+      <c r="A221" s="52"/>
+      <c r="B221" s="117"/>
+      <c r="C221" s="69"/>
+      <c r="D221" s="50"/>
+      <c r="E221" s="58"/>
+      <c r="F221" s="50"/>
+      <c r="G221" s="50"/>
+      <c r="H221" s="59"/>
+      <c r="I221" s="13" t="s">
         <v>366</v>
       </c>
-      <c r="I221" s="47"/>
-      <c r="J221" s="7" t="s">
+      <c r="J221" s="50"/>
+      <c r="K221" s="7" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="222" ht="13.5" spans="1:10">
-      <c r="A222" s="49"/>
-      <c r="B222" s="96"/>
-      <c r="C222" s="60"/>
-      <c r="D222" s="47"/>
-      <c r="E222" s="54"/>
-      <c r="F222" s="47"/>
-      <c r="G222" s="47"/>
-      <c r="H222" s="13" t="s">
+    <row r="222" ht="13.5" spans="1:11">
+      <c r="A222" s="52"/>
+      <c r="B222" s="117"/>
+      <c r="C222" s="69"/>
+      <c r="D222" s="50"/>
+      <c r="E222" s="58"/>
+      <c r="F222" s="50"/>
+      <c r="G222" s="50"/>
+      <c r="H222" s="59"/>
+      <c r="I222" s="13" t="s">
         <v>367</v>
       </c>
-      <c r="I222" s="47"/>
-      <c r="J222" s="7" t="s">
+      <c r="J222" s="50"/>
+      <c r="K222" s="7" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="223" ht="13.5" spans="1:10">
-      <c r="A223" s="49"/>
-      <c r="B223" s="96"/>
-      <c r="C223" s="60"/>
-      <c r="D223" s="47"/>
-      <c r="E223" s="54"/>
-      <c r="F223" s="47"/>
-      <c r="G223" s="47"/>
-      <c r="H223" s="13" t="s">
+    <row r="223" ht="13.5" spans="1:11">
+      <c r="A223" s="52"/>
+      <c r="B223" s="117"/>
+      <c r="C223" s="69"/>
+      <c r="D223" s="50"/>
+      <c r="E223" s="58"/>
+      <c r="F223" s="50"/>
+      <c r="G223" s="50"/>
+      <c r="H223" s="59"/>
+      <c r="I223" s="13" t="s">
         <v>368</v>
       </c>
-      <c r="I223" s="47"/>
-      <c r="J223" s="7" t="s">
+      <c r="J223" s="50"/>
+      <c r="K223" s="7" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="224" ht="13.5" spans="1:10">
-      <c r="A224" s="49"/>
-      <c r="B224" s="96"/>
-      <c r="C224" s="60"/>
-      <c r="D224" s="47"/>
-      <c r="E224" s="54"/>
-      <c r="F224" s="47"/>
-      <c r="G224" s="47"/>
-      <c r="H224" s="13" t="s">
+    <row r="224" ht="13.5" spans="1:11">
+      <c r="A224" s="52"/>
+      <c r="B224" s="117"/>
+      <c r="C224" s="69"/>
+      <c r="D224" s="50"/>
+      <c r="E224" s="58"/>
+      <c r="F224" s="50"/>
+      <c r="G224" s="50"/>
+      <c r="H224" s="59"/>
+      <c r="I224" s="13" t="s">
         <v>369</v>
       </c>
-      <c r="I224" s="47"/>
-      <c r="J224" s="7" t="s">
+      <c r="J224" s="50"/>
+      <c r="K224" s="7" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="225" ht="13.5" spans="1:10">
-      <c r="A225" s="49"/>
-      <c r="B225" s="96"/>
-      <c r="C225" s="60"/>
-      <c r="D225" s="47"/>
-      <c r="E225" s="54"/>
-      <c r="F225" s="47"/>
-      <c r="G225" s="47"/>
-      <c r="H225" s="13" t="s">
+    <row r="225" ht="13.5" spans="1:11">
+      <c r="A225" s="52"/>
+      <c r="B225" s="117"/>
+      <c r="C225" s="69"/>
+      <c r="D225" s="50"/>
+      <c r="E225" s="58"/>
+      <c r="F225" s="50"/>
+      <c r="G225" s="50"/>
+      <c r="H225" s="59"/>
+      <c r="I225" s="13" t="s">
         <v>370</v>
       </c>
-      <c r="I225" s="47"/>
-      <c r="J225" s="7" t="s">
+      <c r="J225" s="50"/>
+      <c r="K225" s="7" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="226" ht="13.5" spans="1:10">
-      <c r="A226" s="49"/>
-      <c r="B226" s="96"/>
-      <c r="C226" s="63"/>
+    <row r="226" ht="13.5" spans="1:11">
+      <c r="A226" s="52"/>
+      <c r="B226" s="117"/>
+      <c r="C226" s="74"/>
       <c r="D226" s="20"/>
-      <c r="E226" s="56"/>
+      <c r="E226" s="61"/>
       <c r="F226" s="20"/>
       <c r="G226" s="20"/>
-      <c r="H226" s="13" t="s">
+      <c r="H226" s="62"/>
+      <c r="I226" s="13" t="s">
         <v>371</v>
       </c>
-      <c r="I226" s="20"/>
-      <c r="J226" s="7" t="s">
+      <c r="J226" s="20"/>
+      <c r="K226" s="7" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="227" ht="13.5" spans="1:10">
-      <c r="A227" s="49"/>
-      <c r="B227" s="96"/>
+    <row r="227" ht="13.5" spans="1:11">
+      <c r="A227" s="52"/>
+      <c r="B227" s="117"/>
       <c r="C227" s="17" t="s">
         <v>372</v>
       </c>
       <c r="D227" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="E227" s="53"/>
+      <c r="E227" s="56"/>
       <c r="F227" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="G227" s="90"/>
-      <c r="H227" s="13" t="s">
+      <c r="G227" s="111"/>
+      <c r="H227" s="57"/>
+      <c r="I227" s="13" t="s">
         <v>373</v>
       </c>
-      <c r="I227" s="17"/>
-      <c r="J227" s="7" t="s">
+      <c r="J227" s="17"/>
+      <c r="K227" s="7" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="228" ht="13.5" spans="1:10">
-      <c r="A228" s="49"/>
-      <c r="B228" s="96"/>
-      <c r="C228" s="47"/>
-      <c r="D228" s="47"/>
-      <c r="E228" s="54"/>
-      <c r="F228" s="47"/>
-      <c r="G228" s="97"/>
-      <c r="H228" s="13" t="s">
+    <row r="228" ht="13.5" spans="1:11">
+      <c r="A228" s="52"/>
+      <c r="B228" s="117"/>
+      <c r="C228" s="50"/>
+      <c r="D228" s="50"/>
+      <c r="E228" s="58"/>
+      <c r="F228" s="50"/>
+      <c r="G228" s="118"/>
+      <c r="H228" s="59"/>
+      <c r="I228" s="13" t="s">
         <v>374</v>
       </c>
-      <c r="I228" s="47"/>
-      <c r="J228" s="7" t="s">
+      <c r="J228" s="50"/>
+      <c r="K228" s="7" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="229" ht="13.5" spans="1:10">
-      <c r="A229" s="49"/>
-      <c r="B229" s="98"/>
+    <row r="229" ht="13.5" spans="1:11">
+      <c r="A229" s="52"/>
+      <c r="B229" s="119"/>
       <c r="C229" s="20"/>
       <c r="D229" s="20"/>
-      <c r="E229" s="56"/>
+      <c r="E229" s="61"/>
       <c r="F229" s="20"/>
-      <c r="G229" s="91"/>
-      <c r="H229" s="13" t="s">
+      <c r="G229" s="112"/>
+      <c r="H229" s="62"/>
+      <c r="I229" s="13" t="s">
         <v>375</v>
       </c>
-      <c r="I229" s="20"/>
-      <c r="J229" s="7" t="s">
+      <c r="J229" s="20"/>
+      <c r="K229" s="7" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="230" ht="13.5" spans="1:10">
-      <c r="A230" s="49"/>
-      <c r="B230" s="45" t="s">
+    <row r="230" ht="13.5" spans="1:11">
+      <c r="A230" s="52"/>
+      <c r="B230" s="48" t="s">
         <v>376</v>
       </c>
-      <c r="C230" s="80" t="s">
+      <c r="C230" s="95" t="s">
         <v>376</v>
       </c>
       <c r="D230" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="E230" s="66"/>
+      <c r="E230" s="79"/>
       <c r="F230" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="G230" s="89"/>
-      <c r="H230" s="13" t="s">
+      <c r="G230" s="110"/>
+      <c r="H230" s="80"/>
+      <c r="I230" s="13" t="s">
         <v>377</v>
       </c>
-      <c r="I230" s="13"/>
-      <c r="J230" s="7" t="s">
+      <c r="J230" s="13"/>
+      <c r="K230" s="7" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="231" ht="13.5" spans="1:10">
-      <c r="A231" s="51"/>
-      <c r="B231" s="55"/>
-      <c r="C231" s="59" t="s">
+    <row r="231" ht="13.5" spans="1:11">
+      <c r="A231" s="54"/>
+      <c r="B231" s="60"/>
+      <c r="C231" s="68" t="s">
         <v>378</v>
       </c>
       <c r="D231" s="17" t="s">
         <v>83</v>
       </c>
-      <c r="E231" s="53"/>
+      <c r="E231" s="56"/>
       <c r="F231" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="G231" s="90"/>
-      <c r="H231" s="17" t="s">
+      <c r="G231" s="111"/>
+      <c r="H231" s="57"/>
+      <c r="I231" s="17" t="s">
         <v>379</v>
       </c>
-      <c r="I231" s="17"/>
-      <c r="J231" s="7" t="s">
+      <c r="J231" s="17"/>
+      <c r="K231" s="7" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="232" ht="13.5" spans="1:10">
+    <row r="232" ht="13.5" spans="1:11">
       <c r="A232" s="27" t="s">
         <v>380</v>
       </c>
-      <c r="B232" s="45" t="s">
+      <c r="B232" s="48" t="s">
         <v>381</v>
       </c>
-      <c r="C232" s="87" t="s">
+      <c r="C232" s="107" t="s">
         <v>382</v>
       </c>
-      <c r="D232" s="73" t="s">
+      <c r="D232" s="88" t="s">
         <v>83</v>
       </c>
-      <c r="E232" s="84"/>
-      <c r="F232" s="73" t="s">
+      <c r="E232" s="101"/>
+      <c r="F232" s="88" t="s">
         <v>29</v>
       </c>
-      <c r="G232" s="74"/>
-      <c r="H232" s="23" t="s">
+      <c r="G232" s="89"/>
+      <c r="H232" s="102"/>
+      <c r="I232" s="23" t="s">
         <v>383</v>
       </c>
-      <c r="I232" s="23"/>
-      <c r="J232" s="7" t="s">
+      <c r="J232" s="23"/>
+      <c r="K232" s="7" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="233" ht="13.5" spans="1:10">
-      <c r="A233" s="49"/>
-      <c r="B233" s="48"/>
-      <c r="C233" s="87" t="s">
+    <row r="233" ht="13.5" spans="1:11">
+      <c r="A233" s="52"/>
+      <c r="B233" s="51"/>
+      <c r="C233" s="107" t="s">
         <v>384</v>
       </c>
-      <c r="D233" s="76"/>
-      <c r="E233" s="85"/>
-      <c r="F233" s="76"/>
-      <c r="G233" s="77"/>
-      <c r="H233" s="23" t="s">
+      <c r="D233" s="91"/>
+      <c r="E233" s="103"/>
+      <c r="F233" s="91"/>
+      <c r="G233" s="92"/>
+      <c r="H233" s="104"/>
+      <c r="I233" s="23" t="s">
         <v>385</v>
       </c>
-      <c r="I233" s="23"/>
-      <c r="J233" s="7" t="s">
+      <c r="J233" s="23"/>
+      <c r="K233" s="7" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="234" ht="13.5" spans="1:10">
-      <c r="A234" s="49"/>
-      <c r="B234" s="48"/>
-      <c r="C234" s="72" t="s">
+    <row r="234" ht="13.5" spans="1:11">
+      <c r="A234" s="52"/>
+      <c r="B234" s="51"/>
+      <c r="C234" s="87" t="s">
         <v>386</v>
       </c>
-      <c r="D234" s="76"/>
-      <c r="E234" s="85"/>
-      <c r="F234" s="76"/>
-      <c r="G234" s="77"/>
-      <c r="H234" s="23" t="s">
+      <c r="D234" s="91"/>
+      <c r="E234" s="103"/>
+      <c r="F234" s="91"/>
+      <c r="G234" s="92"/>
+      <c r="H234" s="104"/>
+      <c r="I234" s="23" t="s">
         <v>387</v>
       </c>
-      <c r="I234" s="73"/>
-      <c r="J234" s="7" t="s">
+      <c r="J234" s="88"/>
+      <c r="K234" s="7" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="235" ht="13.5" spans="1:10">
-      <c r="A235" s="49"/>
-      <c r="B235" s="48"/>
-      <c r="C235" s="78"/>
-      <c r="D235" s="76"/>
-      <c r="E235" s="85"/>
-      <c r="F235" s="76"/>
-      <c r="G235" s="77"/>
-      <c r="H235" s="23" t="s">
+    <row r="235" ht="13.5" spans="1:11">
+      <c r="A235" s="52"/>
+      <c r="B235" s="51"/>
+      <c r="C235" s="93"/>
+      <c r="D235" s="91"/>
+      <c r="E235" s="103"/>
+      <c r="F235" s="91"/>
+      <c r="G235" s="92"/>
+      <c r="H235" s="104"/>
+      <c r="I235" s="23" t="s">
         <v>388</v>
       </c>
-      <c r="I235" s="25"/>
-      <c r="J235" s="7" t="s">
+      <c r="J235" s="25"/>
+      <c r="K235" s="7" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="236" ht="13.5" spans="1:10">
-      <c r="A236" s="49"/>
-      <c r="B236" s="48"/>
-      <c r="C236" s="87" t="s">
+    <row r="236" ht="13.5" spans="1:11">
+      <c r="A236" s="52"/>
+      <c r="B236" s="51"/>
+      <c r="C236" s="107" t="s">
         <v>389</v>
       </c>
-      <c r="D236" s="76"/>
-      <c r="E236" s="85"/>
-      <c r="F236" s="76"/>
-      <c r="G236" s="77"/>
-      <c r="H236" s="23" t="s">
+      <c r="D236" s="91"/>
+      <c r="E236" s="103"/>
+      <c r="F236" s="91"/>
+      <c r="G236" s="92"/>
+      <c r="H236" s="104"/>
+      <c r="I236" s="23" t="s">
         <v>390</v>
       </c>
-      <c r="I236" s="23"/>
-      <c r="J236" s="7" t="s">
+      <c r="J236" s="23"/>
+      <c r="K236" s="7" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="237" ht="13.5" spans="1:10">
-      <c r="A237" s="49"/>
-      <c r="B237" s="48"/>
-      <c r="C237" s="87" t="s">
+    <row r="237" ht="13.5" spans="1:11">
+      <c r="A237" s="52"/>
+      <c r="B237" s="51"/>
+      <c r="C237" s="107" t="s">
         <v>391</v>
       </c>
-      <c r="D237" s="76"/>
-      <c r="E237" s="85"/>
-      <c r="F237" s="76"/>
-      <c r="G237" s="77"/>
-      <c r="H237" s="23" t="s">
+      <c r="D237" s="91"/>
+      <c r="E237" s="103"/>
+      <c r="F237" s="91"/>
+      <c r="G237" s="92"/>
+      <c r="H237" s="104"/>
+      <c r="I237" s="23" t="s">
         <v>392</v>
       </c>
-      <c r="I237" s="23"/>
-      <c r="J237" s="7" t="s">
+      <c r="J237" s="23"/>
+      <c r="K237" s="7" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="238" ht="13.5" spans="1:10">
-      <c r="A238" s="49"/>
-      <c r="B238" s="55"/>
-      <c r="C238" s="87" t="s">
+    <row r="238" ht="13.5" spans="1:11">
+      <c r="A238" s="52"/>
+      <c r="B238" s="60"/>
+      <c r="C238" s="107" t="s">
         <v>393</v>
       </c>
-      <c r="D238" s="76"/>
-      <c r="E238" s="85"/>
-      <c r="F238" s="76"/>
-      <c r="G238" s="77"/>
-      <c r="H238" s="23" t="s">
+      <c r="D238" s="91"/>
+      <c r="E238" s="103"/>
+      <c r="F238" s="91"/>
+      <c r="G238" s="92"/>
+      <c r="H238" s="104"/>
+      <c r="I238" s="23" t="s">
         <v>394</v>
       </c>
-      <c r="I238" s="23"/>
-      <c r="J238" s="7" t="s">
+      <c r="J238" s="23"/>
+      <c r="K238" s="7" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="239" ht="13.5" spans="1:10">
-      <c r="A239" s="49"/>
-      <c r="B239" s="45" t="s">
+    <row r="239" ht="13.5" spans="1:11">
+      <c r="A239" s="52"/>
+      <c r="B239" s="48" t="s">
         <v>395</v>
       </c>
-      <c r="C239" s="87" t="s">
+      <c r="C239" s="107" t="s">
         <v>396</v>
       </c>
-      <c r="D239" s="76"/>
-      <c r="E239" s="85"/>
-      <c r="F239" s="76"/>
-      <c r="G239" s="77"/>
-      <c r="H239" s="23" t="s">
+      <c r="D239" s="91"/>
+      <c r="E239" s="103"/>
+      <c r="F239" s="91"/>
+      <c r="G239" s="92"/>
+      <c r="H239" s="104"/>
+      <c r="I239" s="23" t="s">
         <v>397</v>
       </c>
-      <c r="I239" s="23"/>
-      <c r="J239" s="7" t="s">
+      <c r="J239" s="23"/>
+      <c r="K239" s="7" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="240" ht="13.5" spans="1:10">
-      <c r="A240" s="51"/>
-      <c r="B240" s="55"/>
-      <c r="C240" s="87" t="s">
+    <row r="240" ht="13.5" spans="1:11">
+      <c r="A240" s="54"/>
+      <c r="B240" s="60"/>
+      <c r="C240" s="107" t="s">
         <v>398</v>
       </c>
       <c r="D240" s="25"/>
-      <c r="E240" s="86"/>
+      <c r="E240" s="105"/>
       <c r="F240" s="25"/>
-      <c r="G240" s="79"/>
-      <c r="H240" s="23" t="s">
+      <c r="G240" s="94"/>
+      <c r="H240" s="106"/>
+      <c r="I240" s="23" t="s">
         <v>399</v>
       </c>
-      <c r="I240" s="23"/>
-      <c r="J240" s="7" t="s">
+      <c r="J240" s="23"/>
+      <c r="K240" s="7" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="241" ht="30" customHeight="1" spans="1:10">
-      <c r="A241" s="53" t="s">
+    <row r="241" ht="30" customHeight="1" spans="1:11">
+      <c r="A241" s="56" t="s">
         <v>400</v>
       </c>
       <c r="B241" s="17" t="s">
@@ -7550,183 +7860,193 @@
       <c r="D241" s="17" t="s">
         <v>83</v>
       </c>
-      <c r="E241" s="53"/>
+      <c r="E241" s="56"/>
       <c r="F241" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="G241" s="90"/>
-      <c r="H241" s="13" t="s">
+      <c r="G241" s="120"/>
+      <c r="H241" s="57"/>
+      <c r="I241" s="13" t="s">
         <v>402</v>
       </c>
-      <c r="I241" s="13"/>
-      <c r="J241" s="7" t="s">
+      <c r="J241" s="13"/>
+      <c r="K241" s="7" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="242" ht="13.5" spans="1:10">
-      <c r="A242" s="54"/>
-      <c r="B242" s="47"/>
+    <row r="242" ht="13.5" spans="1:11">
+      <c r="A242" s="58"/>
+      <c r="B242" s="50"/>
       <c r="C242" s="13" t="s">
         <v>403</v>
       </c>
-      <c r="D242" s="47"/>
-      <c r="E242" s="54"/>
-      <c r="F242" s="47"/>
-      <c r="G242" s="97"/>
-      <c r="H242" s="13" t="s">
+      <c r="D242" s="50"/>
+      <c r="E242" s="58"/>
+      <c r="F242" s="50"/>
+      <c r="G242" s="121"/>
+      <c r="H242" s="59"/>
+      <c r="I242" s="13" t="s">
         <v>404</v>
       </c>
-      <c r="I242" s="13"/>
-      <c r="J242" s="7" t="s">
+      <c r="J242" s="13"/>
+      <c r="K242" s="7" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="243" ht="13.5" spans="1:10">
-      <c r="A243" s="54"/>
-      <c r="B243" s="47"/>
+    <row r="243" ht="13.5" spans="1:11">
+      <c r="A243" s="58"/>
+      <c r="B243" s="50"/>
       <c r="C243" s="13" t="s">
         <v>405</v>
       </c>
-      <c r="D243" s="47"/>
-      <c r="E243" s="54"/>
-      <c r="F243" s="47"/>
-      <c r="G243" s="97"/>
-      <c r="H243" s="13" t="s">
+      <c r="D243" s="50"/>
+      <c r="E243" s="58"/>
+      <c r="F243" s="50"/>
+      <c r="G243" s="121"/>
+      <c r="H243" s="59"/>
+      <c r="I243" s="13" t="s">
         <v>406</v>
       </c>
-      <c r="I243" s="13"/>
-      <c r="J243" s="7" t="s">
+      <c r="J243" s="13"/>
+      <c r="K243" s="7" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="244" ht="13.5" spans="1:10">
-      <c r="A244" s="54"/>
-      <c r="B244" s="47"/>
+    <row r="244" ht="13.5" spans="1:11">
+      <c r="A244" s="58"/>
+      <c r="B244" s="50"/>
       <c r="C244" s="13" t="s">
         <v>407</v>
       </c>
-      <c r="D244" s="47"/>
-      <c r="E244" s="54"/>
-      <c r="F244" s="47"/>
-      <c r="G244" s="97"/>
-      <c r="H244" s="13" t="s">
+      <c r="D244" s="50"/>
+      <c r="E244" s="58"/>
+      <c r="F244" s="50"/>
+      <c r="G244" s="121"/>
+      <c r="H244" s="59"/>
+      <c r="I244" s="13" t="s">
         <v>408</v>
       </c>
-      <c r="I244" s="13"/>
-      <c r="J244" s="7" t="s">
+      <c r="J244" s="13"/>
+      <c r="K244" s="7" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="245" ht="13.5" spans="1:10">
-      <c r="A245" s="54"/>
-      <c r="B245" s="47"/>
+    <row r="245" ht="13.5" spans="1:11">
+      <c r="A245" s="58"/>
+      <c r="B245" s="50"/>
       <c r="C245" s="13" t="s">
         <v>409</v>
       </c>
-      <c r="D245" s="47"/>
-      <c r="E245" s="54"/>
-      <c r="F245" s="47"/>
-      <c r="G245" s="97"/>
-      <c r="H245" s="13" t="s">
+      <c r="D245" s="50"/>
+      <c r="E245" s="58"/>
+      <c r="F245" s="50"/>
+      <c r="G245" s="121"/>
+      <c r="H245" s="59"/>
+      <c r="I245" s="13" t="s">
         <v>410</v>
       </c>
-      <c r="I245" s="13"/>
-      <c r="J245" s="7" t="s">
+      <c r="J245" s="13"/>
+      <c r="K245" s="7" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="246" ht="13.5" spans="1:10">
-      <c r="A246" s="54"/>
-      <c r="B246" s="47"/>
+    <row r="246" ht="13.5" spans="1:11">
+      <c r="A246" s="58"/>
+      <c r="B246" s="50"/>
       <c r="C246" s="13" t="s">
         <v>411</v>
       </c>
-      <c r="D246" s="47"/>
-      <c r="E246" s="54"/>
-      <c r="F246" s="47"/>
-      <c r="G246" s="97"/>
-      <c r="H246" s="13" t="s">
+      <c r="D246" s="50"/>
+      <c r="E246" s="58"/>
+      <c r="F246" s="50"/>
+      <c r="G246" s="121"/>
+      <c r="H246" s="59"/>
+      <c r="I246" s="13" t="s">
         <v>412</v>
       </c>
-      <c r="I246" s="13"/>
-      <c r="J246" s="7" t="s">
+      <c r="J246" s="13"/>
+      <c r="K246" s="7" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="247" ht="13.5" spans="1:10">
-      <c r="A247" s="54"/>
-      <c r="B247" s="47"/>
+    <row r="247" ht="13.5" spans="1:11">
+      <c r="A247" s="58"/>
+      <c r="B247" s="50"/>
       <c r="C247" s="13" t="s">
         <v>413</v>
       </c>
-      <c r="D247" s="47"/>
-      <c r="E247" s="54"/>
-      <c r="F247" s="47"/>
-      <c r="G247" s="97"/>
-      <c r="H247" s="13" t="s">
+      <c r="D247" s="50"/>
+      <c r="E247" s="58"/>
+      <c r="F247" s="50"/>
+      <c r="G247" s="121"/>
+      <c r="H247" s="59"/>
+      <c r="I247" s="13" t="s">
         <v>414</v>
       </c>
-      <c r="I247" s="13"/>
-      <c r="J247" s="7" t="s">
+      <c r="J247" s="13"/>
+      <c r="K247" s="7" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="248" ht="13.5" spans="1:10">
-      <c r="A248" s="54"/>
-      <c r="B248" s="47"/>
+    <row r="248" ht="13.5" spans="1:11">
+      <c r="A248" s="58"/>
+      <c r="B248" s="50"/>
       <c r="C248" s="13" t="s">
         <v>415</v>
       </c>
-      <c r="D248" s="47"/>
-      <c r="E248" s="54"/>
-      <c r="F248" s="47"/>
-      <c r="G248" s="97"/>
-      <c r="H248" s="13" t="s">
+      <c r="D248" s="50"/>
+      <c r="E248" s="58"/>
+      <c r="F248" s="50"/>
+      <c r="G248" s="121"/>
+      <c r="H248" s="59"/>
+      <c r="I248" s="13" t="s">
         <v>416</v>
       </c>
-      <c r="I248" s="13"/>
-      <c r="J248" s="7" t="s">
+      <c r="J248" s="13"/>
+      <c r="K248" s="7" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="249" ht="13.5" spans="1:10">
-      <c r="A249" s="54"/>
-      <c r="B249" s="47"/>
+    <row r="249" ht="13.5" spans="1:11">
+      <c r="A249" s="58"/>
+      <c r="B249" s="50"/>
       <c r="C249" s="13" t="s">
         <v>417</v>
       </c>
-      <c r="D249" s="47"/>
-      <c r="E249" s="54"/>
-      <c r="F249" s="47"/>
-      <c r="G249" s="97"/>
-      <c r="H249" s="13" t="s">
+      <c r="D249" s="50"/>
+      <c r="E249" s="58"/>
+      <c r="F249" s="50"/>
+      <c r="G249" s="121"/>
+      <c r="H249" s="59"/>
+      <c r="I249" s="13" t="s">
         <v>418</v>
       </c>
-      <c r="I249" s="13"/>
-      <c r="J249" s="7" t="s">
+      <c r="J249" s="13"/>
+      <c r="K249" s="7" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="250" ht="30" customHeight="1" spans="1:10">
-      <c r="A250" s="54"/>
+    <row r="250" ht="30" customHeight="1" spans="1:11">
+      <c r="A250" s="58"/>
       <c r="B250" s="20"/>
       <c r="C250" s="13" t="s">
         <v>419</v>
       </c>
       <c r="D250" s="20"/>
-      <c r="E250" s="56"/>
-      <c r="F250" s="47"/>
-      <c r="G250" s="97"/>
-      <c r="H250" s="13" t="s">
+      <c r="E250" s="61"/>
+      <c r="F250" s="50"/>
+      <c r="G250" s="121"/>
+      <c r="H250" s="62"/>
+      <c r="I250" s="13" t="s">
         <v>420</v>
       </c>
-      <c r="I250" s="13"/>
-      <c r="J250" s="7" t="s">
+      <c r="J250" s="13"/>
+      <c r="K250" s="7" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="251" ht="30" customHeight="1" spans="1:10">
-      <c r="A251" s="54"/>
+    <row r="251" ht="30" customHeight="1" spans="1:11">
+      <c r="A251" s="58"/>
       <c r="B251" s="17" t="s">
         <v>421</v>
       </c>
@@ -7736,90 +8056,95 @@
       <c r="D251" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="E251" s="53"/>
-      <c r="F251" s="47"/>
-      <c r="G251" s="97"/>
-      <c r="H251" s="13" t="s">
+      <c r="E251" s="56"/>
+      <c r="F251" s="50"/>
+      <c r="G251" s="121"/>
+      <c r="H251" s="57"/>
+      <c r="I251" s="13" t="s">
         <v>423</v>
       </c>
-      <c r="I251" s="13"/>
-      <c r="J251" s="7" t="s">
+      <c r="J251" s="13"/>
+      <c r="K251" s="7" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="252" ht="30" customHeight="1" spans="1:10">
-      <c r="A252" s="54"/>
-      <c r="B252" s="47"/>
+    <row r="252" ht="30" customHeight="1" spans="1:11">
+      <c r="A252" s="58"/>
+      <c r="B252" s="50"/>
       <c r="C252" s="13" t="s">
         <v>424</v>
       </c>
-      <c r="D252" s="47"/>
-      <c r="E252" s="54"/>
-      <c r="F252" s="47"/>
-      <c r="G252" s="97"/>
-      <c r="H252" s="13" t="s">
+      <c r="D252" s="50"/>
+      <c r="E252" s="58"/>
+      <c r="F252" s="50"/>
+      <c r="G252" s="121"/>
+      <c r="H252" s="59"/>
+      <c r="I252" s="13" t="s">
         <v>425</v>
       </c>
-      <c r="I252" s="13"/>
-      <c r="J252" s="7" t="s">
+      <c r="J252" s="13"/>
+      <c r="K252" s="7" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="253" ht="30" customHeight="1" spans="1:10">
-      <c r="A253" s="54"/>
-      <c r="B253" s="47"/>
+    <row r="253" ht="30" customHeight="1" spans="1:11">
+      <c r="A253" s="58"/>
+      <c r="B253" s="50"/>
       <c r="C253" s="13" t="s">
         <v>426</v>
       </c>
-      <c r="D253" s="47"/>
-      <c r="E253" s="54"/>
-      <c r="F253" s="47"/>
-      <c r="G253" s="97"/>
-      <c r="H253" s="13" t="s">
+      <c r="D253" s="50"/>
+      <c r="E253" s="58"/>
+      <c r="F253" s="50"/>
+      <c r="G253" s="121"/>
+      <c r="H253" s="59"/>
+      <c r="I253" s="13" t="s">
         <v>427</v>
       </c>
-      <c r="I253" s="13"/>
-      <c r="J253" s="7" t="s">
+      <c r="J253" s="13"/>
+      <c r="K253" s="7" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="254" ht="30" customHeight="1" spans="1:10">
-      <c r="A254" s="54"/>
-      <c r="B254" s="47"/>
+    <row r="254" ht="30" customHeight="1" spans="1:11">
+      <c r="A254" s="58"/>
+      <c r="B254" s="50"/>
       <c r="C254" s="13" t="s">
         <v>428</v>
       </c>
-      <c r="D254" s="47"/>
-      <c r="E254" s="54"/>
-      <c r="F254" s="47"/>
-      <c r="G254" s="97"/>
-      <c r="H254" s="13" t="s">
+      <c r="D254" s="50"/>
+      <c r="E254" s="58"/>
+      <c r="F254" s="50"/>
+      <c r="G254" s="121"/>
+      <c r="H254" s="59"/>
+      <c r="I254" s="13" t="s">
         <v>429</v>
       </c>
-      <c r="I254" s="13"/>
-      <c r="J254" s="7" t="s">
+      <c r="J254" s="13"/>
+      <c r="K254" s="7" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="255" ht="25.5" customHeight="1" spans="1:10">
-      <c r="A255" s="56"/>
+    <row r="255" ht="25.5" customHeight="1" spans="1:11">
+      <c r="A255" s="61"/>
       <c r="B255" s="20"/>
       <c r="C255" s="13" t="s">
         <v>430</v>
       </c>
       <c r="D255" s="20"/>
-      <c r="E255" s="56"/>
+      <c r="E255" s="61"/>
       <c r="F255" s="20"/>
-      <c r="G255" s="91"/>
-      <c r="H255" s="13" t="s">
+      <c r="G255" s="122"/>
+      <c r="H255" s="62"/>
+      <c r="I255" s="13" t="s">
         <v>431</v>
       </c>
-      <c r="I255" s="13"/>
-      <c r="J255" s="7" t="s">
+      <c r="J255" s="13"/>
+      <c r="K255" s="7" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="256" ht="13.5" spans="1:10">
+    <row r="256" ht="13.5" spans="1:11">
       <c r="A256" s="17" t="s">
         <v>432</v>
       </c>
@@ -7832,434 +8157,458 @@
       <c r="D256" s="17" t="s">
         <v>83</v>
       </c>
-      <c r="E256" s="53"/>
+      <c r="E256" s="56"/>
       <c r="F256" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="G256" s="90"/>
-      <c r="H256" s="13" t="s">
+      <c r="G256" s="111"/>
+      <c r="H256" s="57"/>
+      <c r="I256" s="13" t="s">
         <v>433</v>
       </c>
-      <c r="I256" s="17"/>
-      <c r="J256" s="7" t="s">
+      <c r="J256" s="17"/>
+      <c r="K256" s="7" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="257" ht="13.5" spans="1:10">
+    <row r="257" ht="13.5" spans="1:11">
       <c r="A257" s="20"/>
       <c r="B257" s="20"/>
       <c r="C257" s="20"/>
-      <c r="D257" s="47"/>
-      <c r="E257" s="54"/>
+      <c r="D257" s="50"/>
+      <c r="E257" s="58"/>
       <c r="F257" s="20"/>
-      <c r="G257" s="91"/>
-      <c r="H257" s="13" t="s">
+      <c r="G257" s="112"/>
+      <c r="H257" s="59"/>
+      <c r="I257" s="13" t="s">
         <v>434</v>
       </c>
-      <c r="I257" s="20"/>
-      <c r="J257" s="7" t="s">
+      <c r="J257" s="20"/>
+      <c r="K257" s="7" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="258" ht="30" customHeight="1" spans="1:10">
+    <row r="258" ht="30" customHeight="1" spans="1:11">
       <c r="A258" s="17" t="s">
         <v>435</v>
       </c>
-      <c r="B258" s="59" t="s">
+      <c r="B258" s="68" t="s">
         <v>436</v>
       </c>
-      <c r="C258" s="80" t="s">
+      <c r="C258" s="95" t="s">
         <v>437</v>
       </c>
-      <c r="D258" s="47"/>
-      <c r="E258" s="54"/>
+      <c r="D258" s="50"/>
+      <c r="E258" s="58"/>
       <c r="F258" s="17" t="s">
         <v>29</v>
       </c>
       <c r="G258" s="17"/>
-      <c r="H258" s="13" t="s">
+      <c r="H258" s="59"/>
+      <c r="I258" s="13" t="s">
         <v>438</v>
       </c>
-      <c r="I258" s="13"/>
-      <c r="J258" s="7" t="s">
+      <c r="J258" s="13"/>
+      <c r="K258" s="7" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="259" ht="13.5" spans="1:10">
-      <c r="A259" s="47"/>
-      <c r="B259" s="60"/>
-      <c r="C259" s="80" t="s">
+    <row r="259" ht="13.5" spans="1:11">
+      <c r="A259" s="50"/>
+      <c r="B259" s="69"/>
+      <c r="C259" s="95" t="s">
         <v>439</v>
       </c>
-      <c r="D259" s="47"/>
-      <c r="E259" s="54"/>
-      <c r="F259" s="47"/>
-      <c r="G259" s="47"/>
-      <c r="H259" s="13" t="s">
+      <c r="D259" s="50"/>
+      <c r="E259" s="58"/>
+      <c r="F259" s="50"/>
+      <c r="G259" s="50"/>
+      <c r="H259" s="59"/>
+      <c r="I259" s="13" t="s">
         <v>440</v>
       </c>
-      <c r="I259" s="13"/>
-      <c r="J259" s="7" t="s">
+      <c r="J259" s="13"/>
+      <c r="K259" s="7" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="260" ht="13.5" spans="1:10">
-      <c r="A260" s="47"/>
-      <c r="B260" s="60"/>
-      <c r="C260" s="80" t="s">
+    <row r="260" ht="13.5" spans="1:11">
+      <c r="A260" s="50"/>
+      <c r="B260" s="69"/>
+      <c r="C260" s="95" t="s">
         <v>441</v>
       </c>
-      <c r="D260" s="47"/>
-      <c r="E260" s="54"/>
-      <c r="F260" s="47"/>
-      <c r="G260" s="47"/>
-      <c r="H260" s="13" t="s">
+      <c r="D260" s="50"/>
+      <c r="E260" s="58"/>
+      <c r="F260" s="50"/>
+      <c r="G260" s="50"/>
+      <c r="H260" s="59"/>
+      <c r="I260" s="13" t="s">
         <v>442</v>
       </c>
-      <c r="I260" s="13"/>
-      <c r="J260" s="7" t="s">
+      <c r="J260" s="13"/>
+      <c r="K260" s="7" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="261" ht="13.5" spans="1:10">
-      <c r="A261" s="47"/>
-      <c r="B261" s="60"/>
-      <c r="C261" s="80" t="s">
+    <row r="261" ht="13.5" spans="1:11">
+      <c r="A261" s="50"/>
+      <c r="B261" s="69"/>
+      <c r="C261" s="95" t="s">
         <v>443</v>
       </c>
-      <c r="D261" s="47"/>
-      <c r="E261" s="54"/>
-      <c r="F261" s="47"/>
-      <c r="G261" s="47"/>
-      <c r="H261" s="13" t="s">
+      <c r="D261" s="50"/>
+      <c r="E261" s="58"/>
+      <c r="F261" s="50"/>
+      <c r="G261" s="50"/>
+      <c r="H261" s="59"/>
+      <c r="I261" s="13" t="s">
         <v>433</v>
       </c>
-      <c r="I261" s="13"/>
-      <c r="J261" s="7" t="s">
+      <c r="J261" s="13"/>
+      <c r="K261" s="7" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="262" ht="45" customHeight="1" spans="1:10">
-      <c r="A262" s="47"/>
-      <c r="B262" s="60"/>
+    <row r="262" ht="45" customHeight="1" spans="1:11">
+      <c r="A262" s="50"/>
+      <c r="B262" s="69"/>
       <c r="C262" s="13" t="s">
         <v>444</v>
       </c>
-      <c r="D262" s="47"/>
-      <c r="E262" s="54"/>
-      <c r="F262" s="47"/>
-      <c r="G262" s="47"/>
-      <c r="H262" s="13" t="s">
+      <c r="D262" s="50"/>
+      <c r="E262" s="58"/>
+      <c r="F262" s="50"/>
+      <c r="G262" s="50"/>
+      <c r="H262" s="59"/>
+      <c r="I262" s="13" t="s">
         <v>445</v>
       </c>
-      <c r="I262" s="13"/>
-      <c r="J262" s="7" t="s">
+      <c r="J262" s="13"/>
+      <c r="K262" s="7" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="263" ht="30" customHeight="1" spans="1:10">
-      <c r="A263" s="47"/>
-      <c r="B263" s="60"/>
+    <row r="263" ht="30" customHeight="1" spans="1:11">
+      <c r="A263" s="50"/>
+      <c r="B263" s="69"/>
       <c r="C263" s="17" t="s">
         <v>400</v>
       </c>
-      <c r="D263" s="47"/>
-      <c r="E263" s="54"/>
-      <c r="F263" s="47"/>
-      <c r="G263" s="47"/>
-      <c r="H263" s="13" t="s">
+      <c r="D263" s="50"/>
+      <c r="E263" s="58"/>
+      <c r="F263" s="50"/>
+      <c r="G263" s="50"/>
+      <c r="H263" s="59"/>
+      <c r="I263" s="13" t="s">
         <v>446</v>
       </c>
-      <c r="I263" s="17"/>
-      <c r="J263" s="7" t="s">
+      <c r="J263" s="17"/>
+      <c r="K263" s="7" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="264" ht="13.5" spans="1:10">
-      <c r="A264" s="47"/>
-      <c r="B264" s="60"/>
-      <c r="C264" s="47"/>
-      <c r="D264" s="47"/>
-      <c r="E264" s="54"/>
-      <c r="F264" s="47"/>
-      <c r="G264" s="47"/>
-      <c r="H264" s="13" t="s">
+    <row r="264" ht="13.5" spans="1:11">
+      <c r="A264" s="50"/>
+      <c r="B264" s="69"/>
+      <c r="C264" s="50"/>
+      <c r="D264" s="50"/>
+      <c r="E264" s="58"/>
+      <c r="F264" s="50"/>
+      <c r="G264" s="50"/>
+      <c r="H264" s="59"/>
+      <c r="I264" s="13" t="s">
         <v>418</v>
       </c>
-      <c r="I264" s="47"/>
-      <c r="J264" s="7" t="s">
+      <c r="J264" s="50"/>
+      <c r="K264" s="7" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="265" ht="13.5" spans="1:10">
-      <c r="A265" s="47"/>
-      <c r="B265" s="60"/>
-      <c r="C265" s="47"/>
-      <c r="D265" s="47"/>
-      <c r="E265" s="54"/>
-      <c r="F265" s="47"/>
-      <c r="G265" s="47"/>
-      <c r="H265" s="13" t="s">
+    <row r="265" ht="13.5" spans="1:11">
+      <c r="A265" s="50"/>
+      <c r="B265" s="69"/>
+      <c r="C265" s="50"/>
+      <c r="D265" s="50"/>
+      <c r="E265" s="58"/>
+      <c r="F265" s="50"/>
+      <c r="G265" s="50"/>
+      <c r="H265" s="59"/>
+      <c r="I265" s="13" t="s">
         <v>447</v>
       </c>
-      <c r="I265" s="47"/>
-      <c r="J265" s="7" t="s">
+      <c r="J265" s="50"/>
+      <c r="K265" s="7" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="266" ht="13.5" spans="1:10">
-      <c r="A266" s="47"/>
-      <c r="B266" s="63"/>
+    <row r="266" ht="13.5" spans="1:11">
+      <c r="A266" s="50"/>
+      <c r="B266" s="74"/>
       <c r="C266" s="20"/>
       <c r="D266" s="20"/>
-      <c r="E266" s="56"/>
+      <c r="E266" s="61"/>
       <c r="F266" s="20"/>
       <c r="G266" s="20"/>
-      <c r="H266" s="13" t="s">
+      <c r="H266" s="62"/>
+      <c r="I266" s="13" t="s">
         <v>404</v>
       </c>
-      <c r="I266" s="20"/>
-      <c r="J266" s="7" t="s">
+      <c r="J266" s="20"/>
+      <c r="K266" s="7" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="267" ht="13.5" spans="1:10">
-      <c r="A267" s="47"/>
-      <c r="B267" s="59" t="s">
+    <row r="267" ht="13.5" spans="1:11">
+      <c r="A267" s="50"/>
+      <c r="B267" s="68" t="s">
         <v>448</v>
       </c>
-      <c r="C267" s="59" t="s">
+      <c r="C267" s="68" t="s">
         <v>449</v>
       </c>
       <c r="D267" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="E267" s="53"/>
+      <c r="E267" s="56"/>
       <c r="F267" s="17" t="s">
         <v>29</v>
       </c>
       <c r="G267" s="17"/>
-      <c r="H267" s="13" t="s">
+      <c r="H267" s="57"/>
+      <c r="I267" s="13" t="s">
         <v>450</v>
       </c>
-      <c r="I267" s="17"/>
-      <c r="J267" s="7" t="s">
+      <c r="J267" s="17"/>
+      <c r="K267" s="7" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="268" ht="13.5" spans="1:10">
-      <c r="A268" s="47"/>
-      <c r="B268" s="60"/>
-      <c r="C268" s="63"/>
-      <c r="D268" s="47"/>
-      <c r="E268" s="54"/>
-      <c r="F268" s="47"/>
-      <c r="G268" s="47"/>
-      <c r="H268" s="13" t="s">
+    <row r="268" ht="13.5" spans="1:11">
+      <c r="A268" s="50"/>
+      <c r="B268" s="69"/>
+      <c r="C268" s="74"/>
+      <c r="D268" s="50"/>
+      <c r="E268" s="58"/>
+      <c r="F268" s="50"/>
+      <c r="G268" s="50"/>
+      <c r="H268" s="59"/>
+      <c r="I268" s="13" t="s">
         <v>451</v>
       </c>
-      <c r="I268" s="20"/>
-      <c r="J268" s="7" t="s">
+      <c r="J268" s="20"/>
+      <c r="K268" s="7" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="269" ht="13.5" spans="1:10">
-      <c r="A269" s="47"/>
-      <c r="B269" s="60"/>
-      <c r="C269" s="80" t="s">
+    <row r="269" ht="13.5" spans="1:11">
+      <c r="A269" s="50"/>
+      <c r="B269" s="69"/>
+      <c r="C269" s="95" t="s">
         <v>452</v>
       </c>
-      <c r="D269" s="47"/>
-      <c r="E269" s="54"/>
-      <c r="F269" s="47"/>
-      <c r="G269" s="47"/>
-      <c r="H269" s="13" t="s">
+      <c r="D269" s="50"/>
+      <c r="E269" s="58"/>
+      <c r="F269" s="50"/>
+      <c r="G269" s="50"/>
+      <c r="H269" s="59"/>
+      <c r="I269" s="13" t="s">
         <v>453</v>
       </c>
-      <c r="I269" s="13"/>
-      <c r="J269" s="7" t="s">
+      <c r="J269" s="13"/>
+      <c r="K269" s="7" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="270" ht="13.5" spans="1:10">
-      <c r="A270" s="47"/>
-      <c r="B270" s="60"/>
-      <c r="C270" s="80" t="s">
+    <row r="270" ht="13.5" spans="1:11">
+      <c r="A270" s="50"/>
+      <c r="B270" s="69"/>
+      <c r="C270" s="95" t="s">
         <v>454</v>
       </c>
-      <c r="D270" s="47"/>
-      <c r="E270" s="54"/>
-      <c r="F270" s="47"/>
-      <c r="G270" s="47"/>
-      <c r="H270" s="13" t="s">
+      <c r="D270" s="50"/>
+      <c r="E270" s="58"/>
+      <c r="F270" s="50"/>
+      <c r="G270" s="50"/>
+      <c r="H270" s="59"/>
+      <c r="I270" s="13" t="s">
         <v>455</v>
       </c>
-      <c r="I270" s="13"/>
-      <c r="J270" s="7" t="s">
+      <c r="J270" s="13"/>
+      <c r="K270" s="7" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="271" ht="13.5" spans="1:10">
-      <c r="A271" s="47"/>
-      <c r="B271" s="60"/>
-      <c r="C271" s="59" t="s">
+    <row r="271" ht="13.5" spans="1:11">
+      <c r="A271" s="50"/>
+      <c r="B271" s="69"/>
+      <c r="C271" s="68" t="s">
         <v>456</v>
       </c>
-      <c r="D271" s="47"/>
-      <c r="E271" s="54"/>
-      <c r="F271" s="47"/>
-      <c r="G271" s="47"/>
-      <c r="H271" s="13" t="s">
+      <c r="D271" s="50"/>
+      <c r="E271" s="58"/>
+      <c r="F271" s="50"/>
+      <c r="G271" s="50"/>
+      <c r="H271" s="59"/>
+      <c r="I271" s="13" t="s">
         <v>457</v>
       </c>
-      <c r="I271" s="13"/>
-      <c r="J271" s="7" t="s">
+      <c r="J271" s="13"/>
+      <c r="K271" s="7" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="272" ht="13.5" spans="1:10">
-      <c r="A272" s="47"/>
-      <c r="B272" s="60"/>
-      <c r="C272" s="63"/>
-      <c r="D272" s="47"/>
-      <c r="E272" s="54"/>
-      <c r="F272" s="47"/>
-      <c r="G272" s="47"/>
-      <c r="H272" s="13" t="s">
+    <row r="272" ht="13.5" spans="1:11">
+      <c r="A272" s="50"/>
+      <c r="B272" s="69"/>
+      <c r="C272" s="74"/>
+      <c r="D272" s="50"/>
+      <c r="E272" s="58"/>
+      <c r="F272" s="50"/>
+      <c r="G272" s="50"/>
+      <c r="H272" s="59"/>
+      <c r="I272" s="13" t="s">
         <v>458</v>
       </c>
-      <c r="I272" s="13"/>
-      <c r="J272" s="7" t="s">
+      <c r="J272" s="13"/>
+      <c r="K272" s="7" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="273" ht="13.5" spans="1:10">
-      <c r="A273" s="47"/>
-      <c r="B273" s="60"/>
-      <c r="C273" s="80" t="s">
+    <row r="273" ht="13.5" spans="1:11">
+      <c r="A273" s="50"/>
+      <c r="B273" s="69"/>
+      <c r="C273" s="95" t="s">
         <v>191</v>
       </c>
-      <c r="D273" s="47"/>
-      <c r="E273" s="54"/>
-      <c r="F273" s="47"/>
-      <c r="G273" s="47"/>
-      <c r="H273" s="13" t="s">
+      <c r="D273" s="50"/>
+      <c r="E273" s="58"/>
+      <c r="F273" s="50"/>
+      <c r="G273" s="50"/>
+      <c r="H273" s="59"/>
+      <c r="I273" s="13" t="s">
         <v>459</v>
       </c>
-      <c r="I273" s="13"/>
-      <c r="J273" s="7" t="s">
+      <c r="J273" s="13"/>
+      <c r="K273" s="7" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="274" ht="13.5" spans="1:10">
-      <c r="A274" s="47"/>
-      <c r="B274" s="60"/>
-      <c r="C274" s="80" t="s">
+    <row r="274" ht="13.5" spans="1:11">
+      <c r="A274" s="50"/>
+      <c r="B274" s="69"/>
+      <c r="C274" s="95" t="s">
         <v>460</v>
       </c>
-      <c r="D274" s="47"/>
-      <c r="E274" s="54"/>
-      <c r="F274" s="47"/>
-      <c r="G274" s="47"/>
-      <c r="H274" s="13" t="s">
+      <c r="D274" s="50"/>
+      <c r="E274" s="58"/>
+      <c r="F274" s="50"/>
+      <c r="G274" s="50"/>
+      <c r="H274" s="59"/>
+      <c r="I274" s="13" t="s">
         <v>461</v>
       </c>
-      <c r="I274" s="13"/>
-      <c r="J274" s="7" t="s">
+      <c r="J274" s="13"/>
+      <c r="K274" s="7" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="275" ht="13.5" spans="1:10">
-      <c r="A275" s="47"/>
-      <c r="B275" s="63"/>
-      <c r="C275" s="80" t="s">
+    <row r="275" ht="13.5" spans="1:11">
+      <c r="A275" s="50"/>
+      <c r="B275" s="74"/>
+      <c r="C275" s="95" t="s">
         <v>462</v>
       </c>
       <c r="D275" s="20"/>
-      <c r="E275" s="56"/>
+      <c r="E275" s="61"/>
       <c r="F275" s="20"/>
       <c r="G275" s="20"/>
-      <c r="H275" s="13" t="s">
+      <c r="H275" s="62"/>
+      <c r="I275" s="13" t="s">
         <v>463</v>
       </c>
-      <c r="I275" s="13"/>
-      <c r="J275" s="7" t="s">
+      <c r="J275" s="13"/>
+      <c r="K275" s="7" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="276" ht="13.5" spans="1:10">
-      <c r="A276" s="47"/>
-      <c r="B276" s="59" t="s">
+    <row r="276" ht="13.5" spans="1:11">
+      <c r="A276" s="50"/>
+      <c r="B276" s="68" t="s">
         <v>335</v>
       </c>
-      <c r="C276" s="59" t="s">
+      <c r="C276" s="68" t="s">
         <v>336</v>
       </c>
       <c r="D276" s="17" t="s">
         <v>83</v>
       </c>
-      <c r="E276" s="53"/>
+      <c r="E276" s="56"/>
       <c r="F276" s="17" t="s">
         <v>29</v>
       </c>
       <c r="G276" s="17"/>
-      <c r="H276" s="13" t="s">
+      <c r="H276" s="57"/>
+      <c r="I276" s="13" t="s">
         <v>337</v>
       </c>
-      <c r="I276" s="17"/>
-      <c r="J276" s="7" t="s">
+      <c r="J276" s="17"/>
+      <c r="K276" s="7" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="277" ht="13.5" spans="1:10">
-      <c r="A277" s="47"/>
-      <c r="B277" s="60"/>
-      <c r="C277" s="60"/>
-      <c r="D277" s="47"/>
-      <c r="E277" s="54"/>
-      <c r="F277" s="47"/>
-      <c r="G277" s="47"/>
-      <c r="H277" s="13" t="s">
+    <row r="277" ht="13.5" spans="1:11">
+      <c r="A277" s="50"/>
+      <c r="B277" s="69"/>
+      <c r="C277" s="69"/>
+      <c r="D277" s="50"/>
+      <c r="E277" s="58"/>
+      <c r="F277" s="50"/>
+      <c r="G277" s="50"/>
+      <c r="H277" s="59"/>
+      <c r="I277" s="13" t="s">
         <v>464</v>
       </c>
-      <c r="I277" s="47"/>
-      <c r="J277" s="7" t="s">
+      <c r="J277" s="50"/>
+      <c r="K277" s="7" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="278" ht="13.5" spans="1:10">
-      <c r="A278" s="47"/>
-      <c r="B278" s="60"/>
-      <c r="C278" s="60"/>
-      <c r="D278" s="47"/>
-      <c r="E278" s="54"/>
-      <c r="F278" s="47"/>
-      <c r="G278" s="47"/>
-      <c r="H278" s="13" t="s">
+    <row r="278" ht="13.5" spans="1:11">
+      <c r="A278" s="50"/>
+      <c r="B278" s="69"/>
+      <c r="C278" s="69"/>
+      <c r="D278" s="50"/>
+      <c r="E278" s="58"/>
+      <c r="F278" s="50"/>
+      <c r="G278" s="50"/>
+      <c r="H278" s="59"/>
+      <c r="I278" s="13" t="s">
         <v>351</v>
       </c>
-      <c r="I278" s="47"/>
-      <c r="J278" s="7" t="s">
+      <c r="J278" s="50"/>
+      <c r="K278" s="7" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="279" ht="13.5" spans="1:10">
-      <c r="A279" s="47"/>
-      <c r="B279" s="63"/>
-      <c r="C279" s="63"/>
+    <row r="279" ht="13.5" spans="1:11">
+      <c r="A279" s="50"/>
+      <c r="B279" s="74"/>
+      <c r="C279" s="74"/>
       <c r="D279" s="20"/>
-      <c r="E279" s="56"/>
+      <c r="E279" s="61"/>
       <c r="F279" s="20"/>
       <c r="G279" s="20"/>
-      <c r="H279" s="13" t="s">
+      <c r="H279" s="62"/>
+      <c r="I279" s="13" t="s">
         <v>352</v>
       </c>
-      <c r="I279" s="20"/>
-      <c r="J279" s="7" t="s">
+      <c r="J279" s="20"/>
+      <c r="K279" s="7" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="280" ht="13.5" spans="1:10">
+    <row r="280" ht="13.5" spans="1:11">
       <c r="A280" s="20"/>
       <c r="B280" s="13" t="s">
         <v>465</v>
@@ -8270,100 +8619,104 @@
       <c r="D280" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="E280" s="66"/>
+      <c r="E280" s="79"/>
       <c r="F280" s="13" t="s">
         <v>15</v>
       </c>
       <c r="G280" s="13"/>
-      <c r="H280" s="13" t="s">
+      <c r="H280" s="80"/>
+      <c r="I280" s="13" t="s">
         <v>466</v>
       </c>
-      <c r="I280" s="13"/>
-      <c r="J280" s="7" t="s">
+      <c r="J280" s="13"/>
+      <c r="K280" s="7" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="281" ht="13.5" spans="1:10">
-      <c r="A281" s="99" t="s">
+    <row r="281" ht="13.5" spans="1:11">
+      <c r="A281" s="123" t="s">
         <v>467</v>
       </c>
-      <c r="B281" s="100" t="s">
+      <c r="B281" s="124" t="s">
         <v>468</v>
       </c>
-      <c r="C281" s="101" t="s">
+      <c r="C281" s="125" t="s">
         <v>469</v>
       </c>
-      <c r="D281" s="102" t="s">
+      <c r="D281" s="126" t="s">
         <v>83</v>
       </c>
-      <c r="E281" s="103"/>
-      <c r="F281" s="102" t="s">
+      <c r="E281" s="127"/>
+      <c r="F281" s="126" t="s">
         <v>15</v>
       </c>
-      <c r="G281" s="104"/>
-      <c r="H281" s="102" t="s">
+      <c r="G281" s="128"/>
+      <c r="H281" s="129"/>
+      <c r="I281" s="126" t="s">
         <v>470</v>
       </c>
-      <c r="I281" s="117"/>
-      <c r="J281" s="7" t="s">
+      <c r="J281" s="144"/>
+      <c r="K281" s="7" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="282" ht="13.5" spans="1:10">
-      <c r="A282" s="105"/>
-      <c r="B282" s="106"/>
-      <c r="C282" s="107" t="s">
+    <row r="282" ht="13.5" spans="1:11">
+      <c r="A282" s="130"/>
+      <c r="B282" s="131"/>
+      <c r="C282" s="132" t="s">
         <v>28</v>
       </c>
-      <c r="D282" s="108" t="s">
+      <c r="D282" s="133" t="s">
         <v>83</v>
       </c>
-      <c r="E282" s="109"/>
-      <c r="F282" s="108" t="s">
+      <c r="E282" s="134"/>
+      <c r="F282" s="133" t="s">
         <v>15</v>
       </c>
-      <c r="G282" s="110"/>
-      <c r="H282" s="108"/>
-      <c r="I282" s="34"/>
-      <c r="J282" s="7"/>
-    </row>
-    <row r="283" ht="13.5" spans="1:10">
-      <c r="A283" s="111"/>
-      <c r="B283" s="112"/>
-      <c r="C283" s="107" t="s">
+      <c r="G282" s="135"/>
+      <c r="H282" s="136"/>
+      <c r="I282" s="133"/>
+      <c r="J282" s="34"/>
+      <c r="K282" s="7"/>
+    </row>
+    <row r="283" ht="13.5" spans="1:11">
+      <c r="A283" s="137"/>
+      <c r="B283" s="138"/>
+      <c r="C283" s="132" t="s">
         <v>472</v>
       </c>
-      <c r="D283" s="108" t="s">
+      <c r="D283" s="133" t="s">
         <v>83</v>
       </c>
-      <c r="E283" s="109"/>
-      <c r="F283" s="108" t="s">
+      <c r="E283" s="134"/>
+      <c r="F283" s="133" t="s">
         <v>15</v>
       </c>
-      <c r="G283" s="110"/>
-      <c r="H283" s="108"/>
-      <c r="I283" s="34"/>
-      <c r="J283" s="7"/>
-    </row>
-    <row r="284" ht="13.5" spans="1:8">
-      <c r="A284" s="113" t="s">
+      <c r="G283" s="135"/>
+      <c r="H283" s="136"/>
+      <c r="I283" s="133"/>
+      <c r="J283" s="34"/>
+      <c r="K283" s="7"/>
+    </row>
+    <row r="284" ht="13.5" spans="1:9">
+      <c r="A284" s="139" t="s">
         <v>473</v>
       </c>
-      <c r="B284" s="113"/>
-      <c r="C284" s="113"/>
-      <c r="D284" s="114"/>
-      <c r="E284" s="115"/>
-      <c r="F284" s="108" t="s">
+      <c r="B284" s="139"/>
+      <c r="C284" s="139"/>
+      <c r="D284" s="140"/>
+      <c r="E284" s="141"/>
+      <c r="F284" s="133" t="s">
         <v>15</v>
       </c>
-      <c r="G284" s="116"/>
-      <c r="H284" s="108" t="s">
+      <c r="G284" s="142"/>
+      <c r="H284" s="143"/>
+      <c r="I284" s="133" t="s">
         <v>474</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="293">
-    <mergeCell ref="A2:H2"/>
+  <mergeCells count="328">
     <mergeCell ref="A3:A62"/>
     <mergeCell ref="A63:A98"/>
     <mergeCell ref="A99:A106"/>
@@ -8611,51 +8964,87 @@
     <mergeCell ref="G258:G266"/>
     <mergeCell ref="G267:G275"/>
     <mergeCell ref="G276:G279"/>
-    <mergeCell ref="I3:I7"/>
-    <mergeCell ref="I8:I12"/>
-    <mergeCell ref="I13:I19"/>
-    <mergeCell ref="I22:I23"/>
-    <mergeCell ref="I24:I27"/>
-    <mergeCell ref="I29:I32"/>
-    <mergeCell ref="I39:I51"/>
-    <mergeCell ref="I52:I58"/>
-    <mergeCell ref="I63:I66"/>
-    <mergeCell ref="I68:I70"/>
-    <mergeCell ref="I71:I80"/>
-    <mergeCell ref="I82:I90"/>
-    <mergeCell ref="I95:I96"/>
-    <mergeCell ref="I97:I98"/>
-    <mergeCell ref="I99:I103"/>
-    <mergeCell ref="I105:I106"/>
-    <mergeCell ref="I107:I108"/>
-    <mergeCell ref="I109:I110"/>
-    <mergeCell ref="I111:I114"/>
-    <mergeCell ref="I115:I116"/>
-    <mergeCell ref="I118:I122"/>
-    <mergeCell ref="I125:I129"/>
-    <mergeCell ref="I131:I132"/>
-    <mergeCell ref="I144:I153"/>
-    <mergeCell ref="I156:I157"/>
-    <mergeCell ref="I158:I160"/>
-    <mergeCell ref="I161:I162"/>
-    <mergeCell ref="I165:I167"/>
-    <mergeCell ref="I168:I169"/>
-    <mergeCell ref="I170:I172"/>
-    <mergeCell ref="I176:I177"/>
-    <mergeCell ref="I179:I180"/>
-    <mergeCell ref="I181:I182"/>
-    <mergeCell ref="I183:I185"/>
-    <mergeCell ref="I186:I188"/>
-    <mergeCell ref="I189:I190"/>
-    <mergeCell ref="I194:I195"/>
-    <mergeCell ref="I196:I217"/>
-    <mergeCell ref="I218:I226"/>
-    <mergeCell ref="I227:I229"/>
-    <mergeCell ref="I234:I235"/>
-    <mergeCell ref="I256:I257"/>
-    <mergeCell ref="I263:I266"/>
-    <mergeCell ref="I267:I268"/>
-    <mergeCell ref="I276:I279"/>
+    <mergeCell ref="H3:H7"/>
+    <mergeCell ref="H8:H12"/>
+    <mergeCell ref="H13:H19"/>
+    <mergeCell ref="H22:H23"/>
+    <mergeCell ref="H25:H26"/>
+    <mergeCell ref="H29:H32"/>
+    <mergeCell ref="H39:H51"/>
+    <mergeCell ref="H52:H58"/>
+    <mergeCell ref="H63:H66"/>
+    <mergeCell ref="H68:H70"/>
+    <mergeCell ref="H71:H80"/>
+    <mergeCell ref="H82:H90"/>
+    <mergeCell ref="H95:H96"/>
+    <mergeCell ref="H97:H98"/>
+    <mergeCell ref="H99:H104"/>
+    <mergeCell ref="H105:H106"/>
+    <mergeCell ref="H107:H108"/>
+    <mergeCell ref="H109:H110"/>
+    <mergeCell ref="H111:H114"/>
+    <mergeCell ref="H115:H116"/>
+    <mergeCell ref="H118:H122"/>
+    <mergeCell ref="H125:H129"/>
+    <mergeCell ref="H131:H132"/>
+    <mergeCell ref="H156:H157"/>
+    <mergeCell ref="H158:H177"/>
+    <mergeCell ref="H178:H193"/>
+    <mergeCell ref="H194:H195"/>
+    <mergeCell ref="H196:H217"/>
+    <mergeCell ref="H218:H226"/>
+    <mergeCell ref="H227:H229"/>
+    <mergeCell ref="H232:H240"/>
+    <mergeCell ref="H241:H250"/>
+    <mergeCell ref="H251:H255"/>
+    <mergeCell ref="H256:H266"/>
+    <mergeCell ref="H267:H275"/>
+    <mergeCell ref="H276:H279"/>
+    <mergeCell ref="J3:J7"/>
+    <mergeCell ref="J8:J12"/>
+    <mergeCell ref="J13:J19"/>
+    <mergeCell ref="J22:J23"/>
+    <mergeCell ref="J24:J27"/>
+    <mergeCell ref="J29:J32"/>
+    <mergeCell ref="J39:J51"/>
+    <mergeCell ref="J52:J58"/>
+    <mergeCell ref="J63:J66"/>
+    <mergeCell ref="J68:J70"/>
+    <mergeCell ref="J71:J80"/>
+    <mergeCell ref="J82:J90"/>
+    <mergeCell ref="J95:J96"/>
+    <mergeCell ref="J97:J98"/>
+    <mergeCell ref="J99:J103"/>
+    <mergeCell ref="J105:J106"/>
+    <mergeCell ref="J107:J108"/>
+    <mergeCell ref="J109:J110"/>
+    <mergeCell ref="J111:J114"/>
+    <mergeCell ref="J115:J116"/>
+    <mergeCell ref="J118:J122"/>
+    <mergeCell ref="J125:J129"/>
+    <mergeCell ref="J131:J132"/>
+    <mergeCell ref="J144:J153"/>
+    <mergeCell ref="J156:J157"/>
+    <mergeCell ref="J158:J160"/>
+    <mergeCell ref="J161:J162"/>
+    <mergeCell ref="J165:J167"/>
+    <mergeCell ref="J168:J169"/>
+    <mergeCell ref="J170:J172"/>
+    <mergeCell ref="J176:J177"/>
+    <mergeCell ref="J179:J180"/>
+    <mergeCell ref="J181:J182"/>
+    <mergeCell ref="J183:J185"/>
+    <mergeCell ref="J186:J188"/>
+    <mergeCell ref="J189:J190"/>
+    <mergeCell ref="J194:J195"/>
+    <mergeCell ref="J196:J217"/>
+    <mergeCell ref="J218:J226"/>
+    <mergeCell ref="J227:J229"/>
+    <mergeCell ref="J234:J235"/>
+    <mergeCell ref="J256:J257"/>
+    <mergeCell ref="J263:J266"/>
+    <mergeCell ref="J267:J268"/>
+    <mergeCell ref="J276:J279"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
